--- a/sandbox/Data_for_application.xlsx
+++ b/sandbox/Data_for_application.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>9/21/1987</t>
   </si>
@@ -461,6 +461,12 @@
   </si>
   <si>
     <t>gdp_d</t>
+  </si>
+  <si>
+    <t>pb_u</t>
+  </si>
+  <si>
+    <t>pb_d</t>
   </si>
 </sst>
 </file>
@@ -806,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L211"/>
+  <dimension ref="A1:N211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:N211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,7 +826,7 @@
     <col min="11" max="12" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>138</v>
       </c>
@@ -857,8 +863,14 @@
       <c r="L1" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -878,31 +890,37 @@
         <v>6.8</v>
       </c>
       <c r="G2">
-        <f>IF($D2&gt;AVERAGE($D$2:$D$211),$D2,0)</f>
-        <v>0.42599999999999999</v>
+        <f>IF($D2&gt;AVERAGE($D$2:$D$211),$D2-AVERAGE($D$2:$D$211),0)</f>
+        <v>0.42730476190476191</v>
       </c>
       <c r="H2">
-        <f>IF($D2&lt;AVERAGE($D$2:$D$211),$D2,0)</f>
+        <f>IF($D2&lt;AVERAGE($D$2:$D$211),$D2-AVERAGE($D$2:$D$211),0)</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>IF($E2&gt;AVERAGE($E$2:$E$211),$E2,0)</f>
-        <v>1.6</v>
+        <f>IF($E2&gt;AVERAGE($E$2:$E$211),$E2-AVERAGE($E$2:$E$211),0)</f>
+        <v>0.13352380952381049</v>
       </c>
       <c r="J2">
-        <f>IF($E2&lt;AVERAGE($E$2:$E$211),$E2,0)</f>
+        <f>IF($E2&lt;AVERAGE($E$2:$E$211),$E2-AVERAGE($E$2:$E$211),0)</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>IF($F2&gt;AVERAGE($F$2:$F$211),$F2,0)</f>
-        <v>6.8</v>
+        <f>IF($F2&gt;AVERAGE($F$2:$F$211),$F2-AVERAGE($F$2:$F$211),0)</f>
+        <v>1.8857142857142852</v>
       </c>
       <c r="L2">
-        <f>IF($F2&lt;AVERAGE($F$2:$F$211),$F2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <f>IF($F2&lt;AVERAGE($F$2:$F$211),$F2-AVERAGE($F$2:$F$211),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>31819</v>
       </c>
@@ -922,31 +940,37 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="0">IF($D3&gt;AVERAGE($D$2:$D$211),$D3,0)</f>
-        <v>8.0000000000000002E-3</v>
+        <f t="shared" ref="G3:G66" si="0">IF($D3&gt;AVERAGE($D$2:$D$211),$D3-AVERAGE($D$2:$D$211),0)</f>
+        <v>9.3047619047619129E-3</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="1">IF($D3&lt;AVERAGE($D$2:$D$211),$D3,0)</f>
+        <f t="shared" ref="H3:H66" si="1">IF($D3&lt;AVERAGE($D$2:$D$211),$D3-AVERAGE($D$2:$D$211),0)</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="2">IF($E3&gt;AVERAGE($E$2:$E$211),$E3,0)</f>
-        <v>1.55</v>
+        <f t="shared" ref="I3:I66" si="2">IF($E3&gt;AVERAGE($E$2:$E$211),$E3-AVERAGE($E$2:$E$211),0)</f>
+        <v>8.3523809523810444E-2</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="3">IF($E3&lt;AVERAGE($E$2:$E$211),$E3,0)</f>
+        <f t="shared" ref="J3:J66" si="3">IF($E3&lt;AVERAGE($E$2:$E$211),$E3-AVERAGE($E$2:$E$211),0)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="4">IF($F3&gt;AVERAGE($F$2:$F$211),$F3,0)</f>
-        <v>5</v>
+        <f t="shared" ref="K3:K66" si="4">IF($F3&gt;AVERAGE($F$2:$F$211),$F3-AVERAGE($F$2:$F$211),0)</f>
+        <v>8.571428571428541E-2</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="5">IF($F3&lt;AVERAGE($F$2:$F$211),$F3,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L3:L66" si="5">IF($F3&lt;AVERAGE($F$2:$F$211),$F3-AVERAGE($F$2:$F$211),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -967,7 +991,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.53400000000000003</v>
+        <v>0.53530476190476195</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
@@ -975,7 +999,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>1.54</v>
+        <v>7.3523809523810435E-2</v>
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
@@ -983,14 +1007,20 @@
       </c>
       <c r="K4">
         <f t="shared" si="4"/>
-        <v>5.4</v>
+        <v>0.48571428571428577</v>
       </c>
       <c r="L4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>32234</v>
       </c>
@@ -1011,7 +1041,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.13</v>
+        <v>0.13130476190476192</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -1019,7 +1049,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>1.54</v>
+        <v>7.3523809523810435E-2</v>
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
@@ -1027,14 +1057,20 @@
       </c>
       <c r="K5">
         <f t="shared" si="4"/>
-        <v>5.4</v>
+        <v>0.48571428571428577</v>
       </c>
       <c r="L5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1055,7 +1091,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.13400000000000001</v>
+        <v>0.13530476190476193</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -1063,7 +1099,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>1.55</v>
+        <v>8.3523809523810444E-2</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
@@ -1071,14 +1107,20 @@
       </c>
       <c r="K6">
         <f t="shared" si="4"/>
-        <v>5.0999999999999996</v>
+        <v>0.18571428571428505</v>
       </c>
       <c r="L6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>32388</v>
       </c>
@@ -1099,7 +1141,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.14599999999999999</v>
+        <v>0.14730476190476191</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -1107,7 +1149,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>1.55</v>
+        <v>8.3523809523810444E-2</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
@@ -1119,10 +1161,16 @@
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.4285714285714235E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1143,7 +1191,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.14399999999999999</v>
+        <v>0.14530476190476191</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -1155,18 +1203,24 @@
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>1.46</v>
+        <v>-6.4761904761896361E-3</v>
       </c>
       <c r="K8">
         <f t="shared" si="4"/>
-        <v>6.1</v>
+        <v>1.1857142857142851</v>
       </c>
       <c r="L8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>32299</v>
       </c>
@@ -1187,7 +1241,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.54</v>
+        <v>0.54130476190476196</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
@@ -1195,7 +1249,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>1.53</v>
+        <v>6.3523809523810426E-2</v>
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
@@ -1203,14 +1257,20 @@
       </c>
       <c r="K9">
         <f t="shared" si="4"/>
-        <v>5.7</v>
+        <v>0.78571428571428559</v>
       </c>
       <c r="L9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1231,7 +1291,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.11</v>
+        <v>0.11130476190476192</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -1239,7 +1299,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>1.51</v>
+        <v>4.3523809523810408E-2</v>
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
@@ -1247,14 +1307,20 @@
       </c>
       <c r="K10">
         <f t="shared" si="4"/>
-        <v>7.1</v>
+        <v>2.1857142857142851</v>
       </c>
       <c r="L10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1275,7 +1341,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.48199999999999998</v>
+        <v>0.4833047619047619</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -1283,7 +1349,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>1.51</v>
+        <v>4.3523809523810408E-2</v>
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
@@ -1291,14 +1357,20 @@
       </c>
       <c r="K11">
         <f t="shared" si="4"/>
-        <v>7.1</v>
+        <v>2.1857142857142851</v>
       </c>
       <c r="L11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1323,11 +1395,11 @@
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>-0.108</v>
+        <v>-0.10669523809523808</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>1.51</v>
+        <v>4.3523809523810408E-2</v>
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
@@ -1335,14 +1407,20 @@
       </c>
       <c r="K12">
         <f t="shared" si="4"/>
-        <v>7.1</v>
+        <v>2.1857142857142851</v>
       </c>
       <c r="L12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1367,11 +1445,11 @@
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>-0.13600000000000001</v>
+        <v>-0.13469523809523809</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>1.49</v>
+        <v>2.3523809523810391E-2</v>
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
@@ -1379,14 +1457,20 @@
       </c>
       <c r="K13">
         <f t="shared" si="4"/>
-        <v>8.1999999999999993</v>
+        <v>3.2857142857142847</v>
       </c>
       <c r="L13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1407,7 +1491,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>2.8000000000000001E-2</v>
+        <v>2.9304761904761913E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
@@ -1415,7 +1499,7 @@
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>1.47</v>
+        <v>3.5238095238103728E-3</v>
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
@@ -1423,14 +1507,20 @@
       </c>
       <c r="K14">
         <f t="shared" si="4"/>
-        <v>6.3</v>
+        <v>1.3857142857142852</v>
       </c>
       <c r="L14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>32271</v>
       </c>
@@ -1451,7 +1541,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.10130476190476193</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
@@ -1459,7 +1549,7 @@
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>1.47</v>
+        <v>3.5238095238103728E-3</v>
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
@@ -1467,14 +1557,20 @@
       </c>
       <c r="K15">
         <f t="shared" si="4"/>
-        <v>6.3</v>
+        <v>1.3857142857142852</v>
       </c>
       <c r="L15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1495,7 +1591,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0.16600000000000001</v>
+        <v>0.16730476190476193</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
@@ -1503,7 +1599,7 @@
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>1.47</v>
+        <v>3.5238095238103728E-3</v>
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
@@ -1511,14 +1607,20 @@
       </c>
       <c r="K16">
         <f t="shared" si="4"/>
-        <v>7.3</v>
+        <v>2.3857142857142852</v>
       </c>
       <c r="L16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1543,11 +1645,11 @@
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>-0.11</v>
+        <v>-0.10869523809523808</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>1.47</v>
+        <v>3.5238095238103728E-3</v>
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
@@ -1555,14 +1657,20 @@
       </c>
       <c r="K17">
         <f t="shared" si="4"/>
-        <v>6.5</v>
+        <v>1.5857142857142854</v>
       </c>
       <c r="L17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1587,7 +1695,7 @@
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>-0.192</v>
+        <v>-0.19069523809523808</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
@@ -1595,18 +1703,24 @@
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
-        <v>1.46</v>
+        <v>-6.4761904761896361E-3</v>
       </c>
       <c r="K18">
         <f t="shared" si="4"/>
-        <v>6.7</v>
+        <v>1.7857142857142856</v>
       </c>
       <c r="L18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1627,7 +1741,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>0.20799999999999999</v>
+        <v>0.20930476190476191</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
@@ -1639,18 +1753,24 @@
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
-        <v>1.46</v>
+        <v>-6.4761904761896361E-3</v>
       </c>
       <c r="K19">
         <f t="shared" si="4"/>
-        <v>6.7</v>
+        <v>1.7857142857142856</v>
       </c>
       <c r="L19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1671,7 +1791,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>0.45</v>
+        <v>0.45130476190476193</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
@@ -1679,7 +1799,7 @@
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>1.51</v>
+        <v>4.3523809523810408E-2</v>
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
@@ -1687,14 +1807,20 @@
       </c>
       <c r="K20">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>2.0857142857142854</v>
       </c>
       <c r="L20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>32599</v>
       </c>
@@ -1719,11 +1845,11 @@
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>-0.27</v>
+        <v>-0.2686952380952381</v>
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>1.48</v>
+        <v>1.3523809523810382E-2</v>
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
@@ -1731,14 +1857,20 @@
       </c>
       <c r="K21">
         <f t="shared" si="4"/>
-        <v>8.8000000000000007</v>
+        <v>3.8857142857142861</v>
       </c>
       <c r="L21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>32691</v>
       </c>
@@ -1759,7 +1891,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>5.8000000000000003E-2</v>
+        <v>5.9304761904761916E-2</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
@@ -1767,7 +1899,7 @@
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>3.3523809523810399E-2</v>
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
@@ -1775,14 +1907,20 @@
       </c>
       <c r="K22">
         <f t="shared" si="4"/>
-        <v>8.9</v>
+        <v>3.9857142857142858</v>
       </c>
       <c r="L22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1807,11 +1945,11 @@
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>-7.0000000000000007E-2</v>
+        <v>-6.8695238095238087E-2</v>
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>3.3523809523810399E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
@@ -1819,14 +1957,20 @@
       </c>
       <c r="K23">
         <f t="shared" si="4"/>
-        <v>8.9</v>
+        <v>3.9857142857142858</v>
       </c>
       <c r="L23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1851,11 +1995,11 @@
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
-        <v>-0.158</v>
+        <v>-0.15669523809523808</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>3.3523809523810399E-2</v>
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
@@ -1863,14 +2007,20 @@
       </c>
       <c r="K24">
         <f t="shared" si="4"/>
-        <v>8.9</v>
+        <v>3.9857142857142858</v>
       </c>
       <c r="L24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1895,11 +2045,11 @@
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>-0.19400000000000001</v>
+        <v>-0.19269523809523809</v>
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>1.56</v>
+        <v>9.3523809523810453E-2</v>
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
@@ -1907,14 +2057,20 @@
       </c>
       <c r="K25">
         <f t="shared" si="4"/>
-        <v>9.4</v>
+        <v>4.4857142857142858</v>
       </c>
       <c r="L25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1939,7 +2095,7 @@
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>-0.74399999999999999</v>
+        <v>-0.74269523809523808</v>
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
@@ -1947,18 +2103,24 @@
       </c>
       <c r="J26">
         <f t="shared" si="3"/>
-        <v>1.44</v>
+        <v>-2.6476190476189654E-2</v>
       </c>
       <c r="K26">
         <f t="shared" si="4"/>
-        <v>7.3</v>
+        <v>2.3857142857142852</v>
       </c>
       <c r="L26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>32545</v>
       </c>
@@ -1983,7 +2145,7 @@
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>-1.0860000000000001</v>
+        <v>-1.0846952380952382</v>
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
@@ -1991,18 +2153,24 @@
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
-        <v>1.44</v>
+        <v>-2.6476190476189654E-2</v>
       </c>
       <c r="K27">
         <f t="shared" si="4"/>
-        <v>7.3</v>
+        <v>2.3857142857142852</v>
       </c>
       <c r="L27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>32635</v>
       </c>
@@ -2027,7 +2195,7 @@
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
-        <v>-1.446</v>
+        <v>-1.444695238095238</v>
       </c>
       <c r="I28">
         <f t="shared" si="2"/>
@@ -2035,18 +2203,24 @@
       </c>
       <c r="J28">
         <f t="shared" si="3"/>
-        <v>1.4</v>
+        <v>-6.6476190476189689E-2</v>
       </c>
       <c r="K28">
         <f t="shared" si="4"/>
-        <v>5.0999999999999996</v>
+        <v>0.18571428571428505</v>
       </c>
       <c r="L28">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -2071,7 +2245,7 @@
       </c>
       <c r="H29">
         <f t="shared" si="1"/>
-        <v>-1.224</v>
+        <v>-1.2226952380952381</v>
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
@@ -2079,18 +2253,24 @@
       </c>
       <c r="J29">
         <f t="shared" si="3"/>
-        <v>1.4</v>
+        <v>-6.6476190476189689E-2</v>
       </c>
       <c r="K29">
         <f t="shared" si="4"/>
-        <v>5.0999999999999996</v>
+        <v>0.18571428571428505</v>
       </c>
       <c r="L29">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2115,7 +2295,7 @@
       </c>
       <c r="H30">
         <f t="shared" si="1"/>
-        <v>-0.70799999999999996</v>
+        <v>-0.70669523809523804</v>
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
@@ -2123,18 +2303,24 @@
       </c>
       <c r="J30">
         <f t="shared" si="3"/>
-        <v>1.43</v>
+        <v>-3.6476190476189663E-2</v>
       </c>
       <c r="K30">
         <f t="shared" si="4"/>
-        <v>5.8</v>
+        <v>0.88571428571428523</v>
       </c>
       <c r="L30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>32549</v>
       </c>
@@ -2159,7 +2345,7 @@
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
-        <v>-0.72</v>
+        <v>-0.71869523809523805</v>
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
@@ -2167,18 +2353,24 @@
       </c>
       <c r="J31">
         <f t="shared" si="3"/>
-        <v>1.43</v>
+        <v>-3.6476190476189663E-2</v>
       </c>
       <c r="K31">
         <f t="shared" si="4"/>
-        <v>5.3</v>
+        <v>0.38571428571428523</v>
       </c>
       <c r="L31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -2203,7 +2395,7 @@
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
-        <v>-0.85399999999999998</v>
+        <v>-0.85269523809523806</v>
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
@@ -2211,18 +2403,24 @@
       </c>
       <c r="J32">
         <f t="shared" si="3"/>
-        <v>1.43</v>
+        <v>-3.6476190476189663E-2</v>
       </c>
       <c r="K32">
         <f t="shared" si="4"/>
-        <v>5.3</v>
+        <v>0.38571428571428523</v>
       </c>
       <c r="L32">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32578</v>
       </c>
@@ -2247,7 +2445,7 @@
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
-        <v>-0.94</v>
+        <v>-0.93869523809523803</v>
       </c>
       <c r="I33">
         <f t="shared" si="2"/>
@@ -2255,18 +2453,24 @@
       </c>
       <c r="J33">
         <f t="shared" si="3"/>
-        <v>1.43</v>
+        <v>-3.6476190476189663E-2</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>5.3</v>
+        <v>0.38571428571428523</v>
       </c>
       <c r="L33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2291,7 +2495,7 @@
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>-0.65200000000000002</v>
+        <v>-0.6506952380952381</v>
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
@@ -2299,7 +2503,7 @@
       </c>
       <c r="J34">
         <f t="shared" si="3"/>
-        <v>1.38</v>
+        <v>-8.6476190476189707E-2</v>
       </c>
       <c r="K34">
         <f t="shared" si="4"/>
@@ -2307,10 +2511,16 @@
       </c>
       <c r="L34">
         <f t="shared" si="5"/>
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.4285714285714235E-2</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2335,7 +2545,7 @@
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>-0.82799999999999996</v>
+        <v>-0.82669523809523804</v>
       </c>
       <c r="I35">
         <f t="shared" si="2"/>
@@ -2343,7 +2553,7 @@
       </c>
       <c r="J35">
         <f t="shared" si="3"/>
-        <v>1.39</v>
+        <v>-7.6476190476189698E-2</v>
       </c>
       <c r="K35">
         <f t="shared" si="4"/>
@@ -2351,10 +2561,16 @@
       </c>
       <c r="L35">
         <f t="shared" si="5"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.41428571428571459</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>33026</v>
       </c>
@@ -2379,7 +2595,7 @@
       </c>
       <c r="H36">
         <f t="shared" si="1"/>
-        <v>-0.11</v>
+        <v>-0.10869523809523808</v>
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
@@ -2387,18 +2603,24 @@
       </c>
       <c r="J36">
         <f t="shared" si="3"/>
-        <v>1.37</v>
+        <v>-9.6476190476189494E-2</v>
       </c>
       <c r="K36">
         <f t="shared" si="4"/>
-        <v>5.2</v>
+        <v>0.28571428571428559</v>
       </c>
       <c r="L36">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -2419,7 +2641,7 @@
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>3.4000000000000002E-2</v>
+        <v>3.5304761904761915E-2</v>
       </c>
       <c r="H37">
         <f t="shared" si="1"/>
@@ -2427,7 +2649,7 @@
       </c>
       <c r="I37">
         <f t="shared" si="2"/>
-        <v>1.47</v>
+        <v>3.5238095238103728E-3</v>
       </c>
       <c r="J37">
         <f t="shared" si="3"/>
@@ -2435,14 +2657,20 @@
       </c>
       <c r="K37">
         <f t="shared" si="4"/>
-        <v>7.6</v>
+        <v>2.6857142857142851</v>
       </c>
       <c r="L37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -2463,7 +2691,7 @@
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>8.4000000000000005E-2</v>
+        <v>8.5304761904761925E-2</v>
       </c>
       <c r="H38">
         <f t="shared" si="1"/>
@@ -2475,18 +2703,24 @@
       </c>
       <c r="J38">
         <f t="shared" si="3"/>
-        <v>1.3</v>
+        <v>-0.16647619047618956</v>
       </c>
       <c r="K38">
         <f t="shared" si="4"/>
-        <v>6.8</v>
+        <v>1.8857142857142852</v>
       </c>
       <c r="L38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>32911</v>
       </c>
@@ -2511,7 +2745,7 @@
       </c>
       <c r="H39">
         <f t="shared" si="1"/>
-        <v>-0.248</v>
+        <v>-0.24669523809523808</v>
       </c>
       <c r="I39">
         <f t="shared" si="2"/>
@@ -2519,18 +2753,24 @@
       </c>
       <c r="J39">
         <f t="shared" si="3"/>
-        <v>1.21</v>
+        <v>-0.25647619047618964</v>
       </c>
       <c r="K39">
         <f t="shared" si="4"/>
-        <v>5.7</v>
+        <v>0.78571428571428559</v>
       </c>
       <c r="L39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>33214</v>
       </c>
@@ -2555,7 +2795,7 @@
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
-        <v>-0.11799999999999999</v>
+        <v>-0.11669523809523807</v>
       </c>
       <c r="I40">
         <f t="shared" si="2"/>
@@ -2563,18 +2803,24 @@
       </c>
       <c r="J40">
         <f t="shared" si="3"/>
-        <v>1.21</v>
+        <v>-0.25647619047618964</v>
       </c>
       <c r="K40">
         <f t="shared" si="4"/>
-        <v>5.7</v>
+        <v>0.78571428571428559</v>
       </c>
       <c r="L40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -2599,7 +2845,7 @@
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
-        <v>-0.46400000000000002</v>
+        <v>-0.4626952380952381</v>
       </c>
       <c r="I41">
         <f t="shared" si="2"/>
@@ -2607,18 +2853,24 @@
       </c>
       <c r="J41">
         <f t="shared" si="3"/>
-        <v>1.19</v>
+        <v>-0.27647619047618965</v>
       </c>
       <c r="K41">
         <f t="shared" si="4"/>
-        <v>5.7</v>
+        <v>0.78571428571428559</v>
       </c>
       <c r="L41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>33033</v>
       </c>
@@ -2643,7 +2895,7 @@
       </c>
       <c r="H42">
         <f t="shared" si="1"/>
-        <v>-0.59399999999999997</v>
+        <v>-0.59269523809523805</v>
       </c>
       <c r="I42">
         <f t="shared" si="2"/>
@@ -2651,18 +2903,24 @@
       </c>
       <c r="J42">
         <f t="shared" si="3"/>
-        <v>1.19</v>
+        <v>-0.27647619047618965</v>
       </c>
       <c r="K42">
         <f t="shared" si="4"/>
-        <v>5.7</v>
+        <v>0.78571428571428559</v>
       </c>
       <c r="L42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -2687,7 +2945,7 @@
       </c>
       <c r="H43">
         <f t="shared" si="1"/>
-        <v>-0.28599999999999998</v>
+        <v>-0.28469523809523806</v>
       </c>
       <c r="I43">
         <f t="shared" si="2"/>
@@ -2695,18 +2953,24 @@
       </c>
       <c r="J43">
         <f t="shared" si="3"/>
-        <v>1.19</v>
+        <v>-0.27647619047618965</v>
       </c>
       <c r="K43">
         <f t="shared" si="4"/>
-        <v>5.7</v>
+        <v>0.78571428571428559</v>
       </c>
       <c r="L43">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>32883</v>
       </c>
@@ -2731,7 +2995,7 @@
       </c>
       <c r="H44">
         <f t="shared" si="1"/>
-        <v>-0.48</v>
+        <v>-0.47869523809523806</v>
       </c>
       <c r="I44">
         <f t="shared" si="2"/>
@@ -2739,7 +3003,7 @@
       </c>
       <c r="J44">
         <f t="shared" si="3"/>
-        <v>1.0900000000000001</v>
+        <v>-0.37647619047618952</v>
       </c>
       <c r="K44">
         <f t="shared" si="4"/>
@@ -2747,10 +3011,16 @@
       </c>
       <c r="L44">
         <f t="shared" si="5"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-2.3142857142857145</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -2775,7 +3045,7 @@
       </c>
       <c r="H45">
         <f t="shared" si="1"/>
-        <v>-0.47199999999999998</v>
+        <v>-0.47069523809523806</v>
       </c>
       <c r="I45">
         <f t="shared" si="2"/>
@@ -2783,7 +3053,7 @@
       </c>
       <c r="J45">
         <f t="shared" si="3"/>
-        <v>1.0900000000000001</v>
+        <v>-0.37647619047618952</v>
       </c>
       <c r="K45">
         <f t="shared" si="4"/>
@@ -2791,10 +3061,16 @@
       </c>
       <c r="L45">
         <f t="shared" si="5"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-2.3142857142857145</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>33127</v>
       </c>
@@ -2819,7 +3095,7 @@
       </c>
       <c r="H46">
         <f t="shared" si="1"/>
-        <v>-0.48399999999999999</v>
+        <v>-0.48269523809523807</v>
       </c>
       <c r="I46">
         <f t="shared" si="2"/>
@@ -2827,7 +3103,7 @@
       </c>
       <c r="J46">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001</v>
+        <v>-0.36647619047618951</v>
       </c>
       <c r="K46">
         <f t="shared" si="4"/>
@@ -2835,10 +3111,16 @@
       </c>
       <c r="L46">
         <f t="shared" si="5"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-3.6142857142857148</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>33036</v>
       </c>
@@ -2863,7 +3145,7 @@
       </c>
       <c r="H47">
         <f t="shared" si="1"/>
-        <v>-0.27400000000000002</v>
+        <v>-0.2726952380952381</v>
       </c>
       <c r="I47">
         <f t="shared" si="2"/>
@@ -2871,7 +3153,7 @@
       </c>
       <c r="J47">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001</v>
+        <v>-0.36647619047618951</v>
       </c>
       <c r="K47">
         <f t="shared" si="4"/>
@@ -2879,10 +3161,16 @@
       </c>
       <c r="L47">
         <f t="shared" si="5"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-3.6142857142857148</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -2907,7 +3195,7 @@
       </c>
       <c r="H48">
         <f t="shared" si="1"/>
-        <v>-0.20599999999999999</v>
+        <v>-0.20469523809523807</v>
       </c>
       <c r="I48">
         <f t="shared" si="2"/>
@@ -2915,7 +3203,7 @@
       </c>
       <c r="J48">
         <f t="shared" si="3"/>
-        <v>1.02</v>
+        <v>-0.44647619047618958</v>
       </c>
       <c r="K48">
         <f t="shared" si="4"/>
@@ -2923,10 +3211,16 @@
       </c>
       <c r="L48">
         <f t="shared" si="5"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-4.0142857142857142</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>33420</v>
       </c>
@@ -2947,7 +3241,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
-        <v>0.122</v>
+        <v>0.12330476190476192</v>
       </c>
       <c r="H49">
         <f t="shared" si="1"/>
@@ -2959,7 +3253,7 @@
       </c>
       <c r="J49">
         <f t="shared" si="3"/>
-        <v>1.04</v>
+        <v>-0.42647619047618957</v>
       </c>
       <c r="K49">
         <f t="shared" si="4"/>
@@ -2967,10 +3261,16 @@
       </c>
       <c r="L49">
         <f t="shared" si="5"/>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.61428571428571477</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -2995,7 +3295,7 @@
       </c>
       <c r="H50">
         <f t="shared" si="1"/>
-        <v>-0.91800000000000004</v>
+        <v>-0.91669523809523812</v>
       </c>
       <c r="I50">
         <f t="shared" si="2"/>
@@ -3003,7 +3303,7 @@
       </c>
       <c r="J50">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-0.4664761904761896</v>
       </c>
       <c r="K50">
         <f t="shared" si="4"/>
@@ -3011,10 +3311,16 @@
       </c>
       <c r="L50">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.6142857142857148</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>33360</v>
       </c>
@@ -3039,7 +3345,7 @@
       </c>
       <c r="H51">
         <f t="shared" si="1"/>
-        <v>-0.24399999999999999</v>
+        <v>-0.24269523809523808</v>
       </c>
       <c r="I51">
         <f t="shared" si="2"/>
@@ -3047,7 +3353,7 @@
       </c>
       <c r="J51">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-0.4664761904761896</v>
       </c>
       <c r="K51">
         <f t="shared" si="4"/>
@@ -3055,10 +3361,16 @@
       </c>
       <c r="L51">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.6142857142857148</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>33422</v>
       </c>
@@ -3079,7 +3391,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="0"/>
-        <v>9.6000000000000002E-2</v>
+        <v>9.7304761904761922E-2</v>
       </c>
       <c r="H52">
         <f t="shared" si="1"/>
@@ -3091,7 +3403,7 @@
       </c>
       <c r="J52">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-0.4664761904761896</v>
       </c>
       <c r="K52">
         <f t="shared" si="4"/>
@@ -3099,10 +3411,16 @@
       </c>
       <c r="L52">
         <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.6142857142857148</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -3123,7 +3441,7 @@
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
-        <v>0.17</v>
+        <v>0.17130476190476193</v>
       </c>
       <c r="H53">
         <f t="shared" si="1"/>
@@ -3135,7 +3453,7 @@
       </c>
       <c r="J53">
         <f t="shared" si="3"/>
-        <v>0.95</v>
+        <v>-0.51647619047618964</v>
       </c>
       <c r="K53">
         <f t="shared" si="4"/>
@@ -3143,10 +3461,16 @@
       </c>
       <c r="L53">
         <f t="shared" si="5"/>
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-2.8142857142857145</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>33546</v>
       </c>
@@ -3167,7 +3491,7 @@
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
-        <v>0.45200000000000001</v>
+        <v>0.45330476190476193</v>
       </c>
       <c r="H54">
         <f t="shared" si="1"/>
@@ -3179,18 +3503,24 @@
       </c>
       <c r="J54">
         <f t="shared" si="3"/>
-        <v>1.04</v>
+        <v>-0.42647619047618957</v>
       </c>
       <c r="K54">
         <f t="shared" si="4"/>
-        <v>5.7</v>
+        <v>0.78571428571428559</v>
       </c>
       <c r="L54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M54" s="1">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -3211,7 +3541,7 @@
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
-        <v>0.31</v>
+        <v>0.31130476190476192</v>
       </c>
       <c r="H55">
         <f t="shared" si="1"/>
@@ -3223,18 +3553,24 @@
       </c>
       <c r="J55">
         <f t="shared" si="3"/>
-        <v>1.04</v>
+        <v>-0.42647619047618957</v>
       </c>
       <c r="K55">
         <f t="shared" si="4"/>
-        <v>5.7</v>
+        <v>0.78571428571428559</v>
       </c>
       <c r="L55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -3255,7 +3591,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>0.374</v>
+        <v>0.37530476190476192</v>
       </c>
       <c r="H56">
         <f t="shared" si="1"/>
@@ -3267,7 +3603,7 @@
       </c>
       <c r="J56">
         <f t="shared" si="3"/>
-        <v>1.01</v>
+        <v>-0.45647619047618959</v>
       </c>
       <c r="K56">
         <f t="shared" si="4"/>
@@ -3275,10 +3611,16 @@
       </c>
       <c r="L56">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.9142857142857146</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>33276</v>
       </c>
@@ -3299,7 +3641,7 @@
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
-        <v>0.19800000000000001</v>
+        <v>0.19930476190476193</v>
       </c>
       <c r="H57">
         <f t="shared" si="1"/>
@@ -3311,18 +3653,24 @@
       </c>
       <c r="J57">
         <f t="shared" si="3"/>
-        <v>1.05</v>
+        <v>-0.41647619047618956</v>
       </c>
       <c r="K57">
         <f t="shared" si="4"/>
-        <v>8.1</v>
+        <v>3.1857142857142851</v>
       </c>
       <c r="L57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M57" s="1">
+        <v>0</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>33277</v>
       </c>
@@ -3343,7 +3691,7 @@
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
-        <v>0.38400000000000001</v>
+        <v>0.38530476190476193</v>
       </c>
       <c r="H58">
         <f t="shared" si="1"/>
@@ -3355,18 +3703,24 @@
       </c>
       <c r="J58">
         <f t="shared" si="3"/>
-        <v>1.05</v>
+        <v>-0.41647619047618956</v>
       </c>
       <c r="K58">
         <f t="shared" si="4"/>
-        <v>8.1</v>
+        <v>3.1857142857142851</v>
       </c>
       <c r="L58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M58" s="1">
+        <v>0</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -3387,7 +3741,7 @@
       </c>
       <c r="G59">
         <f t="shared" si="0"/>
-        <v>5.1999999999999998E-2</v>
+        <v>5.330476190476191E-2</v>
       </c>
       <c r="H59">
         <f t="shared" si="1"/>
@@ -3399,7 +3753,7 @@
       </c>
       <c r="J59">
         <f t="shared" si="3"/>
-        <v>1.05</v>
+        <v>-0.41647619047618956</v>
       </c>
       <c r="K59">
         <f t="shared" si="4"/>
@@ -3407,10 +3761,16 @@
       </c>
       <c r="L59">
         <f t="shared" si="5"/>
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.4285714285714235E-2</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>33581</v>
       </c>
@@ -3431,7 +3791,7 @@
       </c>
       <c r="G60">
         <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>7.1304761904761926E-2</v>
       </c>
       <c r="H60">
         <f t="shared" si="1"/>
@@ -3443,7 +3803,7 @@
       </c>
       <c r="J60">
         <f t="shared" si="3"/>
-        <v>1.05</v>
+        <v>-0.41647619047618956</v>
       </c>
       <c r="K60">
         <f t="shared" si="4"/>
@@ -3451,10 +3811,16 @@
       </c>
       <c r="L60">
         <f t="shared" si="5"/>
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.4285714285714235E-2</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0</v>
+      </c>
+      <c r="N60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -3475,7 +3841,7 @@
       </c>
       <c r="G61">
         <f t="shared" si="0"/>
-        <v>0.10199999999999999</v>
+        <v>0.10330476190476191</v>
       </c>
       <c r="H61">
         <f t="shared" si="1"/>
@@ -3487,7 +3853,7 @@
       </c>
       <c r="J61">
         <f t="shared" si="3"/>
-        <v>1.06</v>
+        <v>-0.40647619047618955</v>
       </c>
       <c r="K61">
         <f t="shared" si="4"/>
@@ -3495,10 +3861,16 @@
       </c>
       <c r="L61">
         <f t="shared" si="5"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.41428571428571459</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0</v>
+      </c>
+      <c r="N61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -3519,7 +3891,7 @@
       </c>
       <c r="G62">
         <f t="shared" si="0"/>
-        <v>0.104</v>
+        <v>0.10530476190476191</v>
       </c>
       <c r="H62">
         <f t="shared" si="1"/>
@@ -3531,18 +3903,24 @@
       </c>
       <c r="J62">
         <f t="shared" si="3"/>
-        <v>1.08</v>
+        <v>-0.38647619047618953</v>
       </c>
       <c r="K62">
         <f t="shared" si="4"/>
-        <v>5.8</v>
+        <v>0.88571428571428523</v>
       </c>
       <c r="L62">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M62" s="1">
+        <v>0</v>
+      </c>
+      <c r="N62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>33339</v>
       </c>
@@ -3563,7 +3941,7 @@
       </c>
       <c r="G63">
         <f t="shared" si="0"/>
-        <v>0.114</v>
+        <v>0.11530476190476192</v>
       </c>
       <c r="H63">
         <f t="shared" si="1"/>
@@ -3575,7 +3953,7 @@
       </c>
       <c r="J63">
         <f t="shared" si="3"/>
-        <v>1.02</v>
+        <v>-0.44647619047618958</v>
       </c>
       <c r="K63">
         <f t="shared" si="4"/>
@@ -3583,10 +3961,16 @@
       </c>
       <c r="L63">
         <f t="shared" si="5"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.4142857142857146</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>33370</v>
       </c>
@@ -3611,7 +3995,7 @@
       </c>
       <c r="H64">
         <f t="shared" si="1"/>
-        <v>-0.19</v>
+        <v>-0.18869523809523808</v>
       </c>
       <c r="I64">
         <f t="shared" si="2"/>
@@ -3619,7 +4003,7 @@
       </c>
       <c r="J64">
         <f t="shared" si="3"/>
-        <v>1.02</v>
+        <v>-0.44647619047618958</v>
       </c>
       <c r="K64">
         <f t="shared" si="4"/>
@@ -3627,10 +4011,16 @@
       </c>
       <c r="L64">
         <f t="shared" si="5"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.4142857142857146</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0</v>
+      </c>
+      <c r="N64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -3655,7 +4045,7 @@
       </c>
       <c r="H65">
         <f t="shared" si="1"/>
-        <v>-8.5999999999999993E-2</v>
+        <v>-8.4695238095238073E-2</v>
       </c>
       <c r="I65">
         <f t="shared" si="2"/>
@@ -3663,7 +4053,7 @@
       </c>
       <c r="J65">
         <f t="shared" si="3"/>
-        <v>1.08</v>
+        <v>-0.38647619047618953</v>
       </c>
       <c r="K65">
         <f t="shared" si="4"/>
@@ -3671,10 +4061,16 @@
       </c>
       <c r="L65">
         <f t="shared" si="5"/>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-2.2142857142857144</v>
+      </c>
+      <c r="M65" s="1">
+        <v>0</v>
+      </c>
+      <c r="N65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>33696</v>
       </c>
@@ -3695,7 +4091,7 @@
       </c>
       <c r="G66">
         <f t="shared" si="0"/>
-        <v>0.19</v>
+        <v>0.19130476190476192</v>
       </c>
       <c r="H66">
         <f t="shared" si="1"/>
@@ -3707,7 +4103,7 @@
       </c>
       <c r="J66">
         <f t="shared" si="3"/>
-        <v>1.1399999999999999</v>
+        <v>-0.3264761904761897</v>
       </c>
       <c r="K66">
         <f t="shared" si="4"/>
@@ -3715,10 +4111,16 @@
       </c>
       <c r="L66">
         <f t="shared" si="5"/>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.61428571428571477</v>
+      </c>
+      <c r="M66" s="1">
+        <v>0</v>
+      </c>
+      <c r="N66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -3738,31 +4140,37 @@
         <v>4.7</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G130" si="6">IF($D67&gt;AVERAGE($D$2:$D$211),$D67,0)</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" ref="G67:G130" si="6">IF($D67&gt;AVERAGE($D$2:$D$211),$D67-AVERAGE($D$2:$D$211),0)</f>
+        <v>0.67530476190476196</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H130" si="7">IF($D67&lt;AVERAGE($D$2:$D$211),$D67,0)</f>
+        <f t="shared" ref="H67:H130" si="7">IF($D67&lt;AVERAGE($D$2:$D$211),$D67-AVERAGE($D$2:$D$211),0)</f>
         <v>0</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I130" si="8">IF($E67&gt;AVERAGE($E$2:$E$211),$E67,0)</f>
+        <f t="shared" ref="I67:I130" si="8">IF($E67&gt;AVERAGE($E$2:$E$211),$E67-AVERAGE($E$2:$E$211),0)</f>
         <v>0</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="9">IF($E67&lt;AVERAGE($E$2:$E$211),$E67,0)</f>
-        <v>1.25</v>
+        <f t="shared" ref="J67:J130" si="9">IF($E67&lt;AVERAGE($E$2:$E$211),$E67-AVERAGE($E$2:$E$211),0)</f>
+        <v>-0.2164761904761896</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K130" si="10">IF($F67&gt;AVERAGE($F$2:$F$211),$F67,0)</f>
+        <f t="shared" ref="K67:K130" si="10">IF($F67&gt;AVERAGE($F$2:$F$211),$F67-AVERAGE($F$2:$F$211),0)</f>
         <v>0</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L130" si="11">IF($F67&lt;AVERAGE($F$2:$F$211),$F67,0)</f>
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L67:L130" si="11">IF($F67&lt;AVERAGE($F$2:$F$211),$F67-AVERAGE($F$2:$F$211),0)</f>
+        <v>-0.21428571428571441</v>
+      </c>
+      <c r="M67" s="1">
+        <v>0</v>
+      </c>
+      <c r="N67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>33820</v>
       </c>
@@ -3783,7 +4191,7 @@
       </c>
       <c r="G68">
         <f t="shared" si="6"/>
-        <v>0.41799999999999998</v>
+        <v>0.4193047619047619</v>
       </c>
       <c r="H68">
         <f t="shared" si="7"/>
@@ -3795,18 +4203,24 @@
       </c>
       <c r="J68">
         <f t="shared" si="9"/>
-        <v>1.27</v>
+        <v>-0.19647619047618958</v>
       </c>
       <c r="K68">
         <f t="shared" si="10"/>
-        <v>5.6</v>
+        <v>0.68571428571428505</v>
       </c>
       <c r="L68">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="1">
+        <v>0</v>
+      </c>
+      <c r="N68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -3827,7 +4241,7 @@
       </c>
       <c r="G69">
         <f t="shared" si="6"/>
-        <v>0.12</v>
+        <v>0.12130476190476192</v>
       </c>
       <c r="H69">
         <f t="shared" si="7"/>
@@ -3839,7 +4253,7 @@
       </c>
       <c r="J69">
         <f t="shared" si="9"/>
-        <v>1.21</v>
+        <v>-0.25647619047618964</v>
       </c>
       <c r="K69">
         <f t="shared" si="10"/>
@@ -3847,10 +4261,16 @@
       </c>
       <c r="L69">
         <f t="shared" si="11"/>
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.4285714285714235E-2</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>39</v>
       </c>
@@ -3871,7 +4291,7 @@
       </c>
       <c r="G70">
         <f t="shared" si="6"/>
-        <v>0.14399999999999999</v>
+        <v>0.14530476190476191</v>
       </c>
       <c r="H70">
         <f t="shared" si="7"/>
@@ -3883,7 +4303,7 @@
       </c>
       <c r="J70">
         <f t="shared" si="9"/>
-        <v>1.17</v>
+        <v>-0.29647619047618967</v>
       </c>
       <c r="K70">
         <f t="shared" si="10"/>
@@ -3891,10 +4311,16 @@
       </c>
       <c r="L70">
         <f t="shared" si="11"/>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.11428571428571477</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>40</v>
       </c>
@@ -3915,7 +4341,7 @@
       </c>
       <c r="G71">
         <f t="shared" si="6"/>
-        <v>0.122</v>
+        <v>0.12330476190476192</v>
       </c>
       <c r="H71">
         <f t="shared" si="7"/>
@@ -3927,7 +4353,7 @@
       </c>
       <c r="J71">
         <f t="shared" si="9"/>
-        <v>1.23</v>
+        <v>-0.23647619047618962</v>
       </c>
       <c r="K71">
         <f t="shared" si="10"/>
@@ -3935,10 +4361,16 @@
       </c>
       <c r="L71">
         <f t="shared" si="11"/>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.5142857142857147</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0</v>
+      </c>
+      <c r="N71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>33672</v>
       </c>
@@ -3959,7 +4391,7 @@
       </c>
       <c r="G72">
         <f t="shared" si="6"/>
-        <v>0.106</v>
+        <v>0.10730476190476192</v>
       </c>
       <c r="H72">
         <f t="shared" si="7"/>
@@ -3971,7 +4403,7 @@
       </c>
       <c r="J72">
         <f t="shared" si="9"/>
-        <v>1.23</v>
+        <v>-0.23647619047618962</v>
       </c>
       <c r="K72">
         <f t="shared" si="10"/>
@@ -3979,10 +4411,16 @@
       </c>
       <c r="L72">
         <f t="shared" si="11"/>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.5142857142857147</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0</v>
+      </c>
+      <c r="N72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>33734</v>
       </c>
@@ -4007,7 +4445,7 @@
       </c>
       <c r="H73">
         <f t="shared" si="7"/>
-        <v>-0.52800000000000002</v>
+        <v>-0.52669523809523811</v>
       </c>
       <c r="I73">
         <f t="shared" si="8"/>
@@ -4015,7 +4453,7 @@
       </c>
       <c r="J73">
         <f t="shared" si="9"/>
-        <v>1.24</v>
+        <v>-0.22647619047618961</v>
       </c>
       <c r="K73">
         <f t="shared" si="10"/>
@@ -4023,10 +4461,16 @@
       </c>
       <c r="L73">
         <f t="shared" si="11"/>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.5142857142857147</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>41</v>
       </c>
@@ -4047,7 +4491,7 @@
       </c>
       <c r="G74">
         <f t="shared" si="6"/>
-        <v>0.64800000000000002</v>
+        <v>0.64930476190476194</v>
       </c>
       <c r="H74">
         <f t="shared" si="7"/>
@@ -4059,7 +4503,7 @@
       </c>
       <c r="J74">
         <f t="shared" si="9"/>
-        <v>1.23</v>
+        <v>-0.23647619047618962</v>
       </c>
       <c r="K74">
         <f t="shared" si="10"/>
@@ -4067,10 +4511,16 @@
       </c>
       <c r="L74">
         <f t="shared" si="11"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.41428571428571459</v>
+      </c>
+      <c r="M74" s="1">
+        <v>0</v>
+      </c>
+      <c r="N74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>42</v>
       </c>
@@ -4091,7 +4541,7 @@
       </c>
       <c r="G75">
         <f t="shared" si="6"/>
-        <v>0.73199999999999998</v>
+        <v>0.7333047619047619</v>
       </c>
       <c r="H75">
         <f t="shared" si="7"/>
@@ -4103,18 +4553,24 @@
       </c>
       <c r="J75">
         <f t="shared" si="9"/>
-        <v>1.24</v>
+        <v>-0.22647619047618961</v>
       </c>
       <c r="K75">
         <f t="shared" si="10"/>
-        <v>6.2</v>
+        <v>1.2857142857142856</v>
       </c>
       <c r="L75">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="1">
+        <v>0</v>
+      </c>
+      <c r="N75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>34002</v>
       </c>
@@ -4135,7 +4591,7 @@
       </c>
       <c r="G76">
         <f t="shared" si="6"/>
-        <v>0.33</v>
+        <v>0.33130476190476194</v>
       </c>
       <c r="H76">
         <f t="shared" si="7"/>
@@ -4147,18 +4603,24 @@
       </c>
       <c r="J76">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>-0.16647619047618956</v>
       </c>
       <c r="K76">
         <f t="shared" si="10"/>
-        <v>6.2</v>
+        <v>1.2857142857142856</v>
       </c>
       <c r="L76">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M76" s="1">
+        <v>0</v>
+      </c>
+      <c r="N76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -4179,7 +4641,7 @@
       </c>
       <c r="G77">
         <f t="shared" si="6"/>
-        <v>0.28999999999999998</v>
+        <v>0.2913047619047619</v>
       </c>
       <c r="H77">
         <f t="shared" si="7"/>
@@ -4191,18 +4653,24 @@
       </c>
       <c r="J77">
         <f t="shared" si="9"/>
-        <v>1.22</v>
+        <v>-0.24647619047618963</v>
       </c>
       <c r="K77">
         <f t="shared" si="10"/>
-        <v>6.7</v>
+        <v>1.7857142857142856</v>
       </c>
       <c r="L77">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="1">
+        <v>0</v>
+      </c>
+      <c r="N77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>44</v>
       </c>
@@ -4223,7 +4691,7 @@
       </c>
       <c r="G78">
         <f t="shared" si="6"/>
-        <v>0.27</v>
+        <v>0.27130476190476194</v>
       </c>
       <c r="H78">
         <f t="shared" si="7"/>
@@ -4235,7 +4703,7 @@
       </c>
       <c r="J78">
         <f t="shared" si="9"/>
-        <v>1.26</v>
+        <v>-0.20647619047618959</v>
       </c>
       <c r="K78">
         <f t="shared" si="10"/>
@@ -4243,10 +4711,16 @@
       </c>
       <c r="L78">
         <f t="shared" si="11"/>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.71428571428571441</v>
+      </c>
+      <c r="M78" s="1">
+        <v>0</v>
+      </c>
+      <c r="N78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>34127</v>
       </c>
@@ -4267,7 +4741,7 @@
       </c>
       <c r="G79">
         <f t="shared" si="6"/>
-        <v>0.14599999999999999</v>
+        <v>0.14730476190476191</v>
       </c>
       <c r="H79">
         <f t="shared" si="7"/>
@@ -4279,7 +4753,7 @@
       </c>
       <c r="J79">
         <f t="shared" si="9"/>
-        <v>1.28</v>
+        <v>-0.18647619047618957</v>
       </c>
       <c r="K79">
         <f t="shared" si="10"/>
@@ -4287,10 +4761,16 @@
       </c>
       <c r="L79">
         <f t="shared" si="11"/>
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.51428571428571423</v>
+      </c>
+      <c r="M79" s="1">
+        <v>1</v>
+      </c>
+      <c r="N79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>45</v>
       </c>
@@ -4311,7 +4791,7 @@
       </c>
       <c r="G80">
         <f t="shared" si="6"/>
-        <v>0.42799999999999999</v>
+        <v>0.42930476190476191</v>
       </c>
       <c r="H80">
         <f t="shared" si="7"/>
@@ -4323,7 +4803,7 @@
       </c>
       <c r="J80">
         <f t="shared" si="9"/>
-        <v>1.28</v>
+        <v>-0.18647619047618957</v>
       </c>
       <c r="K80">
         <f t="shared" si="10"/>
@@ -4331,10 +4811,16 @@
       </c>
       <c r="L80">
         <f t="shared" si="11"/>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.11428571428571477</v>
+      </c>
+      <c r="M80" s="1">
+        <v>1</v>
+      </c>
+      <c r="N80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>46</v>
       </c>
@@ -4355,7 +4841,7 @@
       </c>
       <c r="G81">
         <f t="shared" si="6"/>
-        <v>0.22800000000000001</v>
+        <v>0.22930476190476193</v>
       </c>
       <c r="H81">
         <f t="shared" si="7"/>
@@ -4367,7 +4853,7 @@
       </c>
       <c r="J81">
         <f t="shared" si="9"/>
-        <v>1.28</v>
+        <v>-0.18647619047618957</v>
       </c>
       <c r="K81">
         <f t="shared" si="10"/>
@@ -4375,10 +4861,16 @@
       </c>
       <c r="L81">
         <f t="shared" si="11"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.4142857142857146</v>
+      </c>
+      <c r="M81" s="1">
+        <v>0</v>
+      </c>
+      <c r="N81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>47</v>
       </c>
@@ -4399,7 +4891,7 @@
       </c>
       <c r="G82">
         <f t="shared" si="6"/>
-        <v>0.54600000000000004</v>
+        <v>0.54730476190476196</v>
       </c>
       <c r="H82">
         <f t="shared" si="7"/>
@@ -4411,18 +4903,24 @@
       </c>
       <c r="J82">
         <f t="shared" si="9"/>
-        <v>1.36</v>
+        <v>-0.1064761904761895</v>
       </c>
       <c r="K82">
         <f t="shared" si="10"/>
-        <v>6.6</v>
+        <v>1.6857142857142851</v>
       </c>
       <c r="L82">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="1">
+        <v>0</v>
+      </c>
+      <c r="N82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>48</v>
       </c>
@@ -4443,7 +4941,7 @@
       </c>
       <c r="G83">
         <f t="shared" si="6"/>
-        <v>0.60399999999999998</v>
+        <v>0.6053047619047619</v>
       </c>
       <c r="H83">
         <f t="shared" si="7"/>
@@ -4455,18 +4953,24 @@
       </c>
       <c r="J83">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>-6.6476190476189689E-2</v>
       </c>
       <c r="K83">
         <f t="shared" si="10"/>
-        <v>7.4</v>
+        <v>2.4857142857142858</v>
       </c>
       <c r="L83">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M83" s="1">
+        <v>0</v>
+      </c>
+      <c r="N83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>34395</v>
       </c>
@@ -4487,7 +4991,7 @@
       </c>
       <c r="G84">
         <f t="shared" si="6"/>
-        <v>0.32400000000000001</v>
+        <v>0.32530476190476193</v>
       </c>
       <c r="H84">
         <f t="shared" si="7"/>
@@ -4499,18 +5003,24 @@
       </c>
       <c r="J84">
         <f t="shared" si="9"/>
-        <v>1.44</v>
+        <v>-2.6476190476189654E-2</v>
       </c>
       <c r="K84">
         <f t="shared" si="10"/>
-        <v>7.2</v>
+        <v>2.2857142857142856</v>
       </c>
       <c r="L84">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="1">
+        <v>0</v>
+      </c>
+      <c r="N84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>49</v>
       </c>
@@ -4531,7 +5041,7 @@
       </c>
       <c r="G85">
         <f t="shared" si="6"/>
-        <v>0.73599999999999999</v>
+        <v>0.73730476190476191</v>
       </c>
       <c r="H85">
         <f t="shared" si="7"/>
@@ -4543,18 +5053,24 @@
       </c>
       <c r="J85">
         <f t="shared" si="9"/>
-        <v>1.44</v>
+        <v>-2.6476190476189654E-2</v>
       </c>
       <c r="K85">
         <f t="shared" si="10"/>
-        <v>7.2</v>
+        <v>2.2857142857142856</v>
       </c>
       <c r="L85">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="1">
+        <v>0</v>
+      </c>
+      <c r="N85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>50</v>
       </c>
@@ -4575,7 +5091,7 @@
       </c>
       <c r="G86">
         <f t="shared" si="6"/>
-        <v>1.1040000000000001</v>
+        <v>1.105304761904762</v>
       </c>
       <c r="H86">
         <f t="shared" si="7"/>
@@ -4587,18 +5103,24 @@
       </c>
       <c r="J86">
         <f t="shared" si="9"/>
-        <v>1.37</v>
+        <v>-9.6476190476189494E-2</v>
       </c>
       <c r="K86">
         <f t="shared" si="10"/>
-        <v>5.7</v>
+        <v>0.78571428571428559</v>
       </c>
       <c r="L86">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="1">
+        <v>0</v>
+      </c>
+      <c r="N86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>51</v>
       </c>
@@ -4619,7 +5141,7 @@
       </c>
       <c r="G87">
         <f t="shared" si="6"/>
-        <v>1.282</v>
+        <v>1.2833047619047619</v>
       </c>
       <c r="H87">
         <f t="shared" si="7"/>
@@ -4627,7 +5149,7 @@
       </c>
       <c r="I87">
         <f t="shared" si="8"/>
-        <v>1.52</v>
+        <v>5.3523809523810417E-2</v>
       </c>
       <c r="J87">
         <f t="shared" si="9"/>
@@ -4635,14 +5157,20 @@
       </c>
       <c r="K87">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>8.571428571428541E-2</v>
       </c>
       <c r="L87">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="1">
+        <v>0</v>
+      </c>
+      <c r="N87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>52</v>
       </c>
@@ -4663,7 +5191,7 @@
       </c>
       <c r="G88">
         <f t="shared" si="6"/>
-        <v>1.6779999999999999</v>
+        <v>1.6793047619047619</v>
       </c>
       <c r="H88">
         <f t="shared" si="7"/>
@@ -4675,18 +5203,24 @@
       </c>
       <c r="J88">
         <f t="shared" si="9"/>
-        <v>1.41</v>
+        <v>-5.647619047618968E-2</v>
       </c>
       <c r="K88">
         <f t="shared" si="10"/>
-        <v>6.2</v>
+        <v>1.2857142857142856</v>
       </c>
       <c r="L88">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="1">
+        <v>0</v>
+      </c>
+      <c r="N88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>34461</v>
       </c>
@@ -4707,7 +5241,7 @@
       </c>
       <c r="G89">
         <f t="shared" si="6"/>
-        <v>0.98599999999999999</v>
+        <v>0.98730476190476191</v>
       </c>
       <c r="H89">
         <f t="shared" si="7"/>
@@ -4719,18 +5253,24 @@
       </c>
       <c r="J89">
         <f t="shared" si="9"/>
-        <v>1.38</v>
+        <v>-8.6476190476189707E-2</v>
       </c>
       <c r="K89">
         <f t="shared" si="10"/>
-        <v>5.2</v>
+        <v>0.28571428571428559</v>
       </c>
       <c r="L89">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M89" s="1">
+        <v>0</v>
+      </c>
+      <c r="N89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>53</v>
       </c>
@@ -4751,7 +5291,7 @@
       </c>
       <c r="G90">
         <f t="shared" si="6"/>
-        <v>1.34</v>
+        <v>1.341304761904762</v>
       </c>
       <c r="H90">
         <f t="shared" si="7"/>
@@ -4763,7 +5303,7 @@
       </c>
       <c r="J90">
         <f t="shared" si="9"/>
-        <v>1.33</v>
+        <v>-0.13647619047618953</v>
       </c>
       <c r="K90">
         <f t="shared" si="10"/>
@@ -4771,10 +5311,16 @@
       </c>
       <c r="L90">
         <f t="shared" si="11"/>
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.51428571428571423</v>
+      </c>
+      <c r="M90" s="1">
+        <v>1</v>
+      </c>
+      <c r="N90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>54</v>
       </c>
@@ -4795,7 +5341,7 @@
       </c>
       <c r="G91">
         <f t="shared" si="6"/>
-        <v>1.1120000000000001</v>
+        <v>1.113304761904762</v>
       </c>
       <c r="H91">
         <f t="shared" si="7"/>
@@ -4807,7 +5353,7 @@
       </c>
       <c r="J91">
         <f t="shared" si="9"/>
-        <v>1.41</v>
+        <v>-5.647619047618968E-2</v>
       </c>
       <c r="K91">
         <f t="shared" si="10"/>
@@ -4815,10 +5361,16 @@
       </c>
       <c r="L91">
         <f t="shared" si="11"/>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.11428571428571477</v>
+      </c>
+      <c r="M91" s="1">
+        <v>0</v>
+      </c>
+      <c r="N91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>55</v>
       </c>
@@ -4839,7 +5391,7 @@
       </c>
       <c r="G92">
         <f t="shared" si="6"/>
-        <v>1.444</v>
+        <v>1.4453047619047619</v>
       </c>
       <c r="H92">
         <f t="shared" si="7"/>
@@ -4851,18 +5403,24 @@
       </c>
       <c r="J92">
         <f t="shared" si="9"/>
-        <v>1.41</v>
+        <v>-5.647619047618968E-2</v>
       </c>
       <c r="K92">
         <f t="shared" si="10"/>
-        <v>6.1</v>
+        <v>1.1857142857142851</v>
       </c>
       <c r="L92">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="1">
+        <v>1</v>
+      </c>
+      <c r="N92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>56</v>
       </c>
@@ -4883,7 +5441,7 @@
       </c>
       <c r="G93">
         <f t="shared" si="6"/>
-        <v>1.758</v>
+        <v>1.7593047619047619</v>
       </c>
       <c r="H93">
         <f t="shared" si="7"/>
@@ -4895,18 +5453,24 @@
       </c>
       <c r="J93">
         <f t="shared" si="9"/>
-        <v>1.42</v>
+        <v>-4.6476190476189672E-2</v>
       </c>
       <c r="K93">
         <f t="shared" si="10"/>
-        <v>6.9</v>
+        <v>1.9857142857142858</v>
       </c>
       <c r="L93">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="1">
+        <v>0</v>
+      </c>
+      <c r="N93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>57</v>
       </c>
@@ -4927,7 +5491,7 @@
       </c>
       <c r="G94">
         <f t="shared" si="6"/>
-        <v>1.208</v>
+        <v>1.2093047619047619</v>
       </c>
       <c r="H94">
         <f t="shared" si="7"/>
@@ -4935,7 +5499,7 @@
       </c>
       <c r="I94">
         <f t="shared" si="8"/>
-        <v>1.49</v>
+        <v>2.3523809523810391E-2</v>
       </c>
       <c r="J94">
         <f t="shared" si="9"/>
@@ -4943,14 +5507,20 @@
       </c>
       <c r="K94">
         <f t="shared" si="10"/>
-        <v>6.4</v>
+        <v>1.4857142857142858</v>
       </c>
       <c r="L94">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M94" s="1">
+        <v>1</v>
+      </c>
+      <c r="N94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>58</v>
       </c>
@@ -4971,7 +5541,7 @@
       </c>
       <c r="G95">
         <f t="shared" si="6"/>
-        <v>0.32600000000000001</v>
+        <v>0.32730476190476193</v>
       </c>
       <c r="H95">
         <f t="shared" si="7"/>
@@ -4983,18 +5553,24 @@
       </c>
       <c r="J95">
         <f t="shared" si="9"/>
-        <v>1.34</v>
+        <v>-0.12647619047618952</v>
       </c>
       <c r="K95">
         <f t="shared" si="10"/>
-        <v>5.8</v>
+        <v>0.88571428571428523</v>
       </c>
       <c r="L95">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="1">
+        <v>0</v>
+      </c>
+      <c r="N95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>59</v>
       </c>
@@ -5015,7 +5591,7 @@
       </c>
       <c r="G96">
         <f t="shared" si="6"/>
-        <v>1.2E-2</v>
+        <v>1.3304761904761913E-2</v>
       </c>
       <c r="H96">
         <f t="shared" si="7"/>
@@ -5027,7 +5603,7 @@
       </c>
       <c r="J96">
         <f t="shared" si="9"/>
-        <v>1.27</v>
+        <v>-0.19647619047618958</v>
       </c>
       <c r="K96">
         <f t="shared" si="10"/>
@@ -5035,10 +5611,16 @@
       </c>
       <c r="L96">
         <f t="shared" si="11"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.4142857142857146</v>
+      </c>
+      <c r="M96" s="1">
+        <v>1</v>
+      </c>
+      <c r="N96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>34826</v>
       </c>
@@ -5063,7 +5645,7 @@
       </c>
       <c r="H97">
         <f t="shared" si="7"/>
-        <v>-0.61</v>
+        <v>-0.60869523809523807</v>
       </c>
       <c r="I97">
         <f t="shared" si="8"/>
@@ -5071,7 +5653,7 @@
       </c>
       <c r="J97">
         <f t="shared" si="9"/>
-        <v>1.33</v>
+        <v>-0.13647619047618953</v>
       </c>
       <c r="K97">
         <f t="shared" si="10"/>
@@ -5079,10 +5661,16 @@
       </c>
       <c r="L97">
         <f t="shared" si="11"/>
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.0142857142857147</v>
+      </c>
+      <c r="M97" s="1">
+        <v>0</v>
+      </c>
+      <c r="N97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>60</v>
       </c>
@@ -5103,7 +5691,7 @@
       </c>
       <c r="G98">
         <f t="shared" si="6"/>
-        <v>0.08</v>
+        <v>8.1304761904761921E-2</v>
       </c>
       <c r="H98">
         <f t="shared" si="7"/>
@@ -5115,7 +5703,7 @@
       </c>
       <c r="J98">
         <f t="shared" si="9"/>
-        <v>1.37</v>
+        <v>-9.6476190476189494E-2</v>
       </c>
       <c r="K98">
         <f t="shared" si="10"/>
@@ -5123,10 +5711,16 @@
       </c>
       <c r="L98">
         <f t="shared" si="11"/>
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.31428571428571495</v>
+      </c>
+      <c r="M98" s="1">
+        <v>0</v>
+      </c>
+      <c r="N98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>61</v>
       </c>
@@ -5151,7 +5745,7 @@
       </c>
       <c r="H99">
         <f t="shared" si="7"/>
-        <v>-0.122</v>
+        <v>-0.12069523809523808</v>
       </c>
       <c r="I99">
         <f t="shared" si="8"/>
@@ -5159,18 +5753,24 @@
       </c>
       <c r="J99">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>-6.6476190476189689E-2</v>
       </c>
       <c r="K99">
         <f t="shared" si="10"/>
-        <v>5.0999999999999996</v>
+        <v>0.18571428571428505</v>
       </c>
       <c r="L99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="1">
+        <v>0</v>
+      </c>
+      <c r="N99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>62</v>
       </c>
@@ -5195,7 +5795,7 @@
       </c>
       <c r="H100">
         <f t="shared" si="7"/>
-        <v>-0.32400000000000001</v>
+        <v>-0.32269523809523809</v>
       </c>
       <c r="I100">
         <f t="shared" si="8"/>
@@ -5203,7 +5803,7 @@
       </c>
       <c r="J100">
         <f t="shared" si="9"/>
-        <v>1.45</v>
+        <v>-1.6476190476189645E-2</v>
       </c>
       <c r="K100">
         <f t="shared" si="10"/>
@@ -5211,10 +5811,16 @@
       </c>
       <c r="L100">
         <f t="shared" si="11"/>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.11428571428571477</v>
+      </c>
+      <c r="M100" s="1">
+        <v>0</v>
+      </c>
+      <c r="N100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>63</v>
       </c>
@@ -5239,7 +5845,7 @@
       </c>
       <c r="H101">
         <f t="shared" si="7"/>
-        <v>-0.39400000000000002</v>
+        <v>-0.3926952380952381</v>
       </c>
       <c r="I101">
         <f t="shared" si="8"/>
@@ -5247,7 +5853,7 @@
       </c>
       <c r="J101">
         <f t="shared" si="9"/>
-        <v>1.38</v>
+        <v>-8.6476190476189707E-2</v>
       </c>
       <c r="K101">
         <f t="shared" si="10"/>
@@ -5255,10 +5861,16 @@
       </c>
       <c r="L101">
         <f t="shared" si="11"/>
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.0142857142857147</v>
+      </c>
+      <c r="M101" s="1">
+        <v>0</v>
+      </c>
+      <c r="N101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>64</v>
       </c>
@@ -5283,7 +5895,7 @@
       </c>
       <c r="H102">
         <f t="shared" si="7"/>
-        <v>-0.46600000000000003</v>
+        <v>-0.46469523809523811</v>
       </c>
       <c r="I102">
         <f t="shared" si="8"/>
@@ -5291,7 +5903,7 @@
       </c>
       <c r="J102">
         <f t="shared" si="9"/>
-        <v>1.39</v>
+        <v>-7.6476190476189698E-2</v>
       </c>
       <c r="K102">
         <f t="shared" si="10"/>
@@ -5299,10 +5911,16 @@
       </c>
       <c r="L102">
         <f t="shared" si="11"/>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.61428571428571477</v>
+      </c>
+      <c r="M102" s="1">
+        <v>0</v>
+      </c>
+      <c r="N102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>65</v>
       </c>
@@ -5323,7 +5941,7 @@
       </c>
       <c r="G103">
         <f t="shared" si="6"/>
-        <v>0.19800000000000001</v>
+        <v>0.19930476190476193</v>
       </c>
       <c r="H103">
         <f t="shared" si="7"/>
@@ -5331,7 +5949,7 @@
       </c>
       <c r="I103">
         <f t="shared" si="8"/>
-        <v>1.47</v>
+        <v>3.5238095238103728E-3</v>
       </c>
       <c r="J103">
         <f t="shared" si="9"/>
@@ -5343,10 +5961,16 @@
       </c>
       <c r="L103">
         <f t="shared" si="11"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.41428571428571459</v>
+      </c>
+      <c r="M103" s="1">
+        <v>0</v>
+      </c>
+      <c r="N103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>66</v>
       </c>
@@ -5367,7 +5991,7 @@
       </c>
       <c r="G104">
         <f t="shared" si="6"/>
-        <v>0.316</v>
+        <v>0.31730476190476192</v>
       </c>
       <c r="H104">
         <f t="shared" si="7"/>
@@ -5375,7 +5999,7 @@
       </c>
       <c r="I104">
         <f t="shared" si="8"/>
-        <v>1.48</v>
+        <v>1.3523809523810382E-2</v>
       </c>
       <c r="J104">
         <f t="shared" si="9"/>
@@ -5383,14 +6007,20 @@
       </c>
       <c r="K104">
         <f t="shared" si="10"/>
-        <v>5.6</v>
+        <v>0.68571428571428505</v>
       </c>
       <c r="L104">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M104" s="1">
+        <v>0</v>
+      </c>
+      <c r="N104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>35102</v>
       </c>
@@ -5411,7 +6041,7 @@
       </c>
       <c r="G105">
         <f t="shared" si="6"/>
-        <v>0.06</v>
+        <v>6.1304761904761911E-2</v>
       </c>
       <c r="H105">
         <f t="shared" si="7"/>
@@ -5423,7 +6053,7 @@
       </c>
       <c r="J105">
         <f t="shared" si="9"/>
-        <v>1.39</v>
+        <v>-7.6476190476189698E-2</v>
       </c>
       <c r="K105">
         <f t="shared" si="10"/>
@@ -5431,10 +6061,16 @@
       </c>
       <c r="L105">
         <f t="shared" si="11"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.41428571428571459</v>
+      </c>
+      <c r="M105" s="1">
+        <v>0</v>
+      </c>
+      <c r="N105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>67</v>
       </c>
@@ -5455,7 +6091,7 @@
       </c>
       <c r="G106">
         <f t="shared" si="6"/>
-        <v>0.44800000000000001</v>
+        <v>0.44930476190476193</v>
       </c>
       <c r="H106">
         <f t="shared" si="7"/>
@@ -5467,7 +6103,7 @@
       </c>
       <c r="J106">
         <f t="shared" si="9"/>
-        <v>1.43</v>
+        <v>-3.6476190476189663E-2</v>
       </c>
       <c r="K106">
         <f t="shared" si="10"/>
@@ -5475,10 +6111,16 @@
       </c>
       <c r="L106">
         <f t="shared" si="11"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.41428571428571459</v>
+      </c>
+      <c r="M106" s="1">
+        <v>1</v>
+      </c>
+      <c r="N106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>68</v>
       </c>
@@ -5499,7 +6141,7 @@
       </c>
       <c r="G107">
         <f t="shared" si="6"/>
-        <v>0.66600000000000004</v>
+        <v>0.66730476190476196</v>
       </c>
       <c r="H107">
         <f t="shared" si="7"/>
@@ -5511,7 +6153,7 @@
       </c>
       <c r="J107">
         <f t="shared" si="9"/>
-        <v>1.43</v>
+        <v>-3.6476190476189663E-2</v>
       </c>
       <c r="K107">
         <f t="shared" si="10"/>
@@ -5519,10 +6161,16 @@
       </c>
       <c r="L107">
         <f t="shared" si="11"/>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.71428571428571441</v>
+      </c>
+      <c r="M107" s="1">
+        <v>1</v>
+      </c>
+      <c r="N107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>35410</v>
       </c>
@@ -5543,7 +6191,7 @@
       </c>
       <c r="G108">
         <f t="shared" si="6"/>
-        <v>0.128</v>
+        <v>0.12930476190476192</v>
       </c>
       <c r="H108">
         <f t="shared" si="7"/>
@@ -5555,7 +6203,7 @@
       </c>
       <c r="J108">
         <f t="shared" si="9"/>
-        <v>1.45</v>
+        <v>-1.6476190476189645E-2</v>
       </c>
       <c r="K108">
         <f t="shared" si="10"/>
@@ -5563,10 +6211,16 @@
       </c>
       <c r="L108">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.91428571428571459</v>
+      </c>
+      <c r="M108" s="1">
+        <v>1</v>
+      </c>
+      <c r="N108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>69</v>
       </c>
@@ -5587,7 +6241,7 @@
       </c>
       <c r="G109">
         <f t="shared" si="6"/>
-        <v>0.182</v>
+        <v>0.18330476190476191</v>
       </c>
       <c r="H109">
         <f t="shared" si="7"/>
@@ -5599,7 +6253,7 @@
       </c>
       <c r="J109">
         <f t="shared" si="9"/>
-        <v>1.41</v>
+        <v>-5.647619047618968E-2</v>
       </c>
       <c r="K109">
         <f t="shared" si="10"/>
@@ -5607,10 +6261,16 @@
       </c>
       <c r="L109">
         <f t="shared" si="11"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.41428571428571459</v>
+      </c>
+      <c r="M109" s="1">
+        <v>1</v>
+      </c>
+      <c r="N109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>35522</v>
       </c>
@@ -5631,7 +6291,7 @@
       </c>
       <c r="G110">
         <f t="shared" si="6"/>
-        <v>0.32800000000000001</v>
+        <v>0.32930476190476193</v>
       </c>
       <c r="H110">
         <f t="shared" si="7"/>
@@ -5643,7 +6303,7 @@
       </c>
       <c r="J110">
         <f t="shared" si="9"/>
-        <v>1.41</v>
+        <v>-5.647619047618968E-2</v>
       </c>
       <c r="K110">
         <f t="shared" si="10"/>
@@ -5651,10 +6311,16 @@
       </c>
       <c r="L110">
         <f t="shared" si="11"/>
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.31428571428571495</v>
+      </c>
+      <c r="M110" s="1">
+        <v>1</v>
+      </c>
+      <c r="N110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>70</v>
       </c>
@@ -5675,7 +6341,7 @@
       </c>
       <c r="G111">
         <f t="shared" si="6"/>
-        <v>0.45800000000000002</v>
+        <v>0.45930476190476194</v>
       </c>
       <c r="H111">
         <f t="shared" si="7"/>
@@ -5687,18 +6353,24 @@
       </c>
       <c r="J111">
         <f t="shared" si="9"/>
-        <v>1.45</v>
+        <v>-1.6476190476189645E-2</v>
       </c>
       <c r="K111">
         <f t="shared" si="10"/>
-        <v>6.4</v>
+        <v>1.4857142857142858</v>
       </c>
       <c r="L111">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M111" s="1">
+        <v>1</v>
+      </c>
+      <c r="N111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>71</v>
       </c>
@@ -5719,7 +6391,7 @@
       </c>
       <c r="G112">
         <f t="shared" si="6"/>
-        <v>0.35399999999999998</v>
+        <v>0.3553047619047619</v>
       </c>
       <c r="H112">
         <f t="shared" si="7"/>
@@ -5731,7 +6403,7 @@
       </c>
       <c r="J112">
         <f t="shared" si="9"/>
-        <v>1.43</v>
+        <v>-3.6476190476189663E-2</v>
       </c>
       <c r="K112">
         <f t="shared" si="10"/>
@@ -5739,10 +6411,16 @@
       </c>
       <c r="L112">
         <f t="shared" si="11"/>
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.0142857142857147</v>
+      </c>
+      <c r="M112" s="1">
+        <v>0</v>
+      </c>
+      <c r="N112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>35437</v>
       </c>
@@ -5767,7 +6445,7 @@
       </c>
       <c r="H113">
         <f t="shared" si="7"/>
-        <v>-0.27200000000000002</v>
+        <v>-0.2706952380952381</v>
       </c>
       <c r="I113">
         <f t="shared" si="8"/>
@@ -5775,7 +6453,7 @@
       </c>
       <c r="J113">
         <f t="shared" si="9"/>
-        <v>1.44</v>
+        <v>-2.6476190476189654E-2</v>
       </c>
       <c r="K113">
         <f t="shared" si="10"/>
@@ -5783,10 +6461,16 @@
       </c>
       <c r="L113">
         <f t="shared" si="11"/>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.11428571428571477</v>
+      </c>
+      <c r="M113" s="1">
+        <v>1</v>
+      </c>
+      <c r="N113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>72</v>
       </c>
@@ -5807,7 +6491,7 @@
       </c>
       <c r="G114">
         <f t="shared" si="6"/>
-        <v>8.0000000000000002E-3</v>
+        <v>9.3047619047619129E-3</v>
       </c>
       <c r="H114">
         <f t="shared" si="7"/>
@@ -5819,7 +6503,7 @@
       </c>
       <c r="J114">
         <f t="shared" si="9"/>
-        <v>1.44</v>
+        <v>-2.6476190476189654E-2</v>
       </c>
       <c r="K114">
         <f t="shared" si="10"/>
@@ -5827,10 +6511,16 @@
       </c>
       <c r="L114">
         <f t="shared" si="11"/>
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.0142857142857147</v>
+      </c>
+      <c r="M114" s="1">
+        <v>1</v>
+      </c>
+      <c r="N114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>73</v>
       </c>
@@ -5855,7 +6545,7 @@
       </c>
       <c r="H115">
         <f t="shared" si="7"/>
-        <v>-7.0000000000000007E-2</v>
+        <v>-6.8695238095238087E-2</v>
       </c>
       <c r="I115">
         <f t="shared" si="8"/>
@@ -5863,7 +6553,7 @@
       </c>
       <c r="J115">
         <f t="shared" si="9"/>
-        <v>1.43</v>
+        <v>-3.6476190476189663E-2</v>
       </c>
       <c r="K115">
         <f t="shared" si="10"/>
@@ -5871,10 +6561,16 @@
       </c>
       <c r="L115">
         <f t="shared" si="11"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.41428571428571459</v>
+      </c>
+      <c r="M115" s="1">
+        <v>1</v>
+      </c>
+      <c r="N115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>35714</v>
       </c>
@@ -5899,7 +6595,7 @@
       </c>
       <c r="H116">
         <f t="shared" si="7"/>
-        <v>-0.126</v>
+        <v>-0.12469523809523808</v>
       </c>
       <c r="I116">
         <f t="shared" si="8"/>
@@ -5907,18 +6603,24 @@
       </c>
       <c r="J116">
         <f t="shared" si="9"/>
-        <v>1.43</v>
+        <v>-3.6476190476189663E-2</v>
       </c>
       <c r="K116">
         <f t="shared" si="10"/>
-        <v>5.4</v>
+        <v>0.48571428571428577</v>
       </c>
       <c r="L116">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M116" s="1">
+        <v>1</v>
+      </c>
+      <c r="N116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>74</v>
       </c>
@@ -5943,11 +6645,11 @@
       </c>
       <c r="H117">
         <f t="shared" si="7"/>
-        <v>-5.8000000000000003E-2</v>
+        <v>-5.669523809523809E-2</v>
       </c>
       <c r="I117">
         <f t="shared" si="8"/>
-        <v>1.47</v>
+        <v>3.5238095238103728E-3</v>
       </c>
       <c r="J117">
         <f t="shared" si="9"/>
@@ -5955,14 +6657,20 @@
       </c>
       <c r="K117">
         <f t="shared" si="10"/>
-        <v>6.1</v>
+        <v>1.1857142857142851</v>
       </c>
       <c r="L117">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M117" s="1">
+        <v>1</v>
+      </c>
+      <c r="N117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>35856</v>
       </c>
@@ -5987,11 +6695,11 @@
       </c>
       <c r="H118">
         <f t="shared" si="7"/>
-        <v>-0.31</v>
+        <v>-0.30869523809523808</v>
       </c>
       <c r="I118">
         <f t="shared" si="8"/>
-        <v>1.48</v>
+        <v>1.3523809523810382E-2</v>
       </c>
       <c r="J118">
         <f t="shared" si="9"/>
@@ -6003,10 +6711,16 @@
       </c>
       <c r="L118">
         <f t="shared" si="11"/>
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.51428571428571423</v>
+      </c>
+      <c r="M118" s="1">
+        <v>0</v>
+      </c>
+      <c r="N118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>75</v>
       </c>
@@ -6031,11 +6745,11 @@
       </c>
       <c r="H119">
         <f t="shared" si="7"/>
-        <v>-0.15</v>
+        <v>-0.14869523809523807</v>
       </c>
       <c r="I119">
         <f t="shared" si="8"/>
-        <v>1.56</v>
+        <v>9.3523809523810453E-2</v>
       </c>
       <c r="J119">
         <f t="shared" si="9"/>
@@ -6047,10 +6761,16 @@
       </c>
       <c r="L119">
         <f t="shared" si="11"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.41428571428571459</v>
+      </c>
+      <c r="M119" s="1">
+        <v>0</v>
+      </c>
+      <c r="N119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>76</v>
       </c>
@@ -6075,11 +6795,11 @@
       </c>
       <c r="H120">
         <f t="shared" si="7"/>
-        <v>-0.15</v>
+        <v>-0.14869523809523807</v>
       </c>
       <c r="I120">
         <f t="shared" si="8"/>
-        <v>1.6</v>
+        <v>0.13352380952381049</v>
       </c>
       <c r="J120">
         <f t="shared" si="9"/>
@@ -6091,10 +6811,16 @@
       </c>
       <c r="L120">
         <f t="shared" si="11"/>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.71428571428571441</v>
+      </c>
+      <c r="M120" s="1">
+        <v>1</v>
+      </c>
+      <c r="N120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>77</v>
       </c>
@@ -6119,11 +6845,11 @@
       </c>
       <c r="H121">
         <f t="shared" si="7"/>
-        <v>-0.48</v>
+        <v>-0.47869523809523806</v>
       </c>
       <c r="I121">
         <f t="shared" si="8"/>
-        <v>1.55</v>
+        <v>8.3523809523810444E-2</v>
       </c>
       <c r="J121">
         <f t="shared" si="9"/>
@@ -6135,10 +6861,16 @@
       </c>
       <c r="L121">
         <f t="shared" si="11"/>
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.2142857142857144</v>
+      </c>
+      <c r="M121" s="1">
+        <v>1</v>
+      </c>
+      <c r="N121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>78</v>
       </c>
@@ -6163,11 +6895,11 @@
       </c>
       <c r="H122">
         <f t="shared" si="7"/>
-        <v>-0.37</v>
+        <v>-0.36869523809523808</v>
       </c>
       <c r="I122">
         <f t="shared" si="8"/>
-        <v>1.58</v>
+        <v>0.11352380952381047</v>
       </c>
       <c r="J122">
         <f t="shared" si="9"/>
@@ -6179,10 +6911,16 @@
       </c>
       <c r="L122">
         <f t="shared" si="11"/>
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.3142857142857145</v>
+      </c>
+      <c r="M122" s="1">
+        <v>1</v>
+      </c>
+      <c r="N122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>79</v>
       </c>
@@ -6207,11 +6945,11 @@
       </c>
       <c r="H123">
         <f t="shared" si="7"/>
-        <v>-0.89600000000000002</v>
+        <v>-0.8946952380952381</v>
       </c>
       <c r="I123">
         <f t="shared" si="8"/>
-        <v>1.63</v>
+        <v>0.16352380952381029</v>
       </c>
       <c r="J123">
         <f t="shared" si="9"/>
@@ -6223,10 +6961,16 @@
       </c>
       <c r="L123">
         <f t="shared" si="11"/>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.71428571428571441</v>
+      </c>
+      <c r="M123" s="1">
+        <v>0</v>
+      </c>
+      <c r="N123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>80</v>
       </c>
@@ -6251,11 +6995,11 @@
       </c>
       <c r="H124">
         <f t="shared" si="7"/>
-        <v>-0.90600000000000003</v>
+        <v>-0.90469523809523811</v>
       </c>
       <c r="I124">
         <f t="shared" si="8"/>
-        <v>1.57</v>
+        <v>0.10352380952381046</v>
       </c>
       <c r="J124">
         <f t="shared" si="9"/>
@@ -6267,10 +7011,16 @@
       </c>
       <c r="L124">
         <f t="shared" si="11"/>
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.3142857142857145</v>
+      </c>
+      <c r="M124" s="1">
+        <v>0</v>
+      </c>
+      <c r="N124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>81</v>
       </c>
@@ -6295,11 +7045,11 @@
       </c>
       <c r="H125">
         <f t="shared" si="7"/>
-        <v>-0.54200000000000004</v>
+        <v>-0.54069523809523812</v>
       </c>
       <c r="I125">
         <f t="shared" si="8"/>
-        <v>1.57</v>
+        <v>0.10352380952381046</v>
       </c>
       <c r="J125">
         <f t="shared" si="9"/>
@@ -6311,10 +7061,16 @@
       </c>
       <c r="L125">
         <f t="shared" si="11"/>
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.7142857142857144</v>
+      </c>
+      <c r="M125" s="1">
+        <v>0</v>
+      </c>
+      <c r="N125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>82</v>
       </c>
@@ -6339,11 +7095,11 @@
       </c>
       <c r="H126">
         <f t="shared" si="7"/>
-        <v>-0.36199999999999999</v>
+        <v>-0.36069523809523807</v>
       </c>
       <c r="I126">
         <f t="shared" si="8"/>
-        <v>1.69</v>
+        <v>0.22352380952381035</v>
       </c>
       <c r="J126">
         <f t="shared" si="9"/>
@@ -6355,10 +7111,16 @@
       </c>
       <c r="L126">
         <f t="shared" si="11"/>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.71428571428571441</v>
+      </c>
+      <c r="M126" s="1">
+        <v>0</v>
+      </c>
+      <c r="N126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>36193</v>
       </c>
@@ -6383,11 +7145,11 @@
       </c>
       <c r="H127">
         <f t="shared" si="7"/>
-        <v>-0.182</v>
+        <v>-0.18069523809523808</v>
       </c>
       <c r="I127">
         <f t="shared" si="8"/>
-        <v>1.68</v>
+        <v>0.21352380952381034</v>
       </c>
       <c r="J127">
         <f t="shared" si="9"/>
@@ -6399,10 +7161,16 @@
       </c>
       <c r="L127">
         <f t="shared" si="11"/>
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.51428571428571423</v>
+      </c>
+      <c r="M127" s="1">
+        <v>0</v>
+      </c>
+      <c r="N127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>83</v>
       </c>
@@ -6427,11 +7195,11 @@
       </c>
       <c r="H128">
         <f t="shared" si="7"/>
-        <v>-0.11600000000000001</v>
+        <v>-0.11469523809523809</v>
       </c>
       <c r="I128">
         <f t="shared" si="8"/>
-        <v>1.75</v>
+        <v>0.2835238095238104</v>
       </c>
       <c r="J128">
         <f t="shared" si="9"/>
@@ -6439,14 +7207,20 @@
       </c>
       <c r="K128">
         <f t="shared" si="10"/>
-        <v>5.0999999999999996</v>
+        <v>0.18571428571428505</v>
       </c>
       <c r="L128">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M128" s="1">
+        <v>0</v>
+      </c>
+      <c r="N128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>84</v>
       </c>
@@ -6467,7 +7241,7 @@
       </c>
       <c r="G129">
         <f t="shared" si="6"/>
-        <v>1.7999999999999999E-2</v>
+        <v>1.9304761904761911E-2</v>
       </c>
       <c r="H129">
         <f t="shared" si="7"/>
@@ -6475,7 +7249,7 @@
       </c>
       <c r="I129">
         <f t="shared" si="8"/>
-        <v>1.66</v>
+        <v>0.19352380952381032</v>
       </c>
       <c r="J129">
         <f t="shared" si="9"/>
@@ -6487,10 +7261,16 @@
       </c>
       <c r="L129">
         <f t="shared" si="11"/>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.11428571428571477</v>
+      </c>
+      <c r="M129" s="1">
+        <v>0</v>
+      </c>
+      <c r="N129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>85</v>
       </c>
@@ -6511,7 +7291,7 @@
       </c>
       <c r="G130">
         <f t="shared" si="6"/>
-        <v>0.28399999999999997</v>
+        <v>0.28530476190476189</v>
       </c>
       <c r="H130">
         <f t="shared" si="7"/>
@@ -6519,7 +7299,7 @@
       </c>
       <c r="I130">
         <f t="shared" si="8"/>
-        <v>1.64</v>
+        <v>0.1735238095238103</v>
       </c>
       <c r="J130">
         <f t="shared" si="9"/>
@@ -6531,10 +7311,16 @@
       </c>
       <c r="L130">
         <f t="shared" si="11"/>
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.21428571428571441</v>
+      </c>
+      <c r="M130" s="1">
+        <v>1</v>
+      </c>
+      <c r="N130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>86</v>
       </c>
@@ -6554,31 +7340,37 @@
         <v>5</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G194" si="12">IF($D131&gt;AVERAGE($D$2:$D$211),$D131,0)</f>
-        <v>0.23200000000000001</v>
+        <f t="shared" ref="G131:G194" si="12">IF($D131&gt;AVERAGE($D$2:$D$211),$D131-AVERAGE($D$2:$D$211),0)</f>
+        <v>0.23330476190476193</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H194" si="13">IF($D131&lt;AVERAGE($D$2:$D$211),$D131,0)</f>
+        <f t="shared" ref="H131:H194" si="13">IF($D131&lt;AVERAGE($D$2:$D$211),$D131-AVERAGE($D$2:$D$211),0)</f>
         <v>0</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I194" si="14">IF($E131&gt;AVERAGE($E$2:$E$211),$E131,0)</f>
-        <v>1.64</v>
+        <f t="shared" ref="I131:I194" si="14">IF($E131&gt;AVERAGE($E$2:$E$211),$E131-AVERAGE($E$2:$E$211),0)</f>
+        <v>0.1735238095238103</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J194" si="15">IF($E131&lt;AVERAGE($E$2:$E$211),$E131,0)</f>
+        <f t="shared" ref="J131:J194" si="15">IF($E131&lt;AVERAGE($E$2:$E$211),$E131-AVERAGE($E$2:$E$211),0)</f>
         <v>0</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K194" si="16">IF($F131&gt;AVERAGE($F$2:$F$211),$F131,0)</f>
-        <v>5</v>
+        <f t="shared" ref="K131:K194" si="16">IF($F131&gt;AVERAGE($F$2:$F$211),$F131-AVERAGE($F$2:$F$211),0)</f>
+        <v>8.571428571428541E-2</v>
       </c>
       <c r="L131">
-        <f t="shared" ref="L131:L194" si="17">IF($F131&lt;AVERAGE($F$2:$F$211),$F131,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L131:L194" si="17">IF($F131&lt;AVERAGE($F$2:$F$211),$F131-AVERAGE($F$2:$F$211),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M131" s="1">
+        <v>1</v>
+      </c>
+      <c r="N131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>36260</v>
       </c>
@@ -6603,11 +7395,11 @@
       </c>
       <c r="H132">
         <f t="shared" si="13"/>
-        <v>-6.4000000000000001E-2</v>
+        <v>-6.2695238095238082E-2</v>
       </c>
       <c r="I132">
         <f t="shared" si="14"/>
-        <v>1.61</v>
+        <v>0.1435238095238105</v>
       </c>
       <c r="J132">
         <f t="shared" si="15"/>
@@ -6615,14 +7407,20 @@
       </c>
       <c r="K132">
         <f t="shared" si="16"/>
-        <v>6.1</v>
+        <v>1.1857142857142851</v>
       </c>
       <c r="L132">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M132" s="1">
+        <v>0</v>
+      </c>
+      <c r="N132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>87</v>
       </c>
@@ -6643,7 +7441,7 @@
       </c>
       <c r="G133">
         <f t="shared" si="12"/>
-        <v>0.13800000000000001</v>
+        <v>0.13930476190476193</v>
       </c>
       <c r="H133">
         <f t="shared" si="13"/>
@@ -6651,7 +7449,7 @@
       </c>
       <c r="I133">
         <f t="shared" si="14"/>
-        <v>1.64</v>
+        <v>0.1735238095238103</v>
       </c>
       <c r="J133">
         <f t="shared" si="15"/>
@@ -6659,14 +7457,20 @@
       </c>
       <c r="K133">
         <f t="shared" si="16"/>
-        <v>5.9</v>
+        <v>0.98571428571428577</v>
       </c>
       <c r="L133">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M133" s="1">
+        <v>1</v>
+      </c>
+      <c r="N133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>88</v>
       </c>
@@ -6687,7 +7491,7 @@
       </c>
       <c r="G134">
         <f t="shared" si="12"/>
-        <v>0.42599999999999999</v>
+        <v>0.42730476190476191</v>
       </c>
       <c r="H134">
         <f t="shared" si="13"/>
@@ -6695,7 +7499,7 @@
       </c>
       <c r="I134">
         <f t="shared" si="14"/>
-        <v>1.62</v>
+        <v>0.15352380952381051</v>
       </c>
       <c r="J134">
         <f t="shared" si="15"/>
@@ -6703,14 +7507,20 @@
       </c>
       <c r="K134">
         <f t="shared" si="16"/>
-        <v>6.4</v>
+        <v>1.4857142857142858</v>
       </c>
       <c r="L134">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M134" s="1">
+        <v>0</v>
+      </c>
+      <c r="N134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>36527</v>
       </c>
@@ -6731,7 +7541,7 @@
       </c>
       <c r="G135">
         <f t="shared" si="12"/>
-        <v>0.56399999999999995</v>
+        <v>0.56530476190476187</v>
       </c>
       <c r="H135">
         <f t="shared" si="13"/>
@@ -6739,7 +7549,7 @@
       </c>
       <c r="I135">
         <f t="shared" si="14"/>
-        <v>1.64</v>
+        <v>0.1735238095238103</v>
       </c>
       <c r="J135">
         <f t="shared" si="15"/>
@@ -6747,14 +7557,20 @@
       </c>
       <c r="K135">
         <f t="shared" si="16"/>
-        <v>6.1</v>
+        <v>1.1857142857142851</v>
       </c>
       <c r="L135">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M135" s="1">
+        <v>0</v>
+      </c>
+      <c r="N135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>89</v>
       </c>
@@ -6775,7 +7591,7 @@
       </c>
       <c r="G136">
         <f t="shared" si="12"/>
-        <v>0.39800000000000002</v>
+        <v>0.39930476190476194</v>
       </c>
       <c r="H136">
         <f t="shared" si="13"/>
@@ -6783,7 +7599,7 @@
       </c>
       <c r="I136">
         <f t="shared" si="14"/>
-        <v>1.74</v>
+        <v>0.27352380952381039</v>
       </c>
       <c r="J136">
         <f t="shared" si="15"/>
@@ -6791,14 +7607,20 @@
       </c>
       <c r="K136">
         <f t="shared" si="16"/>
-        <v>7.3</v>
+        <v>2.3857142857142852</v>
       </c>
       <c r="L136">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M136" s="1">
+        <v>1</v>
+      </c>
+      <c r="N136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>90</v>
       </c>
@@ -6819,7 +7641,7 @@
       </c>
       <c r="G137">
         <f t="shared" si="12"/>
-        <v>0.32200000000000001</v>
+        <v>0.32330476190476193</v>
       </c>
       <c r="H137">
         <f t="shared" si="13"/>
@@ -6827,7 +7649,7 @@
       </c>
       <c r="I137">
         <f t="shared" si="14"/>
-        <v>1.65</v>
+        <v>0.18352380952381031</v>
       </c>
       <c r="J137">
         <f t="shared" si="15"/>
@@ -6835,14 +7657,20 @@
       </c>
       <c r="K137">
         <f t="shared" si="16"/>
-        <v>7.9</v>
+        <v>2.9857142857142858</v>
       </c>
       <c r="L137">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M137" s="1">
+        <v>1</v>
+      </c>
+      <c r="N137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>91</v>
       </c>
@@ -6867,11 +7695,11 @@
       </c>
       <c r="H138">
         <f t="shared" si="13"/>
-        <v>-0.372</v>
+        <v>-0.37069523809523808</v>
       </c>
       <c r="I138">
         <f t="shared" si="14"/>
-        <v>1.61</v>
+        <v>0.1435238095238105</v>
       </c>
       <c r="J138">
         <f t="shared" si="15"/>
@@ -6879,14 +7707,20 @@
       </c>
       <c r="K138">
         <f t="shared" si="16"/>
-        <v>6.8</v>
+        <v>1.8857142857142852</v>
       </c>
       <c r="L138">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M138" s="1">
+        <v>1</v>
+      </c>
+      <c r="N138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>92</v>
       </c>
@@ -6911,11 +7745,11 @@
       </c>
       <c r="H139">
         <f t="shared" si="13"/>
-        <v>-0.29399999999999998</v>
+        <v>-0.29269523809523806</v>
       </c>
       <c r="I139">
         <f t="shared" si="14"/>
-        <v>1.53</v>
+        <v>6.3523809523810426E-2</v>
       </c>
       <c r="J139">
         <f t="shared" si="15"/>
@@ -6927,10 +7761,16 @@
       </c>
       <c r="L139">
         <f t="shared" si="17"/>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.11428571428571477</v>
+      </c>
+      <c r="M139" s="1">
+        <v>1</v>
+      </c>
+      <c r="N139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>36566</v>
       </c>
@@ -6955,11 +7795,11 @@
       </c>
       <c r="H140">
         <f t="shared" si="13"/>
-        <v>-0.5</v>
+        <v>-0.49869523809523808</v>
       </c>
       <c r="I140">
         <f t="shared" si="14"/>
-        <v>1.57</v>
+        <v>0.10352380952381046</v>
       </c>
       <c r="J140">
         <f t="shared" si="15"/>
@@ -6967,14 +7807,20 @@
       </c>
       <c r="K140">
         <f t="shared" si="16"/>
-        <v>5.7</v>
+        <v>0.78571428571428559</v>
       </c>
       <c r="L140">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M140" s="1">
+        <v>1</v>
+      </c>
+      <c r="N140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>93</v>
       </c>
@@ -6999,11 +7845,11 @@
       </c>
       <c r="H141">
         <f t="shared" si="13"/>
-        <v>-0.39400000000000002</v>
+        <v>-0.3926952380952381</v>
       </c>
       <c r="I141">
         <f t="shared" si="14"/>
-        <v>1.56</v>
+        <v>9.3523809523810453E-2</v>
       </c>
       <c r="J141">
         <f t="shared" si="15"/>
@@ -7011,14 +7857,20 @@
       </c>
       <c r="K141">
         <f t="shared" si="16"/>
-        <v>5.9</v>
+        <v>0.98571428571428577</v>
       </c>
       <c r="L141">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M141" s="1">
+        <v>1</v>
+      </c>
+      <c r="N141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>94</v>
       </c>
@@ -7043,11 +7895,11 @@
       </c>
       <c r="H142">
         <f t="shared" si="13"/>
-        <v>-0.81</v>
+        <v>-0.80869523809523813</v>
       </c>
       <c r="I142">
         <f t="shared" si="14"/>
-        <v>1.52</v>
+        <v>5.3523809523810417E-2</v>
       </c>
       <c r="J142">
         <f t="shared" si="15"/>
@@ -7059,10 +7911,16 @@
       </c>
       <c r="L142">
         <f t="shared" si="17"/>
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.21428571428571441</v>
+      </c>
+      <c r="M142" s="1">
+        <v>1</v>
+      </c>
+      <c r="N142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>36923</v>
       </c>
@@ -7087,11 +7945,11 @@
       </c>
       <c r="H143">
         <f t="shared" si="13"/>
-        <v>-1.052</v>
+        <v>-1.0506952380952381</v>
       </c>
       <c r="I143">
         <f t="shared" si="14"/>
-        <v>1.55</v>
+        <v>8.3523809523810444E-2</v>
       </c>
       <c r="J143">
         <f t="shared" si="15"/>
@@ -7103,10 +7961,16 @@
       </c>
       <c r="L143">
         <f t="shared" si="17"/>
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.4285714285714235E-2</v>
+      </c>
+      <c r="M143" s="1">
+        <v>0</v>
+      </c>
+      <c r="N143" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>95</v>
       </c>
@@ -7131,11 +7995,11 @@
       </c>
       <c r="H144">
         <f t="shared" si="13"/>
-        <v>-1.208</v>
+        <v>-1.206695238095238</v>
       </c>
       <c r="I144">
         <f t="shared" si="14"/>
-        <v>1.59</v>
+        <v>0.12352380952381048</v>
       </c>
       <c r="J144">
         <f t="shared" si="15"/>
@@ -7147,10 +8011,16 @@
       </c>
       <c r="L144">
         <f t="shared" si="17"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-2.5142857142857147</v>
+      </c>
+      <c r="M144" s="1">
+        <v>0</v>
+      </c>
+      <c r="N144" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>96</v>
       </c>
@@ -7175,11 +8045,11 @@
       </c>
       <c r="H145">
         <f t="shared" si="13"/>
-        <v>-1.1859999999999999</v>
+        <v>-1.184695238095238</v>
       </c>
       <c r="I145">
         <f t="shared" si="14"/>
-        <v>1.65</v>
+        <v>0.18352380952381031</v>
       </c>
       <c r="J145">
         <f t="shared" si="15"/>
@@ -7191,10 +8061,16 @@
       </c>
       <c r="L145">
         <f t="shared" si="17"/>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.71428571428571441</v>
+      </c>
+      <c r="M145" s="1">
+        <v>0</v>
+      </c>
+      <c r="N145" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>37168</v>
       </c>
@@ -7219,11 +8095,11 @@
       </c>
       <c r="H146">
         <f t="shared" si="13"/>
-        <v>-1.014</v>
+        <v>-1.0126952380952381</v>
       </c>
       <c r="I146">
         <f t="shared" si="14"/>
-        <v>1.64</v>
+        <v>0.1735238095238103</v>
       </c>
       <c r="J146">
         <f t="shared" si="15"/>
@@ -7235,10 +8111,16 @@
       </c>
       <c r="L146">
         <f t="shared" si="17"/>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-2.2142857142857144</v>
+      </c>
+      <c r="M146" s="1">
+        <v>0</v>
+      </c>
+      <c r="N146" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>97</v>
       </c>
@@ -7263,11 +8145,11 @@
       </c>
       <c r="H147">
         <f t="shared" si="13"/>
-        <v>-0.85199999999999998</v>
+        <v>-0.85069523809523806</v>
       </c>
       <c r="I147">
         <f t="shared" si="14"/>
-        <v>1.64</v>
+        <v>0.1735238095238103</v>
       </c>
       <c r="J147">
         <f t="shared" si="15"/>
@@ -7279,10 +8161,16 @@
       </c>
       <c r="L147">
         <f t="shared" si="17"/>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-2.2142857142857144</v>
+      </c>
+      <c r="M147" s="1">
+        <v>0</v>
+      </c>
+      <c r="N147" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>98</v>
       </c>
@@ -7307,11 +8195,11 @@
       </c>
       <c r="H148">
         <f t="shared" si="13"/>
-        <v>-0.68</v>
+        <v>-0.67869523809523813</v>
       </c>
       <c r="I148">
         <f t="shared" si="14"/>
-        <v>1.62</v>
+        <v>0.15352380952381051</v>
       </c>
       <c r="J148">
         <f t="shared" si="15"/>
@@ -7323,10 +8211,16 @@
       </c>
       <c r="L148">
         <f t="shared" si="17"/>
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.1142857142857148</v>
+      </c>
+      <c r="M148" s="1">
+        <v>0</v>
+      </c>
+      <c r="N148" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>99</v>
       </c>
@@ -7351,11 +8245,11 @@
       </c>
       <c r="H149">
         <f t="shared" si="13"/>
-        <v>-0.47199999999999998</v>
+        <v>-0.47069523809523806</v>
       </c>
       <c r="I149">
         <f t="shared" si="14"/>
-        <v>1.62</v>
+        <v>0.15352380952381051</v>
       </c>
       <c r="J149">
         <f t="shared" si="15"/>
@@ -7367,10 +8261,16 @@
       </c>
       <c r="L149">
         <f t="shared" si="17"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.4142857142857146</v>
+      </c>
+      <c r="M149" s="1">
+        <v>0</v>
+      </c>
+      <c r="N149" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>100</v>
       </c>
@@ -7395,11 +8295,11 @@
       </c>
       <c r="H150">
         <f t="shared" si="13"/>
-        <v>-0.28999999999999998</v>
+        <v>-0.28869523809523806</v>
       </c>
       <c r="I150">
         <f t="shared" si="14"/>
-        <v>1.64</v>
+        <v>0.1735238095238103</v>
       </c>
       <c r="J150">
         <f t="shared" si="15"/>
@@ -7411,10 +8311,16 @@
       </c>
       <c r="L150">
         <f t="shared" si="17"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-2.4142857142857146</v>
+      </c>
+      <c r="M150" s="1">
+        <v>0</v>
+      </c>
+      <c r="N150" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>101</v>
       </c>
@@ -7439,11 +8345,11 @@
       </c>
       <c r="H151">
         <f t="shared" si="13"/>
-        <v>-0.30599999999999999</v>
+        <v>-0.30469523809523807</v>
       </c>
       <c r="I151">
         <f t="shared" si="14"/>
-        <v>1.64</v>
+        <v>0.1735238095238103</v>
       </c>
       <c r="J151">
         <f t="shared" si="15"/>
@@ -7455,10 +8361,16 @@
       </c>
       <c r="L151">
         <f t="shared" si="17"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-2.4142857142857146</v>
+      </c>
+      <c r="M151" s="1">
+        <v>0</v>
+      </c>
+      <c r="N151" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>36901</v>
       </c>
@@ -7483,11 +8395,11 @@
       </c>
       <c r="H152">
         <f t="shared" si="13"/>
-        <v>-0.50800000000000001</v>
+        <v>-0.50669523809523809</v>
       </c>
       <c r="I152">
         <f t="shared" si="14"/>
-        <v>1.56</v>
+        <v>9.3523809523810453E-2</v>
       </c>
       <c r="J152">
         <f t="shared" si="15"/>
@@ -7499,10 +8411,16 @@
       </c>
       <c r="L152">
         <f t="shared" si="17"/>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-5.4142857142857146</v>
+      </c>
+      <c r="M152" s="1">
+        <v>0</v>
+      </c>
+      <c r="N152" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>37022</v>
       </c>
@@ -7527,11 +8445,11 @@
       </c>
       <c r="H153">
         <f t="shared" si="13"/>
-        <v>-0.46</v>
+        <v>-0.4586952380952381</v>
       </c>
       <c r="I153">
         <f t="shared" si="14"/>
-        <v>1.51</v>
+        <v>4.3523809523810408E-2</v>
       </c>
       <c r="J153">
         <f t="shared" si="15"/>
@@ -7543,10 +8461,16 @@
       </c>
       <c r="L153">
         <f t="shared" si="17"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-6.9142857142857146</v>
+      </c>
+      <c r="M153" s="1">
+        <v>0</v>
+      </c>
+      <c r="N153" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>37176</v>
       </c>
@@ -7567,7 +8491,7 @@
       </c>
       <c r="G154">
         <f t="shared" si="12"/>
-        <v>0.32200000000000001</v>
+        <v>0.32330476190476193</v>
       </c>
       <c r="H154">
         <f t="shared" si="13"/>
@@ -7575,7 +8499,7 @@
       </c>
       <c r="I154">
         <f t="shared" si="14"/>
-        <v>1.54</v>
+        <v>7.3523809523810435E-2</v>
       </c>
       <c r="J154">
         <f t="shared" si="15"/>
@@ -7587,10 +8511,16 @@
       </c>
       <c r="L154">
         <f t="shared" si="17"/>
-        <v>-1.8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-6.7142857142857144</v>
+      </c>
+      <c r="M154" s="1">
+        <v>0</v>
+      </c>
+      <c r="N154" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>102</v>
       </c>
@@ -7611,7 +8541,7 @@
       </c>
       <c r="G155">
         <f t="shared" si="12"/>
-        <v>0.434</v>
+        <v>0.43530476190476192</v>
       </c>
       <c r="H155">
         <f t="shared" si="13"/>
@@ -7619,7 +8549,7 @@
       </c>
       <c r="I155">
         <f t="shared" si="14"/>
-        <v>1.57</v>
+        <v>0.10352380952381046</v>
       </c>
       <c r="J155">
         <f t="shared" si="15"/>
@@ -7631,10 +8561,16 @@
       </c>
       <c r="L155">
         <f t="shared" si="17"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.6142857142857148</v>
+      </c>
+      <c r="M155" s="1">
+        <v>0</v>
+      </c>
+      <c r="N155" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>103</v>
       </c>
@@ -7655,7 +8591,7 @@
       </c>
       <c r="G156">
         <f t="shared" si="12"/>
-        <v>0.84599999999999997</v>
+        <v>0.84730476190476189</v>
       </c>
       <c r="H156">
         <f t="shared" si="13"/>
@@ -7663,7 +8599,7 @@
       </c>
       <c r="I156">
         <f t="shared" si="14"/>
-        <v>1.65</v>
+        <v>0.18352380952381031</v>
       </c>
       <c r="J156">
         <f t="shared" si="15"/>
@@ -7671,14 +8607,20 @@
       </c>
       <c r="K156">
         <f t="shared" si="16"/>
-        <v>5.4</v>
+        <v>0.48571428571428577</v>
       </c>
       <c r="L156">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M156" s="1">
+        <v>0</v>
+      </c>
+      <c r="N156" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>37412</v>
       </c>
@@ -7699,7 +8641,7 @@
       </c>
       <c r="G157">
         <f t="shared" si="12"/>
-        <v>0.52800000000000002</v>
+        <v>0.52930476190476194</v>
       </c>
       <c r="H157">
         <f t="shared" si="13"/>
@@ -7707,7 +8649,7 @@
       </c>
       <c r="I157">
         <f t="shared" si="14"/>
-        <v>1.65</v>
+        <v>0.18352380952381031</v>
       </c>
       <c r="J157">
         <f t="shared" si="15"/>
@@ -7719,10 +8661,16 @@
       </c>
       <c r="L157">
         <f t="shared" si="17"/>
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.81428571428571495</v>
+      </c>
+      <c r="M157" s="1">
+        <v>0</v>
+      </c>
+      <c r="N157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>104</v>
       </c>
@@ -7743,7 +8691,7 @@
       </c>
       <c r="G158">
         <f t="shared" si="12"/>
-        <v>0.378</v>
+        <v>0.37930476190476192</v>
       </c>
       <c r="H158">
         <f t="shared" si="13"/>
@@ -7751,7 +8699,7 @@
       </c>
       <c r="I158">
         <f t="shared" si="14"/>
-        <v>1.65</v>
+        <v>0.18352380952381031</v>
       </c>
       <c r="J158">
         <f t="shared" si="15"/>
@@ -7763,10 +8711,16 @@
       </c>
       <c r="L158">
         <f t="shared" si="17"/>
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.7142857142857144</v>
+      </c>
+      <c r="M158" s="1">
+        <v>0</v>
+      </c>
+      <c r="N158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>37598</v>
       </c>
@@ -7791,11 +8745,11 @@
       </c>
       <c r="H159">
         <f t="shared" si="13"/>
-        <v>-3.2000000000000001E-2</v>
+        <v>-3.0695238095238088E-2</v>
       </c>
       <c r="I159">
         <f t="shared" si="14"/>
-        <v>1.65</v>
+        <v>0.18352380952381031</v>
       </c>
       <c r="J159">
         <f t="shared" si="15"/>
@@ -7807,10 +8761,16 @@
       </c>
       <c r="L159">
         <f t="shared" si="17"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.4142857142857146</v>
+      </c>
+      <c r="M159" s="1">
+        <v>0</v>
+      </c>
+      <c r="N159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>105</v>
       </c>
@@ -7831,7 +8791,7 @@
       </c>
       <c r="G160">
         <f t="shared" si="12"/>
-        <v>6.0000000000000001E-3</v>
+        <v>7.3047619047619129E-3</v>
       </c>
       <c r="H160">
         <f t="shared" si="13"/>
@@ -7839,7 +8799,7 @@
       </c>
       <c r="I160">
         <f t="shared" si="14"/>
-        <v>1.67</v>
+        <v>0.20352380952381033</v>
       </c>
       <c r="J160">
         <f t="shared" si="15"/>
@@ -7851,10 +8811,16 @@
       </c>
       <c r="L160">
         <f t="shared" si="17"/>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.61428571428571477</v>
+      </c>
+      <c r="M160" s="1">
+        <v>0</v>
+      </c>
+      <c r="N160" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>37387</v>
       </c>
@@ -7879,11 +8845,11 @@
       </c>
       <c r="H161">
         <f t="shared" si="13"/>
-        <v>-0.252</v>
+        <v>-0.25069523809523808</v>
       </c>
       <c r="I161">
         <f t="shared" si="14"/>
-        <v>1.68</v>
+        <v>0.21352380952381034</v>
       </c>
       <c r="J161">
         <f t="shared" si="15"/>
@@ -7895,10 +8861,16 @@
       </c>
       <c r="L161">
         <f t="shared" si="17"/>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-2.0142857142857147</v>
+      </c>
+      <c r="M161" s="1">
+        <v>0</v>
+      </c>
+      <c r="N161" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>37511</v>
       </c>
@@ -7919,7 +8891,7 @@
       </c>
       <c r="G162">
         <f t="shared" si="12"/>
-        <v>0.28199999999999997</v>
+        <v>0.28330476190476189</v>
       </c>
       <c r="H162">
         <f t="shared" si="13"/>
@@ -7927,7 +8899,7 @@
       </c>
       <c r="I162">
         <f t="shared" si="14"/>
-        <v>1.66</v>
+        <v>0.19352380952381032</v>
       </c>
       <c r="J162">
         <f t="shared" si="15"/>
@@ -7939,10 +8911,16 @@
       </c>
       <c r="L162">
         <f t="shared" si="17"/>
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.8142857142857145</v>
+      </c>
+      <c r="M162" s="1">
+        <v>0</v>
+      </c>
+      <c r="N162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>106</v>
       </c>
@@ -7963,7 +8941,7 @@
       </c>
       <c r="G163">
         <f t="shared" si="12"/>
-        <v>6.6000000000000003E-2</v>
+        <v>6.7304761904761923E-2</v>
       </c>
       <c r="H163">
         <f t="shared" si="13"/>
@@ -7971,7 +8949,7 @@
       </c>
       <c r="I163">
         <f t="shared" si="14"/>
-        <v>1.77</v>
+        <v>0.30352380952381042</v>
       </c>
       <c r="J163">
         <f t="shared" si="15"/>
@@ -7983,10 +8961,16 @@
       </c>
       <c r="L163">
         <f t="shared" si="17"/>
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.1142857142857148</v>
+      </c>
+      <c r="M163" s="1">
+        <v>0</v>
+      </c>
+      <c r="N163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>107</v>
       </c>
@@ -8011,11 +8995,11 @@
       </c>
       <c r="H164">
         <f t="shared" si="13"/>
-        <v>-0.08</v>
+        <v>-7.8695238095238082E-2</v>
       </c>
       <c r="I164">
         <f t="shared" si="14"/>
-        <v>1.82</v>
+        <v>0.35352380952381046</v>
       </c>
       <c r="J164">
         <f t="shared" si="15"/>
@@ -8027,10 +9011,16 @@
       </c>
       <c r="L164">
         <f t="shared" si="17"/>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.61428571428571477</v>
+      </c>
+      <c r="M164" s="1">
+        <v>0</v>
+      </c>
+      <c r="N164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>37746</v>
       </c>
@@ -8055,11 +9045,11 @@
       </c>
       <c r="H165">
         <f t="shared" si="13"/>
-        <v>-2.8000000000000001E-2</v>
+        <v>-2.6695238095238088E-2</v>
       </c>
       <c r="I165">
         <f t="shared" si="14"/>
-        <v>1.76</v>
+        <v>0.29352380952381041</v>
       </c>
       <c r="J165">
         <f t="shared" si="15"/>
@@ -8071,10 +9061,16 @@
       </c>
       <c r="L165">
         <f t="shared" si="17"/>
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.8142857142857145</v>
+      </c>
+      <c r="M165" s="1">
+        <v>0</v>
+      </c>
+      <c r="N165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>108</v>
       </c>
@@ -8099,11 +9095,11 @@
       </c>
       <c r="H166">
         <f t="shared" si="13"/>
-        <v>-0.28000000000000003</v>
+        <v>-0.27869523809523811</v>
       </c>
       <c r="I166">
         <f t="shared" si="14"/>
-        <v>1.7</v>
+        <v>0.23352380952381036</v>
       </c>
       <c r="J166">
         <f t="shared" si="15"/>
@@ -8115,10 +9111,16 @@
       </c>
       <c r="L166">
         <f t="shared" si="17"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-2.5142857142857147</v>
+      </c>
+      <c r="M166" s="1">
+        <v>0</v>
+      </c>
+      <c r="N166" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>37933</v>
       </c>
@@ -8139,7 +9141,7 @@
       </c>
       <c r="G167">
         <f t="shared" si="12"/>
-        <v>0.34200000000000003</v>
+        <v>0.34330476190476195</v>
       </c>
       <c r="H167">
         <f t="shared" si="13"/>
@@ -8147,7 +9149,7 @@
       </c>
       <c r="I167">
         <f t="shared" si="14"/>
-        <v>1.74</v>
+        <v>0.27352380952381039</v>
       </c>
       <c r="J167">
         <f t="shared" si="15"/>
@@ -8159,10 +9161,16 @@
       </c>
       <c r="L167">
         <f t="shared" si="17"/>
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.31428571428571495</v>
+      </c>
+      <c r="M167" s="1">
+        <v>0</v>
+      </c>
+      <c r="N167" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>109</v>
       </c>
@@ -8183,7 +9191,7 @@
       </c>
       <c r="G168">
         <f t="shared" si="12"/>
-        <v>0.20399999999999999</v>
+        <v>0.20530476190476191</v>
       </c>
       <c r="H168">
         <f t="shared" si="13"/>
@@ -8191,7 +9199,7 @@
       </c>
       <c r="I168">
         <f t="shared" si="14"/>
-        <v>1.8</v>
+        <v>0.33352380952381044</v>
       </c>
       <c r="J168">
         <f t="shared" si="15"/>
@@ -8199,14 +9207,20 @@
       </c>
       <c r="K168">
         <f t="shared" si="16"/>
-        <v>5.9</v>
+        <v>0.98571428571428577</v>
       </c>
       <c r="L168">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M168" s="1">
+        <v>0</v>
+      </c>
+      <c r="N168" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>110</v>
       </c>
@@ -8227,7 +9241,7 @@
       </c>
       <c r="G169">
         <f t="shared" si="12"/>
-        <v>0.28799999999999998</v>
+        <v>0.2893047619047619</v>
       </c>
       <c r="H169">
         <f t="shared" si="13"/>
@@ -8235,7 +9249,7 @@
       </c>
       <c r="I169">
         <f t="shared" si="14"/>
-        <v>1.84</v>
+        <v>0.37352380952381048</v>
       </c>
       <c r="J169">
         <f t="shared" si="15"/>
@@ -8243,14 +9257,20 @@
       </c>
       <c r="K169">
         <f t="shared" si="16"/>
-        <v>5.2</v>
+        <v>0.28571428571428559</v>
       </c>
       <c r="L169">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M169" s="1">
+        <v>0</v>
+      </c>
+      <c r="N169" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>37845</v>
       </c>
@@ -8271,7 +9291,7 @@
       </c>
       <c r="G170">
         <f t="shared" si="12"/>
-        <v>0.374</v>
+        <v>0.37530476190476192</v>
       </c>
       <c r="H170">
         <f t="shared" si="13"/>
@@ -8279,7 +9299,7 @@
       </c>
       <c r="I170">
         <f t="shared" si="14"/>
-        <v>1.93</v>
+        <v>0.46352380952381034</v>
       </c>
       <c r="J170">
         <f t="shared" si="15"/>
@@ -8287,14 +9307,20 @@
       </c>
       <c r="K170">
         <f t="shared" si="16"/>
-        <v>5.5</v>
+        <v>0.58571428571428541</v>
       </c>
       <c r="L170">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M170" s="1">
+        <v>0</v>
+      </c>
+      <c r="N170" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>111</v>
       </c>
@@ -8315,7 +9341,7 @@
       </c>
       <c r="G171">
         <f t="shared" si="12"/>
-        <v>0.182</v>
+        <v>0.18330476190476191</v>
       </c>
       <c r="H171">
         <f t="shared" si="13"/>
@@ -8323,7 +9349,7 @@
       </c>
       <c r="I171">
         <f t="shared" si="14"/>
-        <v>1.92</v>
+        <v>0.45352380952381033</v>
       </c>
       <c r="J171">
         <f t="shared" si="15"/>
@@ -8331,14 +9357,20 @@
       </c>
       <c r="K171">
         <f t="shared" si="16"/>
-        <v>6.6</v>
+        <v>1.6857142857142851</v>
       </c>
       <c r="L171">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M171" s="1">
+        <v>0</v>
+      </c>
+      <c r="N171" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>112</v>
       </c>
@@ -8359,7 +9391,7 @@
       </c>
       <c r="G172">
         <f t="shared" si="12"/>
-        <v>0.158</v>
+        <v>0.15930476190476192</v>
       </c>
       <c r="H172">
         <f t="shared" si="13"/>
@@ -8367,7 +9399,7 @@
       </c>
       <c r="I172">
         <f t="shared" si="14"/>
-        <v>1.9</v>
+        <v>0.43352380952381031</v>
       </c>
       <c r="J172">
         <f t="shared" si="15"/>
@@ -8375,14 +9407,20 @@
       </c>
       <c r="K172">
         <f t="shared" si="16"/>
-        <v>6.6</v>
+        <v>1.6857142857142851</v>
       </c>
       <c r="L172">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M172" s="1">
+        <v>0</v>
+      </c>
+      <c r="N172" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>38051</v>
       </c>
@@ -8403,7 +9441,7 @@
       </c>
       <c r="G173">
         <f t="shared" si="12"/>
-        <v>0.53600000000000003</v>
+        <v>0.53730476190476195</v>
       </c>
       <c r="H173">
         <f t="shared" si="13"/>
@@ -8411,7 +9449,7 @@
       </c>
       <c r="I173">
         <f t="shared" si="14"/>
-        <v>1.89</v>
+        <v>0.4235238095238103</v>
       </c>
       <c r="J173">
         <f t="shared" si="15"/>
@@ -8419,14 +9457,20 @@
       </c>
       <c r="K173">
         <f t="shared" si="16"/>
-        <v>6.2</v>
+        <v>1.2857142857142856</v>
       </c>
       <c r="L173">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M173" s="1">
+        <v>0</v>
+      </c>
+      <c r="N173" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>113</v>
       </c>
@@ -8447,7 +9491,7 @@
       </c>
       <c r="G174">
         <f t="shared" si="12"/>
-        <v>1.1160000000000001</v>
+        <v>1.117304761904762</v>
       </c>
       <c r="H174">
         <f t="shared" si="13"/>
@@ -8455,7 +9499,7 @@
       </c>
       <c r="I174">
         <f t="shared" si="14"/>
-        <v>1.97</v>
+        <v>0.50352380952381037</v>
       </c>
       <c r="J174">
         <f t="shared" si="15"/>
@@ -8463,14 +9507,20 @@
       </c>
       <c r="K174">
         <f t="shared" si="16"/>
-        <v>7.4</v>
+        <v>2.4857142857142858</v>
       </c>
       <c r="L174">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M174" s="1">
+        <v>0</v>
+      </c>
+      <c r="N174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>38238</v>
       </c>
@@ -8491,7 +9541,7 @@
       </c>
       <c r="G175">
         <f t="shared" si="12"/>
-        <v>0.752</v>
+        <v>0.75330476190476192</v>
       </c>
       <c r="H175">
         <f t="shared" si="13"/>
@@ -8499,7 +9549,7 @@
       </c>
       <c r="I175">
         <f t="shared" si="14"/>
-        <v>1.93</v>
+        <v>0.46352380952381034</v>
       </c>
       <c r="J175">
         <f t="shared" si="15"/>
@@ -8511,10 +9561,16 @@
       </c>
       <c r="L175">
         <f t="shared" si="17"/>
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.4285714285714235E-2</v>
+      </c>
+      <c r="M175" s="1">
+        <v>0</v>
+      </c>
+      <c r="N175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>114</v>
       </c>
@@ -8535,7 +9591,7 @@
       </c>
       <c r="G176">
         <f t="shared" si="12"/>
-        <v>0.52800000000000002</v>
+        <v>0.52930476190476194</v>
       </c>
       <c r="H176">
         <f t="shared" si="13"/>
@@ -8543,7 +9599,7 @@
       </c>
       <c r="I176">
         <f t="shared" si="14"/>
-        <v>1.98</v>
+        <v>0.51352380952381038</v>
       </c>
       <c r="J176">
         <f t="shared" si="15"/>
@@ -8555,10 +9611,16 @@
       </c>
       <c r="L176">
         <f t="shared" si="17"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.41428571428571459</v>
+      </c>
+      <c r="M176" s="1">
+        <v>0</v>
+      </c>
+      <c r="N176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>38241</v>
       </c>
@@ -8579,7 +9641,7 @@
       </c>
       <c r="G177">
         <f t="shared" si="12"/>
-        <v>0.63600000000000001</v>
+        <v>0.63730476190476193</v>
       </c>
       <c r="H177">
         <f t="shared" si="13"/>
@@ -8587,7 +9649,7 @@
       </c>
       <c r="I177">
         <f t="shared" si="14"/>
-        <v>1.98</v>
+        <v>0.51352380952381038</v>
       </c>
       <c r="J177">
         <f t="shared" si="15"/>
@@ -8595,14 +9657,20 @@
       </c>
       <c r="K177">
         <f t="shared" si="16"/>
-        <v>5.2</v>
+        <v>0.28571428571428559</v>
       </c>
       <c r="L177">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M177" s="1">
+        <v>0</v>
+      </c>
+      <c r="N177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>115</v>
       </c>
@@ -8623,7 +9691,7 @@
       </c>
       <c r="G178">
         <f t="shared" si="12"/>
-        <v>0.54600000000000004</v>
+        <v>0.54730476190476196</v>
       </c>
       <c r="H178">
         <f t="shared" si="13"/>
@@ -8631,7 +9699,7 @@
       </c>
       <c r="I178">
         <f t="shared" si="14"/>
-        <v>1.98</v>
+        <v>0.51352380952381038</v>
       </c>
       <c r="J178">
         <f t="shared" si="15"/>
@@ -8639,14 +9707,20 @@
       </c>
       <c r="K178">
         <f t="shared" si="16"/>
-        <v>5.6</v>
+        <v>0.68571428571428505</v>
       </c>
       <c r="L178">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M178" s="1">
+        <v>0</v>
+      </c>
+      <c r="N178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>38354</v>
       </c>
@@ -8667,7 +9741,7 @@
       </c>
       <c r="G179">
         <f t="shared" si="12"/>
-        <v>0.502</v>
+        <v>0.50330476190476192</v>
       </c>
       <c r="H179">
         <f t="shared" si="13"/>
@@ -8675,7 +9749,7 @@
       </c>
       <c r="I179">
         <f t="shared" si="14"/>
-        <v>1.97</v>
+        <v>0.50352380952381037</v>
       </c>
       <c r="J179">
         <f t="shared" si="15"/>
@@ -8683,14 +9757,20 @@
       </c>
       <c r="K179">
         <f t="shared" si="16"/>
-        <v>5.0999999999999996</v>
+        <v>0.18571428571428505</v>
       </c>
       <c r="L179">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M179" s="1">
+        <v>0</v>
+      </c>
+      <c r="N179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>116</v>
       </c>
@@ -8711,7 +9791,7 @@
       </c>
       <c r="G180">
         <f t="shared" si="12"/>
-        <v>0.65800000000000003</v>
+        <v>0.65930476190476195</v>
       </c>
       <c r="H180">
         <f t="shared" si="13"/>
@@ -8719,7 +9799,7 @@
       </c>
       <c r="I180">
         <f t="shared" si="14"/>
-        <v>2.15</v>
+        <v>0.68352380952381031</v>
       </c>
       <c r="J180">
         <f t="shared" si="15"/>
@@ -8727,14 +9807,20 @@
       </c>
       <c r="K180">
         <f t="shared" si="16"/>
-        <v>7.2</v>
+        <v>2.2857142857142856</v>
       </c>
       <c r="L180">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M180" s="1">
+        <v>0</v>
+      </c>
+      <c r="N180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>38388</v>
       </c>
@@ -8755,7 +9841,7 @@
       </c>
       <c r="G181">
         <f t="shared" si="12"/>
-        <v>0.48</v>
+        <v>0.4813047619047619</v>
       </c>
       <c r="H181">
         <f t="shared" si="13"/>
@@ -8763,7 +9849,7 @@
       </c>
       <c r="I181">
         <f t="shared" si="14"/>
-        <v>2.02</v>
+        <v>0.55352380952381042</v>
       </c>
       <c r="J181">
         <f t="shared" si="15"/>
@@ -8771,14 +9857,20 @@
       </c>
       <c r="K181">
         <f t="shared" si="16"/>
-        <v>6.3</v>
+        <v>1.3857142857142852</v>
       </c>
       <c r="L181">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M181" s="1">
+        <v>0</v>
+      </c>
+      <c r="N181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>117</v>
       </c>
@@ -8799,7 +9891,7 @@
       </c>
       <c r="G182">
         <f t="shared" si="12"/>
-        <v>0.28599999999999998</v>
+        <v>0.2873047619047619</v>
       </c>
       <c r="H182">
         <f t="shared" si="13"/>
@@ -8807,7 +9899,7 @@
       </c>
       <c r="I182">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>0.5335238095238104</v>
       </c>
       <c r="J182">
         <f t="shared" si="15"/>
@@ -8815,14 +9907,20 @@
       </c>
       <c r="K182">
         <f t="shared" si="16"/>
-        <v>5.6</v>
+        <v>0.68571428571428505</v>
       </c>
       <c r="L182">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M182" s="1">
+        <v>0</v>
+      </c>
+      <c r="N182" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>38572</v>
       </c>
@@ -8843,7 +9941,7 @@
       </c>
       <c r="G183">
         <f t="shared" si="12"/>
-        <v>0.46200000000000002</v>
+        <v>0.46330476190476194</v>
       </c>
       <c r="H183">
         <f t="shared" si="13"/>
@@ -8851,7 +9949,7 @@
       </c>
       <c r="I183">
         <f t="shared" si="14"/>
-        <v>2.0099999999999998</v>
+        <v>0.54352380952381019</v>
       </c>
       <c r="J183">
         <f t="shared" si="15"/>
@@ -8859,14 +9957,20 @@
       </c>
       <c r="K183">
         <f t="shared" si="16"/>
-        <v>5.9</v>
+        <v>0.98571428571428577</v>
       </c>
       <c r="L183">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M183" s="1">
+        <v>0</v>
+      </c>
+      <c r="N183" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>118</v>
       </c>
@@ -8887,7 +9991,7 @@
       </c>
       <c r="G184">
         <f t="shared" si="12"/>
-        <v>0.252</v>
+        <v>0.25330476190476192</v>
       </c>
       <c r="H184">
         <f t="shared" si="13"/>
@@ -8895,7 +9999,7 @@
       </c>
       <c r="I184">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>0.5335238095238104</v>
       </c>
       <c r="J184">
         <f t="shared" si="15"/>
@@ -8903,14 +10007,20 @@
       </c>
       <c r="K184">
         <f t="shared" si="16"/>
-        <v>5.8</v>
+        <v>0.88571428571428523</v>
       </c>
       <c r="L184">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M184" s="1">
+        <v>0</v>
+      </c>
+      <c r="N184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>119</v>
       </c>
@@ -8931,7 +10041,7 @@
       </c>
       <c r="G185">
         <f t="shared" si="12"/>
-        <v>0.42399999999999999</v>
+        <v>0.42530476190476191</v>
       </c>
       <c r="H185">
         <f t="shared" si="13"/>
@@ -8939,7 +10049,7 @@
       </c>
       <c r="I185">
         <f t="shared" si="14"/>
-        <v>2.1</v>
+        <v>0.63352380952381049</v>
       </c>
       <c r="J185">
         <f t="shared" si="15"/>
@@ -8947,14 +10057,20 @@
       </c>
       <c r="K185">
         <f t="shared" si="16"/>
-        <v>6.6</v>
+        <v>1.6857142857142851</v>
       </c>
       <c r="L185">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M185" s="1">
+        <v>0</v>
+      </c>
+      <c r="N185" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>38698</v>
       </c>
@@ -8975,7 +10091,7 @@
       </c>
       <c r="G186">
         <f t="shared" si="12"/>
-        <v>0.25600000000000001</v>
+        <v>0.25730476190476192</v>
       </c>
       <c r="H186">
         <f t="shared" si="13"/>
@@ -8983,7 +10099,7 @@
       </c>
       <c r="I186">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>0.5335238095238104</v>
       </c>
       <c r="J186">
         <f t="shared" si="15"/>
@@ -8991,14 +10107,20 @@
       </c>
       <c r="K186">
         <f t="shared" si="16"/>
-        <v>5.6</v>
+        <v>0.68571428571428505</v>
       </c>
       <c r="L186">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M186" s="1">
+        <v>0</v>
+      </c>
+      <c r="N186" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>120</v>
       </c>
@@ -9019,7 +10141,7 @@
       </c>
       <c r="G187">
         <f t="shared" si="12"/>
-        <v>0.14199999999999999</v>
+        <v>0.14330476190476191</v>
       </c>
       <c r="H187">
         <f t="shared" si="13"/>
@@ -9027,7 +10149,7 @@
       </c>
       <c r="I187">
         <f t="shared" si="14"/>
-        <v>2.1</v>
+        <v>0.63352380952381049</v>
       </c>
       <c r="J187">
         <f t="shared" si="15"/>
@@ -9035,14 +10157,20 @@
       </c>
       <c r="K187">
         <f t="shared" si="16"/>
-        <v>6.3</v>
+        <v>1.3857142857142852</v>
       </c>
       <c r="L187">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M187" s="1">
+        <v>1</v>
+      </c>
+      <c r="N187" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>121</v>
       </c>
@@ -9063,7 +10191,7 @@
       </c>
       <c r="G188">
         <f t="shared" si="12"/>
-        <v>0.13600000000000001</v>
+        <v>0.13730476190476193</v>
       </c>
       <c r="H188">
         <f t="shared" si="13"/>
@@ -9071,7 +10199,7 @@
       </c>
       <c r="I188">
         <f t="shared" si="14"/>
-        <v>2.1</v>
+        <v>0.63352380952381049</v>
       </c>
       <c r="J188">
         <f t="shared" si="15"/>
@@ -9079,14 +10207,20 @@
       </c>
       <c r="K188">
         <f t="shared" si="16"/>
-        <v>8.1999999999999993</v>
+        <v>3.2857142857142847</v>
       </c>
       <c r="L188">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M188" s="1">
+        <v>1</v>
+      </c>
+      <c r="N188" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>38965</v>
       </c>
@@ -9107,7 +10241,7 @@
       </c>
       <c r="G189">
         <f t="shared" si="12"/>
-        <v>0.17</v>
+        <v>0.17130476190476193</v>
       </c>
       <c r="H189">
         <f t="shared" si="13"/>
@@ -9115,7 +10249,7 @@
       </c>
       <c r="I189">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>0.5335238095238104</v>
       </c>
       <c r="J189">
         <f t="shared" si="15"/>
@@ -9123,14 +10257,20 @@
       </c>
       <c r="K189">
         <f t="shared" si="16"/>
-        <v>7</v>
+        <v>2.0857142857142854</v>
       </c>
       <c r="L189">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M189" s="1">
+        <v>1</v>
+      </c>
+      <c r="N189" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>122</v>
       </c>
@@ -9151,7 +10291,7 @@
       </c>
       <c r="G190">
         <f t="shared" si="12"/>
-        <v>0.26400000000000001</v>
+        <v>0.26530476190476193</v>
       </c>
       <c r="H190">
         <f t="shared" si="13"/>
@@ -9159,7 +10299,7 @@
       </c>
       <c r="I190">
         <f t="shared" si="14"/>
-        <v>1.9</v>
+        <v>0.43352380952381031</v>
       </c>
       <c r="J190">
         <f t="shared" si="15"/>
@@ -9167,14 +10307,20 @@
       </c>
       <c r="K190">
         <f t="shared" si="16"/>
-        <v>5.9</v>
+        <v>0.98571428571428577</v>
       </c>
       <c r="L190">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M190" s="1">
+        <v>1</v>
+      </c>
+      <c r="N190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>38906</v>
       </c>
@@ -9199,11 +10345,11 @@
       </c>
       <c r="H191">
         <f t="shared" si="13"/>
-        <v>-0.15</v>
+        <v>-0.14869523809523807</v>
       </c>
       <c r="I191">
         <f t="shared" si="14"/>
-        <v>1.8</v>
+        <v>0.33352380952381044</v>
       </c>
       <c r="J191">
         <f t="shared" si="15"/>
@@ -9211,14 +10357,20 @@
       </c>
       <c r="K191">
         <f t="shared" si="16"/>
-        <v>5.3</v>
+        <v>0.38571428571428523</v>
       </c>
       <c r="L191">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M191" s="1">
+        <v>1</v>
+      </c>
+      <c r="N191" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>123</v>
       </c>
@@ -9243,11 +10395,11 @@
       </c>
       <c r="H192">
         <f t="shared" si="13"/>
-        <v>-0.22800000000000001</v>
+        <v>-0.22669523809523809</v>
       </c>
       <c r="I192">
         <f t="shared" si="14"/>
-        <v>1.7</v>
+        <v>0.23352380952381036</v>
       </c>
       <c r="J192">
         <f t="shared" si="15"/>
@@ -9259,10 +10411,16 @@
       </c>
       <c r="L192">
         <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.91428571428571459</v>
+      </c>
+      <c r="M192" s="1">
+        <v>1</v>
+      </c>
+      <c r="N192" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>124</v>
       </c>
@@ -9287,11 +10445,11 @@
       </c>
       <c r="H193">
         <f t="shared" si="13"/>
-        <v>-0.17</v>
+        <v>-0.16869523809523809</v>
       </c>
       <c r="I193">
         <f t="shared" si="14"/>
-        <v>1.6</v>
+        <v>0.13352380952381049</v>
       </c>
       <c r="J193">
         <f t="shared" si="15"/>
@@ -9303,10 +10461,16 @@
       </c>
       <c r="L193">
         <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.91428571428571459</v>
+      </c>
+      <c r="M193" s="1">
+        <v>1</v>
+      </c>
+      <c r="N193" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>39033</v>
       </c>
@@ -9331,11 +10495,11 @@
       </c>
       <c r="H194">
         <f t="shared" si="13"/>
-        <v>-0.32600000000000001</v>
+        <v>-0.32469523809523809</v>
       </c>
       <c r="I194">
         <f t="shared" si="14"/>
-        <v>1.5</v>
+        <v>3.3523809523810399E-2</v>
       </c>
       <c r="J194">
         <f t="shared" si="15"/>
@@ -9347,10 +10511,16 @@
       </c>
       <c r="L194">
         <f t="shared" si="17"/>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-2.0142857142857147</v>
+      </c>
+      <c r="M194" s="1">
+        <v>1</v>
+      </c>
+      <c r="N194" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>125</v>
       </c>
@@ -9370,31 +10540,37 @@
         <v>5.7</v>
       </c>
       <c r="G195">
-        <f t="shared" ref="G195:G211" si="18">IF($D195&gt;AVERAGE($D$2:$D$211),$D195,0)</f>
+        <f t="shared" ref="G195:G211" si="18">IF($D195&gt;AVERAGE($D$2:$D$211),$D195-AVERAGE($D$2:$D$211),0)</f>
         <v>0</v>
       </c>
       <c r="H195">
-        <f t="shared" ref="H195:H211" si="19">IF($D195&lt;AVERAGE($D$2:$D$211),$D195,0)</f>
-        <v>-0.156</v>
+        <f t="shared" ref="H195:H211" si="19">IF($D195&lt;AVERAGE($D$2:$D$211),$D195-AVERAGE($D$2:$D$211),0)</f>
+        <v>-0.15469523809523808</v>
       </c>
       <c r="I195">
-        <f t="shared" ref="I195:I211" si="20">IF($E195&gt;AVERAGE($E$2:$E$211),$E195,0)</f>
-        <v>1.5</v>
+        <f t="shared" ref="I195:I211" si="20">IF($E195&gt;AVERAGE($E$2:$E$211),$E195-AVERAGE($E$2:$E$211),0)</f>
+        <v>3.3523809523810399E-2</v>
       </c>
       <c r="J195">
-        <f t="shared" ref="J195:J211" si="21">IF($E195&lt;AVERAGE($E$2:$E$211),$E195,0)</f>
+        <f t="shared" ref="J195:J211" si="21">IF($E195&lt;AVERAGE($E$2:$E$211),$E195-AVERAGE($E$2:$E$211),0)</f>
         <v>0</v>
       </c>
       <c r="K195">
-        <f t="shared" ref="K195:K211" si="22">IF($F195&gt;AVERAGE($F$2:$F$211),$F195,0)</f>
-        <v>5.7</v>
+        <f t="shared" ref="K195:K211" si="22">IF($F195&gt;AVERAGE($F$2:$F$211),$F195-AVERAGE($F$2:$F$211),0)</f>
+        <v>0.78571428571428559</v>
       </c>
       <c r="L195">
-        <f t="shared" ref="L195:L211" si="23">IF($F195&lt;AVERAGE($F$2:$F$211),$F195,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L195:L211" si="23">IF($F195&lt;AVERAGE($F$2:$F$211),$F195-AVERAGE($F$2:$F$211),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M195" s="1">
+        <v>1</v>
+      </c>
+      <c r="N195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>126</v>
       </c>
@@ -9419,7 +10595,7 @@
       </c>
       <c r="H196">
         <f t="shared" si="19"/>
-        <v>-0.32800000000000001</v>
+        <v>-0.32669523809523809</v>
       </c>
       <c r="I196">
         <f t="shared" si="20"/>
@@ -9427,18 +10603,24 @@
       </c>
       <c r="J196">
         <f t="shared" si="21"/>
-        <v>1.4</v>
+        <v>-6.6476190476189689E-2</v>
       </c>
       <c r="K196">
         <f t="shared" si="22"/>
-        <v>5.5</v>
+        <v>0.58571428571428541</v>
       </c>
       <c r="L196">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M196" s="1">
+        <v>1</v>
+      </c>
+      <c r="N196" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>39299</v>
       </c>
@@ -9463,7 +10645,7 @@
       </c>
       <c r="H197">
         <f t="shared" si="19"/>
-        <v>-0.314</v>
+        <v>-0.31269523809523808</v>
       </c>
       <c r="I197">
         <f t="shared" si="20"/>
@@ -9471,18 +10653,24 @@
       </c>
       <c r="J197">
         <f t="shared" si="21"/>
-        <v>1.4</v>
+        <v>-6.6476190476189689E-2</v>
       </c>
       <c r="K197">
         <f t="shared" si="22"/>
-        <v>5.5</v>
+        <v>0.58571428571428541</v>
       </c>
       <c r="L197">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M197" s="1">
+        <v>1</v>
+      </c>
+      <c r="N197" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>127</v>
       </c>
@@ -9507,11 +10695,11 @@
       </c>
       <c r="H198">
         <f t="shared" si="19"/>
-        <v>-0.308</v>
+        <v>-0.30669523809523808</v>
       </c>
       <c r="I198">
         <f t="shared" si="20"/>
-        <v>1.5</v>
+        <v>3.3523809523810399E-2</v>
       </c>
       <c r="J198">
         <f t="shared" si="21"/>
@@ -9519,14 +10707,20 @@
       </c>
       <c r="K198">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>1.0857142857142854</v>
       </c>
       <c r="L198">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M198" s="1">
+        <v>1</v>
+      </c>
+      <c r="N198" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>39241</v>
       </c>
@@ -9551,7 +10745,7 @@
       </c>
       <c r="H199">
         <f t="shared" si="19"/>
-        <v>-0.46</v>
+        <v>-0.4586952380952381</v>
       </c>
       <c r="I199">
         <f t="shared" si="20"/>
@@ -9559,7 +10753,7 @@
       </c>
       <c r="J199">
         <f t="shared" si="21"/>
-        <v>1.3</v>
+        <v>-0.16647619047618956</v>
       </c>
       <c r="K199">
         <f t="shared" si="22"/>
@@ -9567,10 +10761,16 @@
       </c>
       <c r="L199">
         <f t="shared" si="23"/>
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.3142857142857145</v>
+      </c>
+      <c r="M199" s="1">
+        <v>1</v>
+      </c>
+      <c r="N199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>39333</v>
       </c>
@@ -9595,7 +10795,7 @@
       </c>
       <c r="H200">
         <f t="shared" si="19"/>
-        <v>-0.49</v>
+        <v>-0.48869523809523807</v>
       </c>
       <c r="I200">
         <f t="shared" si="20"/>
@@ -9603,7 +10803,7 @@
       </c>
       <c r="J200">
         <f t="shared" si="21"/>
-        <v>1.3</v>
+        <v>-0.16647619047618956</v>
       </c>
       <c r="K200">
         <f t="shared" si="22"/>
@@ -9611,10 +10811,16 @@
       </c>
       <c r="L200">
         <f t="shared" si="23"/>
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.3142857142857145</v>
+      </c>
+      <c r="M200" s="1">
+        <v>1</v>
+      </c>
+      <c r="N200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>128</v>
       </c>
@@ -9639,7 +10845,7 @@
       </c>
       <c r="H201">
         <f t="shared" si="19"/>
-        <v>-0.20200000000000001</v>
+        <v>-0.20069523809523809</v>
       </c>
       <c r="I201">
         <f t="shared" si="20"/>
@@ -9647,7 +10853,7 @@
       </c>
       <c r="J201">
         <f t="shared" si="21"/>
-        <v>1.3</v>
+        <v>-0.16647619047618956</v>
       </c>
       <c r="K201">
         <f t="shared" si="22"/>
@@ -9655,10 +10861,16 @@
       </c>
       <c r="L201">
         <f t="shared" si="23"/>
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.3142857142857145</v>
+      </c>
+      <c r="M201" s="1">
+        <v>1</v>
+      </c>
+      <c r="N201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>129</v>
       </c>
@@ -9683,7 +10895,7 @@
       </c>
       <c r="H202">
         <f t="shared" si="19"/>
-        <v>-1.008</v>
+        <v>-1.0066952380952381</v>
       </c>
       <c r="I202">
         <f t="shared" si="20"/>
@@ -9691,7 +10903,7 @@
       </c>
       <c r="J202">
         <f t="shared" si="21"/>
-        <v>1.3</v>
+        <v>-0.16647619047618956</v>
       </c>
       <c r="K202">
         <f t="shared" si="22"/>
@@ -9699,10 +10911,16 @@
       </c>
       <c r="L202">
         <f t="shared" si="23"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.4142857142857146</v>
+      </c>
+      <c r="M202" s="1">
+        <v>0</v>
+      </c>
+      <c r="N202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>130</v>
       </c>
@@ -9727,7 +10945,7 @@
       </c>
       <c r="H203">
         <f t="shared" si="19"/>
-        <v>-0.84799999999999998</v>
+        <v>-0.84669523809523806</v>
       </c>
       <c r="I203">
         <f t="shared" si="20"/>
@@ -9735,7 +10953,7 @@
       </c>
       <c r="J203">
         <f t="shared" si="21"/>
-        <v>1.2</v>
+        <v>-0.26647619047618964</v>
       </c>
       <c r="K203">
         <f t="shared" si="22"/>
@@ -9743,10 +10961,16 @@
       </c>
       <c r="L203">
         <f t="shared" si="23"/>
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-2.6142857142857148</v>
+      </c>
+      <c r="M203" s="1">
+        <v>0</v>
+      </c>
+      <c r="N203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>39367</v>
       </c>
@@ -9771,7 +10995,7 @@
       </c>
       <c r="H204">
         <f t="shared" si="19"/>
-        <v>-1.246</v>
+        <v>-1.2446952380952381</v>
       </c>
       <c r="I204">
         <f t="shared" si="20"/>
@@ -9779,7 +11003,7 @@
       </c>
       <c r="J204">
         <f t="shared" si="21"/>
-        <v>1.2</v>
+        <v>-0.26647619047618964</v>
       </c>
       <c r="K204">
         <f t="shared" si="22"/>
@@ -9787,10 +11011,16 @@
       </c>
       <c r="L204">
         <f t="shared" si="23"/>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-3.0142857142857147</v>
+      </c>
+      <c r="M204" s="1">
+        <v>0</v>
+      </c>
+      <c r="N204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>131</v>
       </c>
@@ -9815,7 +11045,7 @@
       </c>
       <c r="H205">
         <f t="shared" si="19"/>
-        <v>-1.3939999999999999</v>
+        <v>-1.392695238095238</v>
       </c>
       <c r="I205">
         <f t="shared" si="20"/>
@@ -9823,7 +11053,7 @@
       </c>
       <c r="J205">
         <f t="shared" si="21"/>
-        <v>1.2</v>
+        <v>-0.26647619047618964</v>
       </c>
       <c r="K205">
         <f t="shared" si="22"/>
@@ -9831,10 +11061,16 @@
       </c>
       <c r="L205">
         <f t="shared" si="23"/>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-3.0142857142857147</v>
+      </c>
+      <c r="M205" s="1">
+        <v>0</v>
+      </c>
+      <c r="N205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>132</v>
       </c>
@@ -9859,7 +11095,7 @@
       </c>
       <c r="H206">
         <f t="shared" si="19"/>
-        <v>-1.1819999999999999</v>
+        <v>-1.180695238095238</v>
       </c>
       <c r="I206">
         <f t="shared" si="20"/>
@@ -9867,7 +11103,7 @@
       </c>
       <c r="J206">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>-0.4664761904761896</v>
       </c>
       <c r="K206">
         <f t="shared" si="22"/>
@@ -9875,10 +11111,16 @@
       </c>
       <c r="L206">
         <f t="shared" si="23"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.6142857142857148</v>
+      </c>
+      <c r="M206" s="1">
+        <v>0</v>
+      </c>
+      <c r="N206" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>133</v>
       </c>
@@ -9903,7 +11145,7 @@
       </c>
       <c r="H207">
         <f t="shared" si="19"/>
-        <v>-1.42</v>
+        <v>-1.418695238095238</v>
       </c>
       <c r="I207">
         <f t="shared" si="20"/>
@@ -9911,7 +11153,7 @@
       </c>
       <c r="J207">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>-0.4664761904761896</v>
       </c>
       <c r="K207">
         <f t="shared" si="22"/>
@@ -9919,10 +11161,16 @@
       </c>
       <c r="L207">
         <f t="shared" si="23"/>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-2.2142857142857144</v>
+      </c>
+      <c r="M207" s="1">
+        <v>0</v>
+      </c>
+      <c r="N207" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>134</v>
       </c>
@@ -9947,7 +11195,7 @@
       </c>
       <c r="H208">
         <f t="shared" si="19"/>
-        <v>-0.32400000000000001</v>
+        <v>-0.32269523809523809</v>
       </c>
       <c r="I208">
         <f t="shared" si="20"/>
@@ -9955,7 +11203,7 @@
       </c>
       <c r="J208">
         <f t="shared" si="21"/>
-        <v>0.9</v>
+        <v>-0.56647619047618958</v>
       </c>
       <c r="K208">
         <f t="shared" si="22"/>
@@ -9963,10 +11211,16 @@
       </c>
       <c r="L208">
         <f t="shared" si="23"/>
-        <v>-0.6</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-5.5142857142857142</v>
+      </c>
+      <c r="M208" s="1">
+        <v>0</v>
+      </c>
+      <c r="N208" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>135</v>
       </c>
@@ -9987,7 +11241,7 @@
       </c>
       <c r="G209">
         <f t="shared" si="18"/>
-        <v>0.60399999999999998</v>
+        <v>0.6053047619047619</v>
       </c>
       <c r="H209">
         <f t="shared" si="19"/>
@@ -9999,7 +11253,7 @@
       </c>
       <c r="J209">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>-0.4664761904761896</v>
       </c>
       <c r="K209">
         <f t="shared" si="22"/>
@@ -10007,10 +11261,16 @@
       </c>
       <c r="L209">
         <f t="shared" si="23"/>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-3.0142857142857147</v>
+      </c>
+      <c r="M209" s="1">
+        <v>0</v>
+      </c>
+      <c r="N209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>39546</v>
       </c>
@@ -10031,7 +11291,7 @@
       </c>
       <c r="G210">
         <f t="shared" si="18"/>
-        <v>0.26</v>
+        <v>0.26130476190476193</v>
       </c>
       <c r="H210">
         <f t="shared" si="19"/>
@@ -10043,7 +11303,7 @@
       </c>
       <c r="J210">
         <f t="shared" si="21"/>
-        <v>0.9</v>
+        <v>-0.56647619047618958</v>
       </c>
       <c r="K210">
         <f t="shared" si="22"/>
@@ -10051,10 +11311,16 @@
       </c>
       <c r="L210">
         <f t="shared" si="23"/>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-0.61428571428571477</v>
+      </c>
+      <c r="M210" s="1">
+        <v>0</v>
+      </c>
+      <c r="N210" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>136</v>
       </c>
@@ -10079,7 +11345,7 @@
       </c>
       <c r="H211">
         <f t="shared" si="19"/>
-        <v>-0.20200000000000001</v>
+        <v>-0.20069523809523809</v>
       </c>
       <c r="I211">
         <f t="shared" si="20"/>
@@ -10087,14 +11353,20 @@
       </c>
       <c r="J211">
         <f t="shared" si="21"/>
-        <v>0.9</v>
+        <v>-0.56647619047618958</v>
       </c>
       <c r="K211">
         <f t="shared" si="22"/>
-        <v>5.5</v>
+        <v>0.58571428571428541</v>
       </c>
       <c r="L211">
         <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M211" s="1">
+        <v>0</v>
+      </c>
+      <c r="N211" s="1">
         <v>0</v>
       </c>
     </row>

--- a/sandbox/Data_for_application.xlsx
+++ b/sandbox/Data_for_application.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>9/21/1987</t>
   </si>
@@ -467,6 +467,9 @@
   </si>
   <si>
     <t>pb_d</t>
+  </si>
+  <si>
+    <t>or_change</t>
   </si>
 </sst>
 </file>
@@ -812,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N211"/>
+  <dimension ref="A1:O211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:N211"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,7 +829,7 @@
     <col min="11" max="12" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>138</v>
       </c>
@@ -869,8 +872,11 @@
       <c r="N1" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -919,8 +925,12 @@
       <c r="N2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2">
+        <f>(B2-3)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>31819</v>
       </c>
@@ -969,8 +979,12 @@
       <c r="N3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="6">(B3-3)/4</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1019,8 +1033,12 @@
       <c r="N4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>32234</v>
       </c>
@@ -1069,8 +1087,12 @@
       <c r="N5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1119,8 +1141,12 @@
       <c r="N6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>32388</v>
       </c>
@@ -1169,8 +1195,12 @@
       <c r="N7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1219,8 +1249,12 @@
       <c r="N8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>32299</v>
       </c>
@@ -1269,8 +1303,12 @@
       <c r="N9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1319,8 +1357,12 @@
       <c r="N10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1369,8 +1411,12 @@
       <c r="N11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1419,8 +1465,12 @@
       <c r="N12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1469,8 +1519,12 @@
       <c r="N13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1519,8 +1573,12 @@
       <c r="N14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>32271</v>
       </c>
@@ -1569,8 +1627,12 @@
       <c r="N15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1619,8 +1681,12 @@
       <c r="N16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1669,8 +1735,12 @@
       <c r="N17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1719,8 +1789,12 @@
       <c r="N18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1769,8 +1843,12 @@
       <c r="N19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1819,8 +1897,12 @@
       <c r="N20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>32599</v>
       </c>
@@ -1869,8 +1951,12 @@
       <c r="N21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>32691</v>
       </c>
@@ -1919,8 +2005,12 @@
       <c r="N22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O22">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1969,8 +2059,12 @@
       <c r="N23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O23">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -2019,8 +2113,12 @@
       <c r="N24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -2069,8 +2167,12 @@
       <c r="N25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -2119,8 +2221,12 @@
       <c r="N26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>32545</v>
       </c>
@@ -2169,8 +2275,12 @@
       <c r="N27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O27">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>32635</v>
       </c>
@@ -2219,8 +2329,12 @@
       <c r="N28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O28">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -2269,8 +2383,12 @@
       <c r="N29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O29">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2319,8 +2437,12 @@
       <c r="N30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>32549</v>
       </c>
@@ -2369,8 +2491,12 @@
       <c r="N31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -2419,8 +2545,12 @@
       <c r="N32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O32">
+        <f t="shared" si="6"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32578</v>
       </c>
@@ -2469,8 +2599,12 @@
       <c r="N33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O33">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2519,8 +2653,12 @@
       <c r="N34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2569,8 +2707,12 @@
       <c r="N35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O35">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>33026</v>
       </c>
@@ -2619,8 +2761,12 @@
       <c r="N36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -2669,8 +2815,12 @@
       <c r="N37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -2719,8 +2869,12 @@
       <c r="N38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>32911</v>
       </c>
@@ -2769,8 +2923,12 @@
       <c r="N39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>33214</v>
       </c>
@@ -2819,8 +2977,12 @@
       <c r="N40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O40">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -2869,8 +3031,12 @@
       <c r="N41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>33033</v>
       </c>
@@ -2919,8 +3085,12 @@
       <c r="N42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -2969,8 +3139,12 @@
       <c r="N43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>32883</v>
       </c>
@@ -3019,8 +3193,12 @@
       <c r="N44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -3069,8 +3247,12 @@
       <c r="N45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O45">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>33127</v>
       </c>
@@ -3119,8 +3301,12 @@
       <c r="N46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O46">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>33036</v>
       </c>
@@ -3169,8 +3355,12 @@
       <c r="N47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O47">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -3219,8 +3409,12 @@
       <c r="N48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O48">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>33420</v>
       </c>
@@ -3269,8 +3463,12 @@
       <c r="N49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O49">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -3319,8 +3517,12 @@
       <c r="N50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O50">
+        <f t="shared" si="6"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>33360</v>
       </c>
@@ -3369,8 +3571,12 @@
       <c r="N51" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>33422</v>
       </c>
@@ -3419,8 +3625,12 @@
       <c r="N52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O52">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -3469,8 +3679,12 @@
       <c r="N53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>33546</v>
       </c>
@@ -3519,8 +3733,12 @@
       <c r="N54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -3569,8 +3787,12 @@
       <c r="N55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O55">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -3619,8 +3841,12 @@
       <c r="N56" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O56">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>33276</v>
       </c>
@@ -3669,8 +3895,12 @@
       <c r="N57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>33277</v>
       </c>
@@ -3719,8 +3949,12 @@
       <c r="N58" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O58">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -3769,8 +4003,12 @@
       <c r="N59" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>33581</v>
       </c>
@@ -3819,8 +4057,12 @@
       <c r="N60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O60">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -3869,8 +4111,12 @@
       <c r="N61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -3919,8 +4165,12 @@
       <c r="N62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O62">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>33339</v>
       </c>
@@ -3969,8 +4219,12 @@
       <c r="N63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O63">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>33370</v>
       </c>
@@ -4019,8 +4273,12 @@
       <c r="N64" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O64">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -4069,8 +4327,12 @@
       <c r="N65" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O65">
+        <f t="shared" si="6"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>33696</v>
       </c>
@@ -4119,8 +4381,12 @@
       <c r="N66" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -4140,27 +4406,27 @@
         <v>4.7</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G130" si="6">IF($D67&gt;AVERAGE($D$2:$D$211),$D67-AVERAGE($D$2:$D$211),0)</f>
+        <f t="shared" ref="G67:G130" si="7">IF($D67&gt;AVERAGE($D$2:$D$211),$D67-AVERAGE($D$2:$D$211),0)</f>
         <v>0.67530476190476196</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H130" si="7">IF($D67&lt;AVERAGE($D$2:$D$211),$D67-AVERAGE($D$2:$D$211),0)</f>
+        <f t="shared" ref="H67:H130" si="8">IF($D67&lt;AVERAGE($D$2:$D$211),$D67-AVERAGE($D$2:$D$211),0)</f>
         <v>0</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I130" si="8">IF($E67&gt;AVERAGE($E$2:$E$211),$E67-AVERAGE($E$2:$E$211),0)</f>
+        <f t="shared" ref="I67:I130" si="9">IF($E67&gt;AVERAGE($E$2:$E$211),$E67-AVERAGE($E$2:$E$211),0)</f>
         <v>0</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="9">IF($E67&lt;AVERAGE($E$2:$E$211),$E67-AVERAGE($E$2:$E$211),0)</f>
+        <f t="shared" ref="J67:J130" si="10">IF($E67&lt;AVERAGE($E$2:$E$211),$E67-AVERAGE($E$2:$E$211),0)</f>
         <v>-0.2164761904761896</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K130" si="10">IF($F67&gt;AVERAGE($F$2:$F$211),$F67-AVERAGE($F$2:$F$211),0)</f>
+        <f t="shared" ref="K67:K130" si="11">IF($F67&gt;AVERAGE($F$2:$F$211),$F67-AVERAGE($F$2:$F$211),0)</f>
         <v>0</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L130" si="11">IF($F67&lt;AVERAGE($F$2:$F$211),$F67-AVERAGE($F$2:$F$211),0)</f>
+        <f t="shared" ref="L67:L130" si="12">IF($F67&lt;AVERAGE($F$2:$F$211),$F67-AVERAGE($F$2:$F$211),0)</f>
         <v>-0.21428571428571441</v>
       </c>
       <c r="M67" s="1">
@@ -4169,8 +4435,12 @@
       <c r="N67" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O67">
+        <f t="shared" ref="O67:O130" si="13">(B67-3)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>33820</v>
       </c>
@@ -4190,27 +4460,27 @@
         <v>5.6</v>
       </c>
       <c r="G68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.4193047619047619</v>
       </c>
       <c r="H68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.19647619047618958</v>
       </c>
       <c r="K68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.68571428571428505</v>
       </c>
       <c r="L68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M68" s="1">
@@ -4219,8 +4489,12 @@
       <c r="N68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O68">
+        <f t="shared" si="13"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -4240,27 +4514,27 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="G69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.12130476190476192</v>
       </c>
       <c r="H69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.25647619047618964</v>
       </c>
       <c r="K69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.4285714285714235E-2</v>
       </c>
       <c r="M69" s="1">
@@ -4269,8 +4543,12 @@
       <c r="N69" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O69">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>39</v>
       </c>
@@ -4290,27 +4568,27 @@
         <v>4.8</v>
       </c>
       <c r="G70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.14530476190476191</v>
       </c>
       <c r="H70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.29647619047618967</v>
       </c>
       <c r="K70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.11428571428571477</v>
       </c>
       <c r="M70" s="1">
@@ -4319,8 +4597,12 @@
       <c r="N70" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O70">
+        <f t="shared" si="13"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>40</v>
       </c>
@@ -4340,27 +4622,27 @@
         <v>3.4</v>
       </c>
       <c r="G71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.12330476190476192</v>
       </c>
       <c r="H71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.23647619047618962</v>
       </c>
       <c r="K71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.5142857142857147</v>
       </c>
       <c r="M71" s="1">
@@ -4369,8 +4651,12 @@
       <c r="N71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O71">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>33672</v>
       </c>
@@ -4390,27 +4676,27 @@
         <v>3.4</v>
       </c>
       <c r="G72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.10730476190476192</v>
       </c>
       <c r="H72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.23647619047618962</v>
       </c>
       <c r="K72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.5142857142857147</v>
       </c>
       <c r="M72" s="1">
@@ -4419,8 +4705,12 @@
       <c r="N72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O72">
+        <f t="shared" si="13"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>33734</v>
       </c>
@@ -4440,27 +4730,27 @@
         <v>3.4</v>
       </c>
       <c r="G73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.52669523809523811</v>
       </c>
       <c r="I73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.22647619047618961</v>
       </c>
       <c r="K73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.5142857142857147</v>
       </c>
       <c r="M73" s="1">
@@ -4469,8 +4759,12 @@
       <c r="N73" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O73">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>41</v>
       </c>
@@ -4490,27 +4784,27 @@
         <v>4.5</v>
       </c>
       <c r="G74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.64930476190476194</v>
       </c>
       <c r="H74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.23647619047618962</v>
       </c>
       <c r="K74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.41428571428571459</v>
       </c>
       <c r="M74" s="1">
@@ -4519,8 +4813,12 @@
       <c r="N74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O74">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>42</v>
       </c>
@@ -4540,27 +4838,27 @@
         <v>6.2</v>
       </c>
       <c r="G75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.7333047619047619</v>
       </c>
       <c r="H75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.22647619047618961</v>
       </c>
       <c r="K75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2857142857142856</v>
       </c>
       <c r="L75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M75" s="1">
@@ -4569,8 +4867,12 @@
       <c r="N75" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O75">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>34002</v>
       </c>
@@ -4590,27 +4892,27 @@
         <v>6.2</v>
       </c>
       <c r="G76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.33130476190476194</v>
       </c>
       <c r="H76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.16647619047618956</v>
       </c>
       <c r="K76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2857142857142856</v>
       </c>
       <c r="L76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M76" s="1">
@@ -4619,8 +4921,12 @@
       <c r="N76" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O76">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -4640,27 +4946,27 @@
         <v>6.7</v>
       </c>
       <c r="G77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.2913047619047619</v>
       </c>
       <c r="H77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.24647619047618963</v>
       </c>
       <c r="K77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7857142857142856</v>
       </c>
       <c r="L77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M77" s="1">
@@ -4669,8 +4975,12 @@
       <c r="N77" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O77">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>44</v>
       </c>
@@ -4690,27 +5000,27 @@
         <v>4.2</v>
       </c>
       <c r="G78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27130476190476194</v>
       </c>
       <c r="H78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.20647619047618959</v>
       </c>
       <c r="K78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.71428571428571441</v>
       </c>
       <c r="M78" s="1">
@@ -4719,8 +5029,12 @@
       <c r="N78" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O78">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>34127</v>
       </c>
@@ -4740,27 +5054,27 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="G79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.14730476190476191</v>
       </c>
       <c r="H79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.18647619047618957</v>
       </c>
       <c r="K79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.51428571428571423</v>
       </c>
       <c r="M79" s="1">
@@ -4769,8 +5083,12 @@
       <c r="N79" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O79">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>45</v>
       </c>
@@ -4790,27 +5108,27 @@
         <v>4.8</v>
       </c>
       <c r="G80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.42930476190476191</v>
       </c>
       <c r="H80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.18647619047618957</v>
       </c>
       <c r="K80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.11428571428571477</v>
       </c>
       <c r="M80" s="1">
@@ -4819,8 +5137,12 @@
       <c r="N80" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O80">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>46</v>
       </c>
@@ -4840,27 +5162,27 @@
         <v>3.5</v>
       </c>
       <c r="G81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.22930476190476193</v>
       </c>
       <c r="H81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.18647619047618957</v>
       </c>
       <c r="K81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.4142857142857146</v>
       </c>
       <c r="M81" s="1">
@@ -4869,8 +5191,12 @@
       <c r="N81" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O81">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>47</v>
       </c>
@@ -4890,27 +5216,27 @@
         <v>6.6</v>
       </c>
       <c r="G82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.54730476190476196</v>
       </c>
       <c r="H82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.1064761904761895</v>
       </c>
       <c r="K82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6857142857142851</v>
       </c>
       <c r="L82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M82" s="1">
@@ -4919,8 +5245,12 @@
       <c r="N82" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>48</v>
       </c>
@@ -4940,27 +5270,27 @@
         <v>7.4</v>
       </c>
       <c r="G83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.6053047619047619</v>
       </c>
       <c r="H83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-6.6476190476189689E-2</v>
       </c>
       <c r="K83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.4857142857142858</v>
       </c>
       <c r="L83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M83" s="1">
@@ -4969,8 +5299,12 @@
       <c r="N83" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O83">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>34395</v>
       </c>
@@ -4990,27 +5324,27 @@
         <v>7.2</v>
       </c>
       <c r="G84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.32530476190476193</v>
       </c>
       <c r="H84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2.6476190476189654E-2</v>
       </c>
       <c r="K84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.2857142857142856</v>
       </c>
       <c r="L84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M84" s="1">
@@ -5019,8 +5353,12 @@
       <c r="N84" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O84">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>49</v>
       </c>
@@ -5040,27 +5378,27 @@
         <v>7.2</v>
       </c>
       <c r="G85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.73730476190476191</v>
       </c>
       <c r="H85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2.6476190476189654E-2</v>
       </c>
       <c r="K85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.2857142857142856</v>
       </c>
       <c r="L85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M85" s="1">
@@ -5069,8 +5407,12 @@
       <c r="N85" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O85">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>50</v>
       </c>
@@ -5090,27 +5432,27 @@
         <v>5.7</v>
       </c>
       <c r="G86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.105304761904762</v>
       </c>
       <c r="H86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-9.6476190476189494E-2</v>
       </c>
       <c r="K86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.78571428571428559</v>
       </c>
       <c r="L86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M86" s="1">
@@ -5119,8 +5461,12 @@
       <c r="N86" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O86">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>51</v>
       </c>
@@ -5140,27 +5486,27 @@
         <v>5</v>
       </c>
       <c r="G87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2833047619047619</v>
       </c>
       <c r="H87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.3523809523810417E-2</v>
       </c>
       <c r="J87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.571428571428541E-2</v>
       </c>
       <c r="L87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M87" s="1">
@@ -5169,8 +5515,12 @@
       <c r="N87" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O87">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>52</v>
       </c>
@@ -5190,27 +5540,27 @@
         <v>6.2</v>
       </c>
       <c r="G88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6793047619047619</v>
       </c>
       <c r="H88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-5.647619047618968E-2</v>
       </c>
       <c r="K88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2857142857142856</v>
       </c>
       <c r="L88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M88" s="1">
@@ -5219,8 +5569,12 @@
       <c r="N88" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O88">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>34461</v>
       </c>
@@ -5240,27 +5594,27 @@
         <v>5.2</v>
       </c>
       <c r="G89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.98730476190476191</v>
       </c>
       <c r="H89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-8.6476190476189707E-2</v>
       </c>
       <c r="K89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.28571428571428559</v>
       </c>
       <c r="L89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M89" s="1">
@@ -5269,8 +5623,12 @@
       <c r="N89" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O89">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>53</v>
       </c>
@@ -5290,27 +5648,27 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="G90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.341304761904762</v>
       </c>
       <c r="H90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.13647619047618953</v>
       </c>
       <c r="K90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.51428571428571423</v>
       </c>
       <c r="M90" s="1">
@@ -5319,8 +5677,12 @@
       <c r="N90" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O90">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>54</v>
       </c>
@@ -5340,27 +5702,27 @@
         <v>4.8</v>
       </c>
       <c r="G91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.113304761904762</v>
       </c>
       <c r="H91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-5.647619047618968E-2</v>
       </c>
       <c r="K91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.11428571428571477</v>
       </c>
       <c r="M91" s="1">
@@ -5369,8 +5731,12 @@
       <c r="N91" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O91">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>55</v>
       </c>
@@ -5390,27 +5756,27 @@
         <v>6.1</v>
       </c>
       <c r="G92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4453047619047619</v>
       </c>
       <c r="H92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-5.647619047618968E-2</v>
       </c>
       <c r="K92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1857142857142851</v>
       </c>
       <c r="L92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M92" s="1">
@@ -5419,8 +5785,12 @@
       <c r="N92" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O92">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>56</v>
       </c>
@@ -5440,27 +5810,27 @@
         <v>6.9</v>
       </c>
       <c r="G93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7593047619047619</v>
       </c>
       <c r="H93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-4.6476190476189672E-2</v>
       </c>
       <c r="K93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.9857142857142858</v>
       </c>
       <c r="L93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M93" s="1">
@@ -5469,8 +5839,12 @@
       <c r="N93" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O93">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>57</v>
       </c>
@@ -5490,27 +5864,27 @@
         <v>6.4</v>
       </c>
       <c r="G94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2093047619047619</v>
       </c>
       <c r="H94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.3523809523810391E-2</v>
       </c>
       <c r="J94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4857142857142858</v>
       </c>
       <c r="L94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M94" s="1">
@@ -5519,8 +5893,12 @@
       <c r="N94" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O94">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>58</v>
       </c>
@@ -5540,27 +5918,27 @@
         <v>5.8</v>
       </c>
       <c r="G95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.32730476190476193</v>
       </c>
       <c r="H95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.12647619047618952</v>
       </c>
       <c r="K95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.88571428571428523</v>
       </c>
       <c r="L95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M95" s="1">
@@ -5569,8 +5947,12 @@
       <c r="N95" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O95">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>59</v>
       </c>
@@ -5590,27 +5972,27 @@
         <v>3.5</v>
       </c>
       <c r="G96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3304761904761913E-2</v>
       </c>
       <c r="H96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.19647619047618958</v>
       </c>
       <c r="K96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.4142857142857146</v>
       </c>
       <c r="M96" s="1">
@@ -5619,8 +6001,12 @@
       <c r="N96" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O96">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>34826</v>
       </c>
@@ -5640,27 +6026,27 @@
         <v>3.9</v>
       </c>
       <c r="G97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.60869523809523807</v>
       </c>
       <c r="I97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.13647619047618953</v>
       </c>
       <c r="K97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.0142857142857147</v>
       </c>
       <c r="M97" s="1">
@@ -5669,8 +6055,12 @@
       <c r="N97" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O97">
+        <f t="shared" si="13"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>60</v>
       </c>
@@ -5690,27 +6080,27 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="G98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.1304761904761921E-2</v>
       </c>
       <c r="H98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-9.6476190476189494E-2</v>
       </c>
       <c r="K98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.31428571428571495</v>
       </c>
       <c r="M98" s="1">
@@ -5719,8 +6109,12 @@
       <c r="N98" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O98">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>61</v>
       </c>
@@ -5740,27 +6134,27 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="G99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.12069523809523808</v>
       </c>
       <c r="I99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-6.6476190476189689E-2</v>
       </c>
       <c r="K99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18571428571428505</v>
       </c>
       <c r="L99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M99" s="1">
@@ -5769,8 +6163,12 @@
       <c r="N99" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O99">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>62</v>
       </c>
@@ -5790,27 +6188,27 @@
         <v>4.8</v>
       </c>
       <c r="G100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.32269523809523809</v>
       </c>
       <c r="I100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.6476190476189645E-2</v>
       </c>
       <c r="K100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.11428571428571477</v>
       </c>
       <c r="M100" s="1">
@@ -5819,8 +6217,12 @@
       <c r="N100" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O100">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>63</v>
       </c>
@@ -5840,27 +6242,27 @@
         <v>3.9</v>
       </c>
       <c r="G101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.3926952380952381</v>
       </c>
       <c r="I101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-8.6476190476189707E-2</v>
       </c>
       <c r="K101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.0142857142857147</v>
       </c>
       <c r="M101" s="1">
@@ -5869,8 +6271,12 @@
       <c r="N101" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O101">
+        <f t="shared" si="13"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>64</v>
       </c>
@@ -5890,27 +6296,27 @@
         <v>4.3</v>
       </c>
       <c r="G102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.46469523809523811</v>
       </c>
       <c r="I102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-7.6476190476189698E-2</v>
       </c>
       <c r="K102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.61428571428571477</v>
       </c>
       <c r="M102" s="1">
@@ -5919,8 +6325,12 @@
       <c r="N102" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O102">
+        <f t="shared" si="13"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>65</v>
       </c>
@@ -5940,27 +6350,27 @@
         <v>4.5</v>
       </c>
       <c r="G103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.19930476190476193</v>
       </c>
       <c r="H103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.5238095238103728E-3</v>
       </c>
       <c r="J103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.41428571428571459</v>
       </c>
       <c r="M103" s="1">
@@ -5969,8 +6379,12 @@
       <c r="N103" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O103">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>66</v>
       </c>
@@ -5990,27 +6404,27 @@
         <v>5.6</v>
       </c>
       <c r="G104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.31730476190476192</v>
       </c>
       <c r="H104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.3523809523810382E-2</v>
       </c>
       <c r="J104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.68571428571428505</v>
       </c>
       <c r="L104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M104" s="1">
@@ -6019,8 +6433,12 @@
       <c r="N104" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O104">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>35102</v>
       </c>
@@ -6040,27 +6458,27 @@
         <v>4.5</v>
       </c>
       <c r="G105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.1304761904761911E-2</v>
       </c>
       <c r="H105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I105">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-7.6476190476189698E-2</v>
       </c>
       <c r="K105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.41428571428571459</v>
       </c>
       <c r="M105" s="1">
@@ -6069,8 +6487,12 @@
       <c r="N105" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O105">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>67</v>
       </c>
@@ -6090,27 +6512,27 @@
         <v>4.5</v>
       </c>
       <c r="G106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.44930476190476193</v>
       </c>
       <c r="H106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-3.6476190476189663E-2</v>
       </c>
       <c r="K106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.41428571428571459</v>
       </c>
       <c r="M106" s="1">
@@ -6119,8 +6541,12 @@
       <c r="N106" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O106">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>68</v>
       </c>
@@ -6140,27 +6566,27 @@
         <v>4.2</v>
       </c>
       <c r="G107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.66730476190476196</v>
       </c>
       <c r="H107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-3.6476190476189663E-2</v>
       </c>
       <c r="K107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.71428571428571441</v>
       </c>
       <c r="M107" s="1">
@@ -6169,8 +6595,12 @@
       <c r="N107" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O107">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>35410</v>
       </c>
@@ -6190,27 +6620,27 @@
         <v>4</v>
       </c>
       <c r="G108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.12930476190476192</v>
       </c>
       <c r="H108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.6476190476189645E-2</v>
       </c>
       <c r="K108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.91428571428571459</v>
       </c>
       <c r="M108" s="1">
@@ -6219,8 +6649,12 @@
       <c r="N108" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O108">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>69</v>
       </c>
@@ -6240,27 +6674,27 @@
         <v>4.5</v>
       </c>
       <c r="G109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.18330476190476191</v>
       </c>
       <c r="H109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I109">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-5.647619047618968E-2</v>
       </c>
       <c r="K109">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.41428571428571459</v>
       </c>
       <c r="M109" s="1">
@@ -6269,8 +6703,12 @@
       <c r="N109" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O109">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>35522</v>
       </c>
@@ -6290,27 +6728,27 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="G110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.32930476190476193</v>
       </c>
       <c r="H110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-5.647619047618968E-2</v>
       </c>
       <c r="K110">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.31428571428571495</v>
       </c>
       <c r="M110" s="1">
@@ -6319,8 +6757,12 @@
       <c r="N110" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O110">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>70</v>
       </c>
@@ -6340,27 +6782,27 @@
         <v>6.4</v>
       </c>
       <c r="G111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.45930476190476194</v>
       </c>
       <c r="H111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I111">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J111">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.6476190476189645E-2</v>
       </c>
       <c r="K111">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4857142857142858</v>
       </c>
       <c r="L111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M111" s="1">
@@ -6369,8 +6811,12 @@
       <c r="N111" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O111">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>71</v>
       </c>
@@ -6390,27 +6836,27 @@
         <v>3.9</v>
       </c>
       <c r="G112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.3553047619047619</v>
       </c>
       <c r="H112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I112">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J112">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-3.6476190476189663E-2</v>
       </c>
       <c r="K112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.0142857142857147</v>
       </c>
       <c r="M112" s="1">
@@ -6419,8 +6865,12 @@
       <c r="N112" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O112">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>35437</v>
       </c>
@@ -6440,27 +6890,27 @@
         <v>4.8</v>
       </c>
       <c r="G113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.2706952380952381</v>
       </c>
       <c r="I113">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J113">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2.6476190476189654E-2</v>
       </c>
       <c r="K113">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.11428571428571477</v>
       </c>
       <c r="M113" s="1">
@@ -6469,8 +6919,12 @@
       <c r="N113" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O113">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>72</v>
       </c>
@@ -6490,27 +6944,27 @@
         <v>3.9</v>
       </c>
       <c r="G114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.3047619047619129E-3</v>
       </c>
       <c r="H114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2.6476190476189654E-2</v>
       </c>
       <c r="K114">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.0142857142857147</v>
       </c>
       <c r="M114" s="1">
@@ -6519,8 +6973,12 @@
       <c r="N114" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O114">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>73</v>
       </c>
@@ -6540,27 +6998,27 @@
         <v>4.5</v>
       </c>
       <c r="G115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-6.8695238095238087E-2</v>
       </c>
       <c r="I115">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J115">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-3.6476190476189663E-2</v>
       </c>
       <c r="K115">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.41428571428571459</v>
       </c>
       <c r="M115" s="1">
@@ -6569,8 +7027,12 @@
       <c r="N115" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O115">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>35714</v>
       </c>
@@ -6590,27 +7052,27 @@
         <v>5.4</v>
       </c>
       <c r="G116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.12469523809523808</v>
       </c>
       <c r="I116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J116">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-3.6476190476189663E-2</v>
       </c>
       <c r="K116">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.48571428571428577</v>
       </c>
       <c r="L116">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M116" s="1">
@@ -6619,8 +7081,12 @@
       <c r="N116" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O116">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>74</v>
       </c>
@@ -6640,27 +7106,27 @@
         <v>6.1</v>
       </c>
       <c r="G117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5.669523809523809E-2</v>
       </c>
       <c r="I117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.5238095238103728E-3</v>
       </c>
       <c r="J117">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K117">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1857142857142851</v>
       </c>
       <c r="L117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M117" s="1">
@@ -6669,8 +7135,12 @@
       <c r="N117" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O117">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>35856</v>
       </c>
@@ -6690,27 +7160,27 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="G118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.30869523809523808</v>
       </c>
       <c r="I118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.3523809523810382E-2</v>
       </c>
       <c r="J118">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L118">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.51428571428571423</v>
       </c>
       <c r="M118" s="1">
@@ -6719,8 +7189,12 @@
       <c r="N118" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O118">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>75</v>
       </c>
@@ -6740,27 +7214,27 @@
         <v>4.5</v>
       </c>
       <c r="G119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.14869523809523807</v>
       </c>
       <c r="I119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.3523809523810453E-2</v>
       </c>
       <c r="J119">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K119">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L119">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.41428571428571459</v>
       </c>
       <c r="M119" s="1">
@@ -6769,8 +7243,12 @@
       <c r="N119" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O119">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>76</v>
       </c>
@@ -6790,27 +7268,27 @@
         <v>4.2</v>
       </c>
       <c r="G120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.14869523809523807</v>
       </c>
       <c r="I120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13352380952381049</v>
       </c>
       <c r="J120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K120">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.71428571428571441</v>
       </c>
       <c r="M120" s="1">
@@ -6819,8 +7297,12 @@
       <c r="N120" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O120">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>77</v>
       </c>
@@ -6840,27 +7322,27 @@
         <v>3.7</v>
       </c>
       <c r="G121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.47869523809523806</v>
       </c>
       <c r="I121">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.3523809523810444E-2</v>
       </c>
       <c r="J121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K121">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L121">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.2142857142857144</v>
       </c>
       <c r="M121" s="1">
@@ -6869,8 +7351,12 @@
       <c r="N121" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O121">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>78</v>
       </c>
@@ -6890,27 +7376,27 @@
         <v>3.6</v>
       </c>
       <c r="G122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.36869523809523808</v>
       </c>
       <c r="I122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.11352380952381047</v>
       </c>
       <c r="J122">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K122">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L122">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.3142857142857145</v>
       </c>
       <c r="M122" s="1">
@@ -6919,8 +7405,12 @@
       <c r="N122" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O122">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>79</v>
       </c>
@@ -6940,27 +7430,27 @@
         <v>4.2</v>
       </c>
       <c r="G123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.8946952380952381</v>
       </c>
       <c r="I123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.16352380952381029</v>
       </c>
       <c r="J123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K123">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.71428571428571441</v>
       </c>
       <c r="M123" s="1">
@@ -6969,8 +7459,12 @@
       <c r="N123" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O123">
+        <f t="shared" si="13"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>80</v>
       </c>
@@ -6990,27 +7484,27 @@
         <v>3.6</v>
       </c>
       <c r="G124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.90469523809523811</v>
       </c>
       <c r="I124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.10352380952381046</v>
       </c>
       <c r="J124">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.3142857142857145</v>
       </c>
       <c r="M124" s="1">
@@ -7019,8 +7513,12 @@
       <c r="N124" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O124">
+        <f t="shared" si="13"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>81</v>
       </c>
@@ -7040,27 +7538,27 @@
         <v>3.2</v>
       </c>
       <c r="G125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.54069523809523812</v>
       </c>
       <c r="I125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.10352380952381046</v>
       </c>
       <c r="J125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K125">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.7142857142857144</v>
       </c>
       <c r="M125" s="1">
@@ -7069,8 +7567,12 @@
       <c r="N125" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O125">
+        <f t="shared" si="13"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>82</v>
       </c>
@@ -7090,27 +7592,27 @@
         <v>4.2</v>
       </c>
       <c r="G126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.36069523809523807</v>
       </c>
       <c r="I126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.22352380952381035</v>
       </c>
       <c r="J126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L126">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.71428571428571441</v>
       </c>
       <c r="M126" s="1">
@@ -7119,8 +7621,12 @@
       <c r="N126" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O126">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>36193</v>
       </c>
@@ -7140,27 +7646,27 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="G127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.18069523809523808</v>
       </c>
       <c r="I127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.21352380952381034</v>
       </c>
       <c r="J127">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K127">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L127">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.51428571428571423</v>
       </c>
       <c r="M127" s="1">
@@ -7169,8 +7675,12 @@
       <c r="N127" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O127">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>83</v>
       </c>
@@ -7190,27 +7700,27 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="G128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.11469523809523809</v>
       </c>
       <c r="I128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.2835238095238104</v>
       </c>
       <c r="J128">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K128">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18571428571428505</v>
       </c>
       <c r="L128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M128" s="1">
@@ -7219,8 +7729,12 @@
       <c r="N128" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O128">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>84</v>
       </c>
@@ -7240,27 +7754,27 @@
         <v>4.8</v>
       </c>
       <c r="G129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9304761904761911E-2</v>
       </c>
       <c r="H129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.19352380952381032</v>
       </c>
       <c r="J129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K129">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L129">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.11428571428571477</v>
       </c>
       <c r="M129" s="1">
@@ -7269,8 +7783,12 @@
       <c r="N129" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O129">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>85</v>
       </c>
@@ -7290,27 +7808,27 @@
         <v>4.7</v>
       </c>
       <c r="G130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.28530476190476189</v>
       </c>
       <c r="H130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I130">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1735238095238103</v>
       </c>
       <c r="J130">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K130">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.21428571428571441</v>
       </c>
       <c r="M130" s="1">
@@ -7319,8 +7837,12 @@
       <c r="N130" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O130">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>86</v>
       </c>
@@ -7340,27 +7862,27 @@
         <v>5</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G194" si="12">IF($D131&gt;AVERAGE($D$2:$D$211),$D131-AVERAGE($D$2:$D$211),0)</f>
+        <f t="shared" ref="G131:G194" si="14">IF($D131&gt;AVERAGE($D$2:$D$211),$D131-AVERAGE($D$2:$D$211),0)</f>
         <v>0.23330476190476193</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H194" si="13">IF($D131&lt;AVERAGE($D$2:$D$211),$D131-AVERAGE($D$2:$D$211),0)</f>
+        <f t="shared" ref="H131:H194" si="15">IF($D131&lt;AVERAGE($D$2:$D$211),$D131-AVERAGE($D$2:$D$211),0)</f>
         <v>0</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I194" si="14">IF($E131&gt;AVERAGE($E$2:$E$211),$E131-AVERAGE($E$2:$E$211),0)</f>
+        <f t="shared" ref="I131:I194" si="16">IF($E131&gt;AVERAGE($E$2:$E$211),$E131-AVERAGE($E$2:$E$211),0)</f>
         <v>0.1735238095238103</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J194" si="15">IF($E131&lt;AVERAGE($E$2:$E$211),$E131-AVERAGE($E$2:$E$211),0)</f>
+        <f t="shared" ref="J131:J194" si="17">IF($E131&lt;AVERAGE($E$2:$E$211),$E131-AVERAGE($E$2:$E$211),0)</f>
         <v>0</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K194" si="16">IF($F131&gt;AVERAGE($F$2:$F$211),$F131-AVERAGE($F$2:$F$211),0)</f>
+        <f t="shared" ref="K131:K194" si="18">IF($F131&gt;AVERAGE($F$2:$F$211),$F131-AVERAGE($F$2:$F$211),0)</f>
         <v>8.571428571428541E-2</v>
       </c>
       <c r="L131">
-        <f t="shared" ref="L131:L194" si="17">IF($F131&lt;AVERAGE($F$2:$F$211),$F131-AVERAGE($F$2:$F$211),0)</f>
+        <f t="shared" ref="L131:L194" si="19">IF($F131&lt;AVERAGE($F$2:$F$211),$F131-AVERAGE($F$2:$F$211),0)</f>
         <v>0</v>
       </c>
       <c r="M131" s="1">
@@ -7369,8 +7891,12 @@
       <c r="N131" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O131">
+        <f t="shared" ref="O131:O194" si="20">(B131-3)/4</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>36260</v>
       </c>
@@ -7390,27 +7916,27 @@
         <v>6.1</v>
       </c>
       <c r="G132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H132">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-6.2695238095238082E-2</v>
       </c>
       <c r="I132">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.1435238095238105</v>
       </c>
       <c r="J132">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K132">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.1857142857142851</v>
       </c>
       <c r="L132">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M132" s="1">
@@ -7419,8 +7945,12 @@
       <c r="N132" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O132">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>87</v>
       </c>
@@ -7440,27 +7970,27 @@
         <v>5.9</v>
       </c>
       <c r="G133">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.13930476190476193</v>
       </c>
       <c r="H133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.1735238095238103</v>
       </c>
       <c r="J133">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K133">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.98571428571428577</v>
       </c>
       <c r="L133">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M133" s="1">
@@ -7469,8 +7999,12 @@
       <c r="N133" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O133">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>88</v>
       </c>
@@ -7490,27 +8024,27 @@
         <v>6.4</v>
       </c>
       <c r="G134">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.42730476190476191</v>
       </c>
       <c r="H134">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I134">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.15352380952381051</v>
       </c>
       <c r="J134">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K134">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.4857142857142858</v>
       </c>
       <c r="L134">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M134" s="1">
@@ -7519,8 +8053,12 @@
       <c r="N134" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O134">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>36527</v>
       </c>
@@ -7540,27 +8078,27 @@
         <v>6.1</v>
       </c>
       <c r="G135">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.56530476190476187</v>
       </c>
       <c r="H135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I135">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.1735238095238103</v>
       </c>
       <c r="J135">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K135">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.1857142857142851</v>
       </c>
       <c r="L135">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M135" s="1">
@@ -7569,8 +8107,12 @@
       <c r="N135" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O135">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>89</v>
       </c>
@@ -7590,27 +8132,27 @@
         <v>7.3</v>
       </c>
       <c r="G136">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.39930476190476194</v>
       </c>
       <c r="H136">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I136">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.27352380952381039</v>
       </c>
       <c r="J136">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K136">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.3857142857142852</v>
       </c>
       <c r="L136">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M136" s="1">
@@ -7619,8 +8161,12 @@
       <c r="N136" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O136">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>90</v>
       </c>
@@ -7640,27 +8186,27 @@
         <v>7.9</v>
       </c>
       <c r="G137">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.32330476190476193</v>
       </c>
       <c r="H137">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I137">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.18352380952381031</v>
       </c>
       <c r="J137">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K137">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.9857142857142858</v>
       </c>
       <c r="L137">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M137" s="1">
@@ -7669,8 +8215,12 @@
       <c r="N137" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O137">
+        <f t="shared" si="20"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>91</v>
       </c>
@@ -7690,27 +8240,27 @@
         <v>6.8</v>
       </c>
       <c r="G138">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H138">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.37069523809523808</v>
       </c>
       <c r="I138">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.1435238095238105</v>
       </c>
       <c r="J138">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K138">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.8857142857142852</v>
       </c>
       <c r="L138">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M138" s="1">
@@ -7719,8 +8269,12 @@
       <c r="N138" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O138">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>92</v>
       </c>
@@ -7740,27 +8294,27 @@
         <v>4.8</v>
       </c>
       <c r="G139">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H139">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.29269523809523806</v>
       </c>
       <c r="I139">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6.3523809523810426E-2</v>
       </c>
       <c r="J139">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K139">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L139">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.11428571428571477</v>
       </c>
       <c r="M139" s="1">
@@ -7769,8 +8323,12 @@
       <c r="N139" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O139">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>36566</v>
       </c>
@@ -7790,27 +8348,27 @@
         <v>5.7</v>
       </c>
       <c r="G140">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H140">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.49869523809523808</v>
       </c>
       <c r="I140">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.10352380952381046</v>
       </c>
       <c r="J140">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K140">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.78571428571428559</v>
       </c>
       <c r="L140">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M140" s="1">
@@ -7819,8 +8377,12 @@
       <c r="N140" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O140">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>93</v>
       </c>
@@ -7840,27 +8402,27 @@
         <v>5.9</v>
       </c>
       <c r="G141">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H141">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.3926952380952381</v>
       </c>
       <c r="I141">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.3523809523810453E-2</v>
       </c>
       <c r="J141">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K141">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.98571428571428577</v>
       </c>
       <c r="L141">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M141" s="1">
@@ -7869,8 +8431,12 @@
       <c r="N141" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O141">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>94</v>
       </c>
@@ -7890,27 +8456,27 @@
         <v>4.7</v>
       </c>
       <c r="G142">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H142">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.80869523809523813</v>
       </c>
       <c r="I142">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5.3523809523810417E-2</v>
       </c>
       <c r="J142">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K142">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L142">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.21428571428571441</v>
       </c>
       <c r="M142" s="1">
@@ -7919,8 +8485,12 @@
       <c r="N142" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O142">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>36923</v>
       </c>
@@ -7940,27 +8510,27 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="G143">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H143">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.0506952380952381</v>
       </c>
       <c r="I143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.3523809523810444E-2</v>
       </c>
       <c r="J143">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K143">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L143">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-1.4285714285714235E-2</v>
       </c>
       <c r="M143" s="1">
@@ -7969,8 +8539,12 @@
       <c r="N143" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O143">
+        <f t="shared" si="20"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>95</v>
       </c>
@@ -7990,27 +8564,27 @@
         <v>2.4</v>
       </c>
       <c r="G144">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H144">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.206695238095238</v>
       </c>
       <c r="I144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.12352380952381048</v>
       </c>
       <c r="J144">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K144">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L144">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-2.5142857142857147</v>
       </c>
       <c r="M144" s="1">
@@ -8019,8 +8593,12 @@
       <c r="N144" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O144">
+        <f t="shared" si="20"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>96</v>
       </c>
@@ -8040,27 +8618,27 @@
         <v>4.2</v>
       </c>
       <c r="G145">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H145">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.184695238095238</v>
       </c>
       <c r="I145">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.18352380952381031</v>
       </c>
       <c r="J145">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K145">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L145">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.71428571428571441</v>
       </c>
       <c r="M145" s="1">
@@ -8069,8 +8647,12 @@
       <c r="N145" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O145">
+        <f t="shared" si="20"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>37168</v>
       </c>
@@ -8090,27 +8672,27 @@
         <v>2.7</v>
       </c>
       <c r="G146">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H146">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.0126952380952381</v>
       </c>
       <c r="I146">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.1735238095238103</v>
       </c>
       <c r="J146">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K146">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L146">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-2.2142857142857144</v>
       </c>
       <c r="M146" s="1">
@@ -8119,8 +8701,12 @@
       <c r="N146" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O146">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>97</v>
       </c>
@@ -8140,27 +8726,27 @@
         <v>2.7</v>
       </c>
       <c r="G147">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H147">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.85069523809523806</v>
       </c>
       <c r="I147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.1735238095238103</v>
       </c>
       <c r="J147">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K147">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L147">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-2.2142857142857144</v>
       </c>
       <c r="M147" s="1">
@@ -8169,8 +8755,12 @@
       <c r="N147" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O147">
+        <f t="shared" si="20"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>98</v>
       </c>
@@ -8190,27 +8780,27 @@
         <v>3.8</v>
       </c>
       <c r="G148">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H148">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.67869523809523813</v>
       </c>
       <c r="I148">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.15352380952381051</v>
       </c>
       <c r="J148">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K148">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L148">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-1.1142857142857148</v>
       </c>
       <c r="M148" s="1">
@@ -8219,8 +8809,12 @@
       <c r="N148" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O148">
+        <f t="shared" si="20"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>99</v>
       </c>
@@ -8240,27 +8834,27 @@
         <v>3.5</v>
       </c>
       <c r="G149">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.47069523809523806</v>
       </c>
       <c r="I149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.15352380952381051</v>
       </c>
       <c r="J149">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K149">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L149">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-1.4142857142857146</v>
       </c>
       <c r="M149" s="1">
@@ -8269,8 +8863,12 @@
       <c r="N149" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O149">
+        <f t="shared" si="20"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>100</v>
       </c>
@@ -8290,27 +8888,27 @@
         <v>2.5</v>
       </c>
       <c r="G150">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H150">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.28869523809523806</v>
       </c>
       <c r="I150">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.1735238095238103</v>
       </c>
       <c r="J150">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K150">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L150">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-2.4142857142857146</v>
       </c>
       <c r="M150" s="1">
@@ -8319,8 +8917,12 @@
       <c r="N150" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O150">
+        <f t="shared" si="20"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>101</v>
       </c>
@@ -8340,27 +8942,27 @@
         <v>2.5</v>
       </c>
       <c r="G151">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H151">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.30469523809523807</v>
       </c>
       <c r="I151">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.1735238095238103</v>
       </c>
       <c r="J151">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K151">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L151">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-2.4142857142857146</v>
       </c>
       <c r="M151" s="1">
@@ -8369,8 +8971,12 @@
       <c r="N151" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O151">
+        <f t="shared" si="20"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>36901</v>
       </c>
@@ -8390,27 +8996,27 @@
         <v>-0.5</v>
       </c>
       <c r="G152">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H152">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.50669523809523809</v>
       </c>
       <c r="I152">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.3523809523810453E-2</v>
       </c>
       <c r="J152">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K152">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L152">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-5.4142857142857146</v>
       </c>
       <c r="M152" s="1">
@@ -8419,8 +9025,12 @@
       <c r="N152" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O152">
+        <f t="shared" si="20"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>37022</v>
       </c>
@@ -8440,27 +9050,27 @@
         <v>-2</v>
       </c>
       <c r="G153">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H153">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.4586952380952381</v>
       </c>
       <c r="I153">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.3523809523810408E-2</v>
       </c>
       <c r="J153">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K153">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L153">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-6.9142857142857146</v>
       </c>
       <c r="M153" s="1">
@@ -8469,8 +9079,12 @@
       <c r="N153" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O153">
+        <f t="shared" si="20"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>37176</v>
       </c>
@@ -8490,27 +9104,27 @@
         <v>-1.8</v>
       </c>
       <c r="G154">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.32330476190476193</v>
       </c>
       <c r="H154">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7.3523809523810435E-2</v>
       </c>
       <c r="J154">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K154">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L154">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-6.7142857142857144</v>
       </c>
       <c r="M154" s="1">
@@ -8519,8 +9133,12 @@
       <c r="N154" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O154">
+        <f t="shared" si="20"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>102</v>
       </c>
@@ -8540,27 +9158,27 @@
         <v>3.3</v>
       </c>
       <c r="G155">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.43530476190476192</v>
       </c>
       <c r="H155">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I155">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.10352380952381046</v>
       </c>
       <c r="J155">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K155">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L155">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-1.6142857142857148</v>
       </c>
       <c r="M155" s="1">
@@ -8569,8 +9187,12 @@
       <c r="N155" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O155">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>103</v>
       </c>
@@ -8590,27 +9212,27 @@
         <v>5.4</v>
       </c>
       <c r="G156">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.84730476190476189</v>
       </c>
       <c r="H156">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I156">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.18352380952381031</v>
       </c>
       <c r="J156">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K156">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.48571428571428577</v>
       </c>
       <c r="L156">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M156" s="1">
@@ -8619,8 +9241,12 @@
       <c r="N156" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O156">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>37412</v>
       </c>
@@ -8640,27 +9266,27 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="G157">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.52930476190476194</v>
       </c>
       <c r="H157">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I157">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.18352380952381031</v>
       </c>
       <c r="J157">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K157">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L157">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.81428571428571495</v>
       </c>
       <c r="M157" s="1">
@@ -8669,8 +9295,12 @@
       <c r="N157" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O157">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>104</v>
       </c>
@@ -8690,27 +9320,27 @@
         <v>3.2</v>
       </c>
       <c r="G158">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.37930476190476192</v>
       </c>
       <c r="H158">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I158">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.18352380952381031</v>
       </c>
       <c r="J158">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K158">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L158">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-1.7142857142857144</v>
       </c>
       <c r="M158" s="1">
@@ -8719,8 +9349,12 @@
       <c r="N158" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O158">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>37598</v>
       </c>
@@ -8740,27 +9374,27 @@
         <v>3.5</v>
       </c>
       <c r="G159">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H159">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-3.0695238095238088E-2</v>
       </c>
       <c r="I159">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.18352380952381031</v>
       </c>
       <c r="J159">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L159">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-1.4142857142857146</v>
       </c>
       <c r="M159" s="1">
@@ -8769,8 +9403,12 @@
       <c r="N159" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O159">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>105</v>
       </c>
@@ -8790,27 +9428,27 @@
         <v>4.3</v>
       </c>
       <c r="G160">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.3047619047619129E-3</v>
       </c>
       <c r="H160">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I160">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.20352380952381033</v>
       </c>
       <c r="J160">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K160">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L160">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.61428571428571477</v>
       </c>
       <c r="M160" s="1">
@@ -8819,8 +9457,12 @@
       <c r="N160" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O160">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>37387</v>
       </c>
@@ -8840,27 +9482,27 @@
         <v>2.9</v>
       </c>
       <c r="G161">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H161">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.25069523809523808</v>
       </c>
       <c r="I161">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.21352380952381034</v>
       </c>
       <c r="J161">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K161">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L161">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-2.0142857142857147</v>
       </c>
       <c r="M161" s="1">
@@ -8869,8 +9511,12 @@
       <c r="N161" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O161">
+        <f t="shared" si="20"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>37511</v>
       </c>
@@ -8890,27 +9536,27 @@
         <v>3.1</v>
       </c>
       <c r="G162">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28330476190476189</v>
       </c>
       <c r="H162">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I162">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.19352380952381032</v>
       </c>
       <c r="J162">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K162">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L162">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-1.8142857142857145</v>
       </c>
       <c r="M162" s="1">
@@ -8919,8 +9565,12 @@
       <c r="N162" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O162">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>106</v>
       </c>
@@ -8940,27 +9590,27 @@
         <v>3.8</v>
       </c>
       <c r="G163">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.7304761904761923E-2</v>
       </c>
       <c r="H163">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I163">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.30352380952381042</v>
       </c>
       <c r="J163">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K163">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L163">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-1.1142857142857148</v>
       </c>
       <c r="M163" s="1">
@@ -8969,8 +9619,12 @@
       <c r="N163" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O163">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>107</v>
       </c>
@@ -8990,27 +9644,27 @@
         <v>4.3</v>
       </c>
       <c r="G164">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H164">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-7.8695238095238082E-2</v>
       </c>
       <c r="I164">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.35352380952381046</v>
       </c>
       <c r="J164">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K164">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L164">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.61428571428571477</v>
       </c>
       <c r="M164" s="1">
@@ -9019,8 +9673,12 @@
       <c r="N164" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O164">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>37746</v>
       </c>
@@ -9040,27 +9698,27 @@
         <v>3.1</v>
       </c>
       <c r="G165">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H165">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.6695238095238088E-2</v>
       </c>
       <c r="I165">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.29352380952381041</v>
       </c>
       <c r="J165">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K165">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L165">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-1.8142857142857145</v>
       </c>
       <c r="M165" s="1">
@@ -9069,8 +9727,12 @@
       <c r="N165" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O165">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>108</v>
       </c>
@@ -9090,27 +9752,27 @@
         <v>2.4</v>
       </c>
       <c r="G166">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H166">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.27869523809523811</v>
       </c>
       <c r="I166">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.23352380952381036</v>
       </c>
       <c r="J166">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K166">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L166">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-2.5142857142857147</v>
       </c>
       <c r="M166" s="1">
@@ -9119,8 +9781,12 @@
       <c r="N166" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O166">
+        <f t="shared" si="20"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>37933</v>
       </c>
@@ -9140,27 +9806,27 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="G167">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.34330476190476195</v>
       </c>
       <c r="H167">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I167">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.27352380952381039</v>
       </c>
       <c r="J167">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K167">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L167">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.31428571428571495</v>
       </c>
       <c r="M167" s="1">
@@ -9169,8 +9835,12 @@
       <c r="N167" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O167">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>109</v>
       </c>
@@ -9190,27 +9860,27 @@
         <v>5.9</v>
       </c>
       <c r="G168">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.20530476190476191</v>
       </c>
       <c r="H168">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I168">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.33352380952381044</v>
       </c>
       <c r="J168">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K168">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.98571428571428577</v>
       </c>
       <c r="L168">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M168" s="1">
@@ -9219,8 +9889,12 @@
       <c r="N168" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O168">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>110</v>
       </c>
@@ -9240,27 +9914,27 @@
         <v>5.2</v>
       </c>
       <c r="G169">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.2893047619047619</v>
       </c>
       <c r="H169">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I169">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.37352380952381048</v>
       </c>
       <c r="J169">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K169">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.28571428571428559</v>
       </c>
       <c r="L169">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M169" s="1">
@@ -9269,8 +9943,12 @@
       <c r="N169" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O169">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>37845</v>
       </c>
@@ -9290,27 +9968,27 @@
         <v>5.5</v>
       </c>
       <c r="G170">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.37530476190476192</v>
       </c>
       <c r="H170">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I170">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.46352380952381034</v>
       </c>
       <c r="J170">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K170">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.58571428571428541</v>
       </c>
       <c r="L170">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M170" s="1">
@@ -9319,8 +9997,12 @@
       <c r="N170" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O170">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>111</v>
       </c>
@@ -9340,27 +10022,27 @@
         <v>6.6</v>
       </c>
       <c r="G171">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.18330476190476191</v>
       </c>
       <c r="H171">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I171">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.45352380952381033</v>
       </c>
       <c r="J171">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K171">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.6857142857142851</v>
       </c>
       <c r="L171">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M171" s="1">
@@ -9369,8 +10051,12 @@
       <c r="N171" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O171">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>112</v>
       </c>
@@ -9390,27 +10076,27 @@
         <v>6.6</v>
       </c>
       <c r="G172">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.15930476190476192</v>
       </c>
       <c r="H172">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I172">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.43352380952381031</v>
       </c>
       <c r="J172">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K172">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.6857142857142851</v>
       </c>
       <c r="L172">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M172" s="1">
@@ -9419,8 +10105,12 @@
       <c r="N172" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O172">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>38051</v>
       </c>
@@ -9440,27 +10130,27 @@
         <v>6.2</v>
       </c>
       <c r="G173">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.53730476190476195</v>
       </c>
       <c r="H173">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I173">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4235238095238103</v>
       </c>
       <c r="J173">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K173">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.2857142857142856</v>
       </c>
       <c r="L173">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M173" s="1">
@@ -9469,8 +10159,12 @@
       <c r="N173" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O173">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>113</v>
       </c>
@@ -9490,27 +10184,27 @@
         <v>7.4</v>
       </c>
       <c r="G174">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.117304761904762</v>
       </c>
       <c r="H174">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.50352380952381037</v>
       </c>
       <c r="J174">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K174">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.4857142857142858</v>
       </c>
       <c r="L174">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M174" s="1">
@@ -9519,8 +10213,12 @@
       <c r="N174" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O174">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>38238</v>
       </c>
@@ -9540,27 +10238,27 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="G175">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.75330476190476192</v>
       </c>
       <c r="H175">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I175">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.46352380952381034</v>
       </c>
       <c r="J175">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K175">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L175">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-1.4285714285714235E-2</v>
       </c>
       <c r="M175" s="1">
@@ -9569,8 +10267,12 @@
       <c r="N175" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O175">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>114</v>
       </c>
@@ -9590,27 +10292,27 @@
         <v>4.5</v>
       </c>
       <c r="G176">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.52930476190476194</v>
       </c>
       <c r="H176">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I176">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.51352380952381038</v>
       </c>
       <c r="J176">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K176">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L176">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.41428571428571459</v>
       </c>
       <c r="M176" s="1">
@@ -9619,8 +10321,12 @@
       <c r="N176" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O176">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>38241</v>
       </c>
@@ -9640,27 +10346,27 @@
         <v>5.2</v>
       </c>
       <c r="G177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.63730476190476193</v>
       </c>
       <c r="H177">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I177">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.51352380952381038</v>
       </c>
       <c r="J177">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K177">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.28571428571428559</v>
       </c>
       <c r="L177">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M177" s="1">
@@ -9669,8 +10375,12 @@
       <c r="N177" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O177">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>115</v>
       </c>
@@ -9690,27 +10400,27 @@
         <v>5.6</v>
       </c>
       <c r="G178">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.54730476190476196</v>
       </c>
       <c r="H178">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I178">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.51352380952381038</v>
       </c>
       <c r="J178">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K178">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.68571428571428505</v>
       </c>
       <c r="L178">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M178" s="1">
@@ -9719,8 +10429,12 @@
       <c r="N178" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O178">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>38354</v>
       </c>
@@ -9740,27 +10454,27 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="G179">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.50330476190476192</v>
       </c>
       <c r="H179">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I179">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.50352380952381037</v>
       </c>
       <c r="J179">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K179">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.18571428571428505</v>
       </c>
       <c r="L179">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M179" s="1">
@@ -9769,8 +10483,12 @@
       <c r="N179" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O179">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>116</v>
       </c>
@@ -9790,27 +10508,27 @@
         <v>7.2</v>
       </c>
       <c r="G180">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.65930476190476195</v>
       </c>
       <c r="H180">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I180">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.68352380952381031</v>
       </c>
       <c r="J180">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K180">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.2857142857142856</v>
       </c>
       <c r="L180">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M180" s="1">
@@ -9819,8 +10537,12 @@
       <c r="N180" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O180">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>38388</v>
       </c>
@@ -9840,27 +10562,27 @@
         <v>6.3</v>
       </c>
       <c r="G181">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.4813047619047619</v>
       </c>
       <c r="H181">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I181">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.55352380952381042</v>
       </c>
       <c r="J181">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K181">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.3857142857142852</v>
       </c>
       <c r="L181">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M181" s="1">
@@ -9869,8 +10591,12 @@
       <c r="N181" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O181">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>117</v>
       </c>
@@ -9890,27 +10616,27 @@
         <v>5.6</v>
       </c>
       <c r="G182">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.2873047619047619</v>
       </c>
       <c r="H182">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I182">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.5335238095238104</v>
       </c>
       <c r="J182">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K182">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.68571428571428505</v>
       </c>
       <c r="L182">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M182" s="1">
@@ -9919,8 +10645,12 @@
       <c r="N182" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O182">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>38572</v>
       </c>
@@ -9940,27 +10670,27 @@
         <v>5.9</v>
       </c>
       <c r="G183">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.46330476190476194</v>
       </c>
       <c r="H183">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I183">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.54352380952381019</v>
       </c>
       <c r="J183">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K183">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.98571428571428577</v>
       </c>
       <c r="L183">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M183" s="1">
@@ -9969,8 +10699,12 @@
       <c r="N183" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O183">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>118</v>
       </c>
@@ -9990,27 +10724,27 @@
         <v>5.8</v>
       </c>
       <c r="G184">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.25330476190476192</v>
       </c>
       <c r="H184">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.5335238095238104</v>
       </c>
       <c r="J184">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K184">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.88571428571428523</v>
       </c>
       <c r="L184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M184" s="1">
@@ -10019,8 +10753,12 @@
       <c r="N184" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O184">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>119</v>
       </c>
@@ -10040,27 +10778,27 @@
         <v>6.6</v>
       </c>
       <c r="G185">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.42530476190476191</v>
       </c>
       <c r="H185">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.63352380952381049</v>
       </c>
       <c r="J185">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K185">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.6857142857142851</v>
       </c>
       <c r="L185">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M185" s="1">
@@ -10069,8 +10807,12 @@
       <c r="N185" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O185">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>38698</v>
       </c>
@@ -10090,27 +10832,27 @@
         <v>5.6</v>
       </c>
       <c r="G186">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.25730476190476192</v>
       </c>
       <c r="H186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I186">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.5335238095238104</v>
       </c>
       <c r="J186">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K186">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.68571428571428505</v>
       </c>
       <c r="L186">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M186" s="1">
@@ -10119,8 +10861,12 @@
       <c r="N186" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O186">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>120</v>
       </c>
@@ -10140,27 +10886,27 @@
         <v>6.3</v>
       </c>
       <c r="G187">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.14330476190476191</v>
       </c>
       <c r="H187">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I187">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.63352380952381049</v>
       </c>
       <c r="J187">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K187">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.3857142857142852</v>
       </c>
       <c r="L187">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M187" s="1">
@@ -10169,8 +10915,12 @@
       <c r="N187" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O187">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>121</v>
       </c>
@@ -10190,27 +10940,27 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G188">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.13730476190476193</v>
       </c>
       <c r="H188">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I188">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.63352380952381049</v>
       </c>
       <c r="J188">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K188">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.2857142857142847</v>
       </c>
       <c r="L188">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M188" s="1">
@@ -10219,8 +10969,12 @@
       <c r="N188" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O188">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>38965</v>
       </c>
@@ -10240,27 +10994,27 @@
         <v>7</v>
       </c>
       <c r="G189">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.17130476190476193</v>
       </c>
       <c r="H189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I189">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.5335238095238104</v>
       </c>
       <c r="J189">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K189">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.0857142857142854</v>
       </c>
       <c r="L189">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M189" s="1">
@@ -10269,8 +11023,12 @@
       <c r="N189" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O189">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>122</v>
       </c>
@@ -10290,27 +11048,27 @@
         <v>5.9</v>
       </c>
       <c r="G190">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.26530476190476193</v>
       </c>
       <c r="H190">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I190">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.43352380952381031</v>
       </c>
       <c r="J190">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K190">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.98571428571428577</v>
       </c>
       <c r="L190">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M190" s="1">
@@ -10319,8 +11077,12 @@
       <c r="N190" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O190">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>38906</v>
       </c>
@@ -10340,27 +11102,27 @@
         <v>5.3</v>
       </c>
       <c r="G191">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H191">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.14869523809523807</v>
       </c>
       <c r="I191">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.33352380952381044</v>
       </c>
       <c r="J191">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K191">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.38571428571428523</v>
       </c>
       <c r="L191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M191" s="1">
@@ -10369,8 +11131,12 @@
       <c r="N191" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O191">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>123</v>
       </c>
@@ -10390,27 +11156,27 @@
         <v>4</v>
       </c>
       <c r="G192">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H192">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.22669523809523809</v>
       </c>
       <c r="I192">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.23352380952381036</v>
       </c>
       <c r="J192">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K192">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L192">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.91428571428571459</v>
       </c>
       <c r="M192" s="1">
@@ -10419,8 +11185,12 @@
       <c r="N192" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O192">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>124</v>
       </c>
@@ -10440,27 +11210,27 @@
         <v>4</v>
       </c>
       <c r="G193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H193">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.16869523809523809</v>
       </c>
       <c r="I193">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.13352380952381049</v>
       </c>
       <c r="J193">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K193">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L193">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.91428571428571459</v>
       </c>
       <c r="M193" s="1">
@@ -10469,8 +11239,12 @@
       <c r="N193" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O193">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>39033</v>
       </c>
@@ -10490,27 +11264,27 @@
         <v>2.9</v>
       </c>
       <c r="G194">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H194">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.32469523809523809</v>
       </c>
       <c r="I194">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.3523809523810399E-2</v>
       </c>
       <c r="J194">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K194">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L194">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-2.0142857142857147</v>
       </c>
       <c r="M194" s="1">
@@ -10519,8 +11293,12 @@
       <c r="N194" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O194">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>125</v>
       </c>
@@ -10540,27 +11318,27 @@
         <v>5.7</v>
       </c>
       <c r="G195">
-        <f t="shared" ref="G195:G211" si="18">IF($D195&gt;AVERAGE($D$2:$D$211),$D195-AVERAGE($D$2:$D$211),0)</f>
+        <f t="shared" ref="G195:G211" si="21">IF($D195&gt;AVERAGE($D$2:$D$211),$D195-AVERAGE($D$2:$D$211),0)</f>
         <v>0</v>
       </c>
       <c r="H195">
-        <f t="shared" ref="H195:H211" si="19">IF($D195&lt;AVERAGE($D$2:$D$211),$D195-AVERAGE($D$2:$D$211),0)</f>
+        <f t="shared" ref="H195:H211" si="22">IF($D195&lt;AVERAGE($D$2:$D$211),$D195-AVERAGE($D$2:$D$211),0)</f>
         <v>-0.15469523809523808</v>
       </c>
       <c r="I195">
-        <f t="shared" ref="I195:I211" si="20">IF($E195&gt;AVERAGE($E$2:$E$211),$E195-AVERAGE($E$2:$E$211),0)</f>
+        <f t="shared" ref="I195:I211" si="23">IF($E195&gt;AVERAGE($E$2:$E$211),$E195-AVERAGE($E$2:$E$211),0)</f>
         <v>3.3523809523810399E-2</v>
       </c>
       <c r="J195">
-        <f t="shared" ref="J195:J211" si="21">IF($E195&lt;AVERAGE($E$2:$E$211),$E195-AVERAGE($E$2:$E$211),0)</f>
+        <f t="shared" ref="J195:J211" si="24">IF($E195&lt;AVERAGE($E$2:$E$211),$E195-AVERAGE($E$2:$E$211),0)</f>
         <v>0</v>
       </c>
       <c r="K195">
-        <f t="shared" ref="K195:K211" si="22">IF($F195&gt;AVERAGE($F$2:$F$211),$F195-AVERAGE($F$2:$F$211),0)</f>
+        <f t="shared" ref="K195:K211" si="25">IF($F195&gt;AVERAGE($F$2:$F$211),$F195-AVERAGE($F$2:$F$211),0)</f>
         <v>0.78571428571428559</v>
       </c>
       <c r="L195">
-        <f t="shared" ref="L195:L211" si="23">IF($F195&lt;AVERAGE($F$2:$F$211),$F195-AVERAGE($F$2:$F$211),0)</f>
+        <f t="shared" ref="L195:L211" si="26">IF($F195&lt;AVERAGE($F$2:$F$211),$F195-AVERAGE($F$2:$F$211),0)</f>
         <v>0</v>
       </c>
       <c r="M195" s="1">
@@ -10569,8 +11347,12 @@
       <c r="N195" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O195">
+        <f t="shared" ref="O195:O211" si="27">(B195-3)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>126</v>
       </c>
@@ -10590,27 +11372,27 @@
         <v>5.5</v>
       </c>
       <c r="G196">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H196">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-0.32669523809523809</v>
       </c>
       <c r="I196">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J196">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-6.6476190476189689E-2</v>
       </c>
       <c r="K196">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.58571428571428541</v>
       </c>
       <c r="L196">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M196" s="1">
@@ -10619,8 +11401,12 @@
       <c r="N196" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O196">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>39299</v>
       </c>
@@ -10640,27 +11426,27 @@
         <v>5.5</v>
       </c>
       <c r="G197">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H197">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-0.31269523809523808</v>
       </c>
       <c r="I197">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J197">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-6.6476190476189689E-2</v>
       </c>
       <c r="K197">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.58571428571428541</v>
       </c>
       <c r="L197">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M197" s="1">
@@ -10669,8 +11455,12 @@
       <c r="N197" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O197">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>127</v>
       </c>
@@ -10690,27 +11480,27 @@
         <v>6</v>
       </c>
       <c r="G198">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H198">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-0.30669523809523808</v>
       </c>
       <c r="I198">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3.3523809523810399E-2</v>
       </c>
       <c r="J198">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K198">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1.0857142857142854</v>
       </c>
       <c r="L198">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M198" s="1">
@@ -10719,8 +11509,12 @@
       <c r="N198" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O198">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>39241</v>
       </c>
@@ -10740,27 +11534,27 @@
         <v>3.6</v>
       </c>
       <c r="G199">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H199">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-0.4586952380952381</v>
       </c>
       <c r="I199">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J199">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-0.16647619047618956</v>
       </c>
       <c r="K199">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L199">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-1.3142857142857145</v>
       </c>
       <c r="M199" s="1">
@@ -10769,8 +11563,12 @@
       <c r="N199" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O199">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>39333</v>
       </c>
@@ -10790,27 +11588,27 @@
         <v>3.6</v>
       </c>
       <c r="G200">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H200">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-0.48869523809523807</v>
       </c>
       <c r="I200">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J200">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-0.16647619047618956</v>
       </c>
       <c r="K200">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L200">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-1.3142857142857145</v>
       </c>
       <c r="M200" s="1">
@@ -10819,8 +11617,12 @@
       <c r="N200" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O200">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>128</v>
       </c>
@@ -10840,27 +11642,27 @@
         <v>3.6</v>
       </c>
       <c r="G201">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H201">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-0.20069523809523809</v>
       </c>
       <c r="I201">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J201">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-0.16647619047618956</v>
       </c>
       <c r="K201">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L201">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-1.3142857142857145</v>
       </c>
       <c r="M201" s="1">
@@ -10869,8 +11671,12 @@
       <c r="N201" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O201">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>129</v>
       </c>
@@ -10890,27 +11696,27 @@
         <v>3.5</v>
       </c>
       <c r="G202">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H202">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-1.0066952380952381</v>
       </c>
       <c r="I202">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J202">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-0.16647619047618956</v>
       </c>
       <c r="K202">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L202">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-1.4142857142857146</v>
       </c>
       <c r="M202" s="1">
@@ -10919,8 +11725,12 @@
       <c r="N202" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O202">
+        <f t="shared" si="27"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>130</v>
       </c>
@@ -10940,27 +11750,27 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G203">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H203">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-0.84669523809523806</v>
       </c>
       <c r="I203">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J203">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-0.26647619047618964</v>
       </c>
       <c r="K203">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L203">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-2.6142857142857148</v>
       </c>
       <c r="M203" s="1">
@@ -10969,8 +11779,12 @@
       <c r="N203" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O203">
+        <f t="shared" si="27"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>39367</v>
       </c>
@@ -10990,27 +11804,27 @@
         <v>1.9</v>
       </c>
       <c r="G204">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H204">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-1.2446952380952381</v>
       </c>
       <c r="I204">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J204">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-0.26647619047618964</v>
       </c>
       <c r="K204">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L204">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-3.0142857142857147</v>
       </c>
       <c r="M204" s="1">
@@ -11019,8 +11833,12 @@
       <c r="N204" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O204">
+        <f t="shared" si="27"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>131</v>
       </c>
@@ -11040,27 +11858,27 @@
         <v>1.9</v>
       </c>
       <c r="G205">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H205">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-1.392695238095238</v>
       </c>
       <c r="I205">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J205">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-0.26647619047618964</v>
       </c>
       <c r="K205">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L205">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-3.0142857142857147</v>
       </c>
       <c r="M205" s="1">
@@ -11069,8 +11887,12 @@
       <c r="N205" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O205">
+        <f t="shared" si="27"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>132</v>
       </c>
@@ -11090,27 +11912,27 @@
         <v>3.3</v>
       </c>
       <c r="G206">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H206">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-1.180695238095238</v>
       </c>
       <c r="I206">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J206">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-0.4664761904761896</v>
       </c>
       <c r="K206">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L206">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-1.6142857142857148</v>
       </c>
       <c r="M206" s="1">
@@ -11119,8 +11941,12 @@
       <c r="N206" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O206">
+        <f t="shared" si="27"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>133</v>
       </c>
@@ -11140,27 +11966,27 @@
         <v>2.7</v>
       </c>
       <c r="G207">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H207">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-1.418695238095238</v>
       </c>
       <c r="I207">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J207">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-0.4664761904761896</v>
       </c>
       <c r="K207">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L207">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-2.2142857142857144</v>
       </c>
       <c r="M207" s="1">
@@ -11169,8 +11995,12 @@
       <c r="N207" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O207">
+        <f t="shared" si="27"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>134</v>
       </c>
@@ -11190,27 +12020,27 @@
         <v>-0.6</v>
       </c>
       <c r="G208">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H208">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-0.32269523809523809</v>
       </c>
       <c r="I208">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J208">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-0.56647619047618958</v>
       </c>
       <c r="K208">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L208">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-5.5142857142857142</v>
       </c>
       <c r="M208" s="1">
@@ -11219,8 +12049,12 @@
       <c r="N208" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O208">
+        <f t="shared" si="27"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>135</v>
       </c>
@@ -11240,27 +12074,27 @@
         <v>1.9</v>
       </c>
       <c r="G209">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.6053047619047619</v>
       </c>
       <c r="H209">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I209">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J209">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-0.4664761904761896</v>
       </c>
       <c r="K209">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L209">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-3.0142857142857147</v>
       </c>
       <c r="M209" s="1">
@@ -11269,8 +12103,12 @@
       <c r="N209" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O209">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>39546</v>
       </c>
@@ -11290,27 +12128,27 @@
         <v>4.3</v>
       </c>
       <c r="G210">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.26130476190476193</v>
       </c>
       <c r="H210">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I210">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J210">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-0.56647619047618958</v>
       </c>
       <c r="K210">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L210">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-0.61428571428571477</v>
       </c>
       <c r="M210" s="1">
@@ -11319,8 +12157,12 @@
       <c r="N210" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O210">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>136</v>
       </c>
@@ -11340,33 +12182,37 @@
         <v>5.5</v>
       </c>
       <c r="G211">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H211">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-0.20069523809523809</v>
       </c>
       <c r="I211">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J211">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-0.56647619047618958</v>
       </c>
       <c r="K211">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.58571428571428541</v>
       </c>
       <c r="L211">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M211" s="1">
         <v>0</v>
       </c>
       <c r="N211" s="1">
+        <v>0</v>
+      </c>
+      <c r="O211">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
